--- a/playground/Lotto/Book1.xlsx
+++ b/playground/Lotto/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9CFF6C-6389-48C0-BBA6-521B9ED1BDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C6B1C8-6FFD-4471-B468-39E5449EDA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="380" windowWidth="26020" windowHeight="14020" activeTab="1" xr2:uid="{F520DDEF-B5EC-4186-A5B8-903311AB5A1E}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" activeTab="1" xr2:uid="{F520DDEF-B5EC-4186-A5B8-903311AB5A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="354">
   <si>
     <t>รางวัลที่ 1</t>
   </si>
@@ -1103,8 +1103,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="[$-1010000]d/m/yy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1200,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,38 +1212,44 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1562,16 +1569,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="25.26953125" style="10" customWidth="1"/>
+    <col min="1" max="5" width="25.296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1622,7 +1629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1646,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1741,7 +1748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1758,7 +1765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1809,7 +1816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1894,7 +1901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1911,7 +1918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
@@ -1928,7 +1935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1945,7 +1952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
@@ -1979,7 +1986,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -1996,7 +2003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -2013,7 +2020,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -2030,7 +2037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>85</v>
       </c>
@@ -2064,7 +2071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>91</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -2132,7 +2139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>100</v>
       </c>
@@ -2149,33 +2156,33 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="11">
         <v>260453</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="13">
         <v>268708</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="54" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
@@ -2192,7 +2199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -2209,7 +2216,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>112</v>
       </c>
@@ -2226,7 +2233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
@@ -2243,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>118</v>
       </c>
@@ -2260,7 +2267,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -2294,7 +2301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>127</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>130</v>
       </c>
@@ -2328,7 +2335,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -2345,7 +2352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>136</v>
       </c>
@@ -2362,7 +2369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>139</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -2396,7 +2403,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>145</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
@@ -2430,7 +2437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>151</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>154</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
@@ -2498,7 +2505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>163</v>
       </c>
@@ -2515,7 +2522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>166</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>169</v>
       </c>
@@ -2549,7 +2556,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>172</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>175</v>
       </c>
@@ -2583,7 +2590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
@@ -2600,14 +2607,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B62" s="2">
         <v>981417</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="5">
         <v>287242</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -2617,7 +2624,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>183</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>186</v>
       </c>
@@ -2651,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>189</v>
       </c>
@@ -2668,7 +2675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>192</v>
       </c>
@@ -2685,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>195</v>
       </c>
@@ -2695,14 +2702,14 @@
       <c r="C67" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="5">
         <v>413508</v>
       </c>
       <c r="E67" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>200</v>
       </c>
@@ -2736,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>203</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>206</v>
       </c>
@@ -2770,7 +2777,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>209</v>
       </c>
@@ -2787,7 +2794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>212</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>215</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>218</v>
       </c>
@@ -2838,7 +2845,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>221</v>
       </c>
@@ -2855,7 +2862,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>224</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>227</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>230</v>
       </c>
@@ -2906,7 +2913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>233</v>
       </c>
@@ -2923,7 +2930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>236</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>239</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>242</v>
       </c>
@@ -2974,7 +2981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>245</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>248</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>251</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>254</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>257</v>
       </c>
@@ -3059,7 +3066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>260</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>263</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>266</v>
       </c>
@@ -3110,7 +3117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>269</v>
       </c>
@@ -3127,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>272</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>275</v>
       </c>
@@ -3161,7 +3168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>278</v>
       </c>
@@ -3178,7 +3185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>281</v>
       </c>
@@ -3195,7 +3202,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>284</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>287</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>290</v>
       </c>
@@ -3246,7 +3253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>293</v>
       </c>
@@ -3263,7 +3270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>296</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>299</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>302</v>
       </c>
@@ -3314,7 +3321,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>305</v>
       </c>
@@ -3331,7 +3338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>308</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>311</v>
       </c>
@@ -3365,7 +3372,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>314</v>
       </c>
@@ -3382,7 +3389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>317</v>
       </c>
@@ -3399,7 +3406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>320</v>
       </c>
@@ -3416,7 +3423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>323</v>
       </c>
@@ -3433,7 +3440,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>326</v>
       </c>
@@ -3450,7 +3457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>329</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>332</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>335</v>
       </c>
@@ -3501,7 +3508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>338</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>341</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>343</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>346</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="180" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="35.75" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>349</v>
       </c>
@@ -3600,964 +3607,1306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18982121-1DB6-4B93-AB66-773579703A8E}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.296875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="15">
+        <v>45627</v>
+      </c>
+      <c r="C2" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="15">
+        <v>45612</v>
+      </c>
+      <c r="C3" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="15">
+        <v>45597</v>
+      </c>
+      <c r="C4" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="15">
+        <v>45581</v>
+      </c>
+      <c r="C5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="15">
+        <v>45566</v>
+      </c>
+      <c r="C6" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="15">
+        <v>45551</v>
+      </c>
+      <c r="C7" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="15">
+        <v>45536</v>
+      </c>
+      <c r="C8" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="15">
+        <v>45520</v>
+      </c>
+      <c r="C9" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="15">
+        <v>45505</v>
+      </c>
+      <c r="C10" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="15">
+        <v>45489</v>
+      </c>
+      <c r="C11" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="15">
+        <v>45474</v>
+      </c>
+      <c r="C12" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="15">
+        <v>45459</v>
+      </c>
+      <c r="C13" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="15">
+        <v>45444</v>
+      </c>
+      <c r="C14" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="15">
+        <v>45428</v>
+      </c>
+      <c r="C15" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="15">
+        <v>45414</v>
+      </c>
+      <c r="C16" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="15">
+        <v>45398</v>
+      </c>
+      <c r="C17" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="15">
+        <v>45383</v>
+      </c>
+      <c r="C18" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="15">
+        <v>45367</v>
+      </c>
+      <c r="C19" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="15">
+        <v>45352</v>
+      </c>
+      <c r="C20" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="15">
+        <v>45338</v>
+      </c>
+      <c r="C21" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="15">
+        <v>45323</v>
+      </c>
+      <c r="C22" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="15">
+        <v>45308</v>
+      </c>
+      <c r="C23" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="15">
+        <v>45290</v>
+      </c>
+      <c r="C24" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="15">
+        <v>45276</v>
+      </c>
+      <c r="C25" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="15">
+        <v>45261</v>
+      </c>
+      <c r="C26" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="15">
+        <v>45246</v>
+      </c>
+      <c r="C27" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="15">
+        <v>45231</v>
+      </c>
+      <c r="C28" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="15">
+        <v>45215</v>
+      </c>
+      <c r="C29" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="15">
+        <v>45200</v>
+      </c>
+      <c r="C30" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="15">
+        <v>45185</v>
+      </c>
+      <c r="C31" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="15">
+        <v>45170</v>
+      </c>
+      <c r="C32" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="15">
+        <v>45154</v>
+      </c>
+      <c r="C33" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="15">
+        <v>45138</v>
+      </c>
+      <c r="C34" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B35" s="15">
+        <v>45123</v>
+      </c>
+      <c r="C35" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B36" s="15">
+        <v>45108</v>
+      </c>
+      <c r="C36" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B37" s="15">
+        <v>45093</v>
+      </c>
+      <c r="C37" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B38" s="15">
+        <v>45078</v>
+      </c>
+      <c r="C38" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B39" s="15">
+        <v>45061</v>
+      </c>
+      <c r="C39" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B40" s="15">
+        <v>45048</v>
+      </c>
+      <c r="C40" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B41" s="15">
+        <v>45032</v>
+      </c>
+      <c r="C41" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B42" s="15">
+        <v>45017</v>
+      </c>
+      <c r="C42" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B43" s="15">
+        <v>45001</v>
+      </c>
+      <c r="C43" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B44" s="15">
+        <v>44986</v>
+      </c>
+      <c r="C44" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B45" s="15">
+        <v>44973</v>
+      </c>
+      <c r="C45" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B46" s="15">
+        <v>44958</v>
+      </c>
+      <c r="C46" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B47" s="15">
+        <v>44943</v>
+      </c>
+      <c r="C47" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B48" s="15">
+        <v>44925</v>
+      </c>
+      <c r="C48" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B49" s="15">
+        <v>44911</v>
+      </c>
+      <c r="C49" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B50" s="15">
+        <v>44896</v>
+      </c>
+      <c r="C50" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B51" s="15">
+        <v>44881</v>
+      </c>
+      <c r="C51" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B52" s="15">
+        <v>44866</v>
+      </c>
+      <c r="C52" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B53" s="15">
+        <v>44850</v>
+      </c>
+      <c r="C53" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B54" s="15">
+        <v>44835</v>
+      </c>
+      <c r="C54" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B55" s="15">
+        <v>44820</v>
+      </c>
+      <c r="C55" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B56" s="15">
+        <v>44805</v>
+      </c>
+      <c r="C56" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B57" s="15">
+        <v>44789</v>
+      </c>
+      <c r="C57" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B58" s="15">
+        <v>44774</v>
+      </c>
+      <c r="C58" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B59" s="15">
+        <v>44758</v>
+      </c>
+      <c r="C59" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B60" s="15">
+        <v>44743</v>
+      </c>
+      <c r="C60" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B61" s="15">
+        <v>44728</v>
+      </c>
+      <c r="C61" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B62" s="15">
+        <v>44713</v>
+      </c>
+      <c r="C62" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B63" s="15">
+        <v>44697</v>
+      </c>
+      <c r="C63" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B64" s="15">
+        <v>44683</v>
+      </c>
+      <c r="C64" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B65" s="15">
+        <v>44667</v>
+      </c>
+      <c r="C65" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B66" s="15">
+        <v>44652</v>
+      </c>
+      <c r="C66" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B67" s="15">
+        <v>44636</v>
+      </c>
+      <c r="C67" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B68" s="15">
+        <v>44621</v>
+      </c>
+      <c r="C68" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B69" s="15">
+        <v>44609</v>
+      </c>
+      <c r="C69" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B70" s="15">
+        <v>44593</v>
+      </c>
+      <c r="C70" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B71" s="15">
+        <v>44578</v>
+      </c>
+      <c r="C71" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B72" s="15">
+        <v>44560</v>
+      </c>
+      <c r="C72" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B73" s="15">
+        <v>44546</v>
+      </c>
+      <c r="C73" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B74" s="15">
+        <v>44531</v>
+      </c>
+      <c r="C74" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B75" s="15">
+        <v>44516</v>
+      </c>
+      <c r="C75" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B76" s="15">
+        <v>44501</v>
+      </c>
+      <c r="C76" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B77" s="15">
+        <v>44485</v>
+      </c>
+      <c r="C77" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B78" s="15">
+        <v>44470</v>
+      </c>
+      <c r="C78" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B79" s="15">
+        <v>44455</v>
+      </c>
+      <c r="C79" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B80" s="15">
+        <v>44440</v>
+      </c>
+      <c r="C80" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B81" s="15">
+        <v>44424</v>
+      </c>
+      <c r="C81" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B82" s="15">
+        <v>44409</v>
+      </c>
+      <c r="C82" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A84" s="12" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B83" s="15">
+        <v>44393</v>
+      </c>
+      <c r="C83" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B84" s="15">
+        <v>44378</v>
+      </c>
+      <c r="C84" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B85" s="15">
+        <v>44363</v>
+      </c>
+      <c r="C85" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B86" s="15">
+        <v>44348</v>
+      </c>
+      <c r="C86" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B87" s="15">
+        <v>44332</v>
+      </c>
+      <c r="C87" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B88" s="15">
+        <v>44318</v>
+      </c>
+      <c r="C88" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B89" s="15">
+        <v>44302</v>
+      </c>
+      <c r="C89" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B90" s="15">
+        <v>44287</v>
+      </c>
+      <c r="C90" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B91" s="15">
+        <v>44271</v>
+      </c>
+      <c r="C91" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B92" s="15">
+        <v>44256</v>
+      </c>
+      <c r="C92" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B93" s="15">
+        <v>44243</v>
+      </c>
+      <c r="C93" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B94" s="15">
+        <v>44228</v>
+      </c>
+      <c r="C94" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B95" s="15">
+        <v>44213</v>
+      </c>
+      <c r="C95" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A97" s="12" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B96" s="15">
+        <v>44195</v>
+      </c>
+      <c r="C96" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B97" s="15">
+        <v>44181</v>
+      </c>
+      <c r="C97" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A99" s="12" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B98" s="15">
+        <v>44166</v>
+      </c>
+      <c r="C98" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B99" s="15">
+        <v>44151</v>
+      </c>
+      <c r="C99" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A101" s="12" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B100" s="15">
+        <v>44136</v>
+      </c>
+      <c r="C100" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A102" s="12" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B101" s="15">
+        <v>44120</v>
+      </c>
+      <c r="C101" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B102" s="15">
+        <v>44105</v>
+      </c>
+      <c r="C102" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A104" s="12" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B103" s="15">
+        <v>44090</v>
+      </c>
+      <c r="C103" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A105" s="12" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B104" s="15">
+        <v>44075</v>
+      </c>
+      <c r="C104" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B105" s="15">
+        <v>44059</v>
+      </c>
+      <c r="C105" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B106" s="15">
+        <v>44044</v>
+      </c>
+      <c r="C106" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B107" s="15">
+        <v>44028</v>
+      </c>
+      <c r="C107" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B108" s="15">
+        <v>44013</v>
+      </c>
+      <c r="C108" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B109" s="15">
+        <v>43998</v>
+      </c>
+      <c r="C109" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B110" s="15">
+        <v>43983</v>
+      </c>
+      <c r="C110" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A112" s="12" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B111" s="15">
+        <v>43967</v>
+      </c>
+      <c r="C111" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A113" s="12" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B112" s="15">
+        <v>43906</v>
+      </c>
+      <c r="C112" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A114" s="12" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B113" s="15">
+        <v>43891</v>
+      </c>
+      <c r="C113" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A115" s="12" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B114" s="15">
+        <v>43877</v>
+      </c>
+      <c r="C114" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B115" s="15">
+        <v>43862</v>
+      </c>
+      <c r="C115" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A117" s="12" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B116" s="15">
+        <v>43847</v>
+      </c>
+      <c r="C116" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="54" x14ac:dyDescent="0.35">
-      <c r="A118" s="12" t="s">
+    <row r="117" spans="1:3" ht="35.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B117" s="15">
+        <v>43831</v>
+      </c>
+      <c r="C117" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B34:B35"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/playground/Lotto/Book1.xlsx
+++ b/playground/Lotto/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirin\Documents\GitHub\heartrhythmbox\playground\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C8973B-FB76-4C15-BF49-A2D75C4DD947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CEBF3D-6942-4262-9950-14E51A8332D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="14032" activeTab="4" xr2:uid="{F520DDEF-B5EC-4186-A5B8-903311AB5A1E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="668">
   <si>
     <t>รางวัลที่ 1</t>
   </si>
@@ -4462,6 +4462,15 @@
   </si>
   <si>
     <t>▪ 1 เมษายน 2567</t>
+  </si>
+  <si>
+    <t>Paetongtarn</t>
+  </si>
+  <si>
+    <t>Srettha</t>
+  </si>
+  <si>
+    <t>Prayut</t>
   </si>
 </sst>
 </file>
@@ -4472,7 +4481,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4561,6 +4570,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="19.8"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4645,7 +4666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4711,18 +4732,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4738,6 +4747,22 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4775,15 +4800,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1273</xdr:colOff>
-          <xdr:row>707</xdr:row>
-          <xdr:rowOff>48662</xdr:rowOff>
+          <xdr:colOff>1908</xdr:colOff>
+          <xdr:row>695</xdr:row>
+          <xdr:rowOff>28307</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1603301</xdr:colOff>
-          <xdr:row>708</xdr:row>
-          <xdr:rowOff>127539</xdr:rowOff>
+          <xdr:colOff>2020904</xdr:colOff>
+          <xdr:row>696</xdr:row>
+          <xdr:rowOff>107184</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4825,15 +4850,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1273</xdr:colOff>
-          <xdr:row>715</xdr:row>
-          <xdr:rowOff>72515</xdr:rowOff>
+          <xdr:colOff>1908</xdr:colOff>
+          <xdr:row>703</xdr:row>
+          <xdr:rowOff>22900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1713029</xdr:colOff>
-          <xdr:row>716</xdr:row>
-          <xdr:rowOff>151391</xdr:rowOff>
+          <xdr:colOff>2167208</xdr:colOff>
+          <xdr:row>704</xdr:row>
+          <xdr:rowOff>101777</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4875,15 +4900,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1273</xdr:colOff>
-          <xdr:row>716</xdr:row>
-          <xdr:rowOff>78241</xdr:rowOff>
+          <xdr:colOff>1908</xdr:colOff>
+          <xdr:row>704</xdr:row>
+          <xdr:rowOff>28625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>674271</xdr:colOff>
-          <xdr:row>718</xdr:row>
-          <xdr:rowOff>16540</xdr:rowOff>
+          <xdr:colOff>733428</xdr:colOff>
+          <xdr:row>706</xdr:row>
+          <xdr:rowOff>3498</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5997,16 +6022,16 @@
       <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="31">
         <v>260453</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="33">
         <v>268708</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="31">
         <v>11</v>
       </c>
     </row>
@@ -6014,10 +6039,10 @@
       <c r="A36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
@@ -8743,7 +8768,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="27">
+      <c r="B118" s="23">
         <v>43800</v>
       </c>
       <c r="C118" s="15">
@@ -8751,7 +8776,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="27">
+      <c r="B119" s="23">
         <v>43785</v>
       </c>
       <c r="C119" s="15">
@@ -8759,7 +8784,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B120" s="27">
+      <c r="B120" s="23">
         <v>43770</v>
       </c>
       <c r="C120" s="15">
@@ -8767,7 +8792,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B121" s="27">
+      <c r="B121" s="23">
         <v>43753</v>
       </c>
       <c r="C121" s="15">
@@ -8775,7 +8800,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B122" s="27">
+      <c r="B122" s="23">
         <v>43739</v>
       </c>
       <c r="C122" s="15">
@@ -8783,7 +8808,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="27">
+      <c r="B123" s="23">
         <v>43724</v>
       </c>
       <c r="C123" s="15">
@@ -8791,7 +8816,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B124" s="27">
+      <c r="B124" s="23">
         <v>43709</v>
       </c>
       <c r="C124" s="15">
@@ -8799,7 +8824,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B125" s="27">
+      <c r="B125" s="23">
         <v>43693</v>
       </c>
       <c r="C125" s="15">
@@ -8807,7 +8832,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B126" s="27">
+      <c r="B126" s="23">
         <v>43678</v>
       </c>
       <c r="C126" s="15">
@@ -8815,7 +8840,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="27">
+      <c r="B127" s="23">
         <v>43661</v>
       </c>
       <c r="C127" s="15">
@@ -8823,7 +8848,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="27">
+      <c r="B128" s="23">
         <v>43647</v>
       </c>
       <c r="C128" s="15">
@@ -8831,7 +8856,7 @@
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="27">
+      <c r="B129" s="23">
         <v>43632</v>
       </c>
       <c r="C129" s="15">
@@ -8839,7 +8864,7 @@
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="27">
+      <c r="B130" s="23">
         <v>43617</v>
       </c>
       <c r="C130" s="15">
@@ -8847,7 +8872,7 @@
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B131" s="27">
+      <c r="B131" s="23">
         <v>43601</v>
       </c>
       <c r="C131" s="15">
@@ -8855,7 +8880,7 @@
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B132" s="27">
+      <c r="B132" s="23">
         <v>43587</v>
       </c>
       <c r="C132" s="15">
@@ -8863,7 +8888,7 @@
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="27">
+      <c r="B133" s="23">
         <v>43571</v>
       </c>
       <c r="C133" s="15">
@@ -8871,7 +8896,7 @@
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B134" s="27">
+      <c r="B134" s="23">
         <v>43556</v>
       </c>
       <c r="C134" s="15">
@@ -8879,7 +8904,7 @@
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B135" s="27">
+      <c r="B135" s="23">
         <v>43540</v>
       </c>
       <c r="C135" s="15">
@@ -8887,7 +8912,7 @@
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B136" s="27">
+      <c r="B136" s="23">
         <v>43525</v>
       </c>
       <c r="C136" s="15">
@@ -8895,7 +8920,7 @@
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B137" s="27">
+      <c r="B137" s="23">
         <v>43512</v>
       </c>
       <c r="C137" s="15">
@@ -8903,7 +8928,7 @@
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B138" s="27">
+      <c r="B138" s="23">
         <v>43497</v>
       </c>
       <c r="C138" s="15">
@@ -8911,7 +8936,7 @@
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B139" s="27">
+      <c r="B139" s="23">
         <v>43482</v>
       </c>
       <c r="C139" s="15">
@@ -8919,7 +8944,7 @@
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B140" s="27">
+      <c r="B140" s="23">
         <v>43464</v>
       </c>
       <c r="C140" s="15">
@@ -8927,7 +8952,7 @@
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B141" s="27">
+      <c r="B141" s="23">
         <v>43450</v>
       </c>
       <c r="C141" s="15">
@@ -8935,7 +8960,7 @@
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B142" s="27">
+      <c r="B142" s="23">
         <v>43435</v>
       </c>
       <c r="C142" s="15">
@@ -8943,7 +8968,7 @@
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B143" s="27">
+      <c r="B143" s="23">
         <v>43420</v>
       </c>
       <c r="C143" s="15">
@@ -8951,7 +8976,7 @@
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B144" s="27">
+      <c r="B144" s="23">
         <v>43405</v>
       </c>
       <c r="C144" s="15">
@@ -8959,7 +8984,7 @@
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="27">
+      <c r="B145" s="23">
         <v>43389</v>
       </c>
       <c r="C145" s="15">
@@ -8967,7 +8992,7 @@
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="27">
+      <c r="B146" s="23">
         <v>43374</v>
       </c>
       <c r="C146" s="15">
@@ -8975,7 +9000,7 @@
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B147" s="27">
+      <c r="B147" s="23">
         <v>43359</v>
       </c>
       <c r="C147" s="15">
@@ -8983,7 +9008,7 @@
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B148" s="27">
+      <c r="B148" s="23">
         <v>43369</v>
       </c>
       <c r="C148" s="15">
@@ -8991,7 +9016,7 @@
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B149" s="27">
+      <c r="B149" s="23">
         <v>43322</v>
       </c>
       <c r="C149" s="15">
@@ -8999,7 +9024,7 @@
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B150" s="27">
+      <c r="B150" s="23">
         <v>43313</v>
       </c>
       <c r="C150" s="15">
@@ -9007,7 +9032,7 @@
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B151" s="27">
+      <c r="B151" s="23">
         <v>43297</v>
       </c>
       <c r="C151" s="15">
@@ -9015,7 +9040,7 @@
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B152" s="27">
+      <c r="B152" s="23">
         <v>43282</v>
       </c>
       <c r="C152" s="15">
@@ -9023,7 +9048,7 @@
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B153" s="27">
+      <c r="B153" s="23">
         <v>43267</v>
       </c>
       <c r="C153" s="15">
@@ -9031,7 +9056,7 @@
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B154" s="27">
+      <c r="B154" s="23">
         <v>43252</v>
       </c>
       <c r="C154" s="15">
@@ -9039,7 +9064,7 @@
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B155" s="27">
+      <c r="B155" s="23">
         <v>43236</v>
       </c>
       <c r="C155" s="15">
@@ -9047,7 +9072,7 @@
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B156" s="27">
+      <c r="B156" s="23">
         <v>43222</v>
       </c>
       <c r="C156" s="15">
@@ -9055,7 +9080,7 @@
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B157" s="27">
+      <c r="B157" s="23">
         <v>43206</v>
       </c>
       <c r="C157" s="15">
@@ -9063,7 +9088,7 @@
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="27">
+      <c r="B158" s="23">
         <v>43191</v>
       </c>
       <c r="C158" s="15">
@@ -9071,7 +9096,7 @@
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="27">
+      <c r="B159" s="23">
         <v>43175</v>
       </c>
       <c r="C159" s="15">
@@ -9079,7 +9104,7 @@
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="27">
+      <c r="B160" s="23">
         <v>43161</v>
       </c>
       <c r="C160" s="15">
@@ -9087,7 +9112,7 @@
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B161" s="27">
+      <c r="B161" s="23">
         <v>43147</v>
       </c>
       <c r="C161" s="15">
@@ -9095,7 +9120,7 @@
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B162" s="27">
+      <c r="B162" s="23">
         <v>43132</v>
       </c>
       <c r="C162" s="15">
@@ -9103,7 +9128,7 @@
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B163" s="27">
+      <c r="B163" s="23">
         <v>43117</v>
       </c>
       <c r="C163" s="15">
@@ -9111,7 +9136,7 @@
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B164" s="27">
+      <c r="B164" s="23">
         <v>42720</v>
       </c>
       <c r="C164" s="15">
@@ -9119,7 +9144,7 @@
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B165" s="27">
+      <c r="B165" s="23">
         <v>42705</v>
       </c>
       <c r="C165" s="15">
@@ -9127,7 +9152,7 @@
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B166" s="27">
+      <c r="B166" s="23">
         <v>42690</v>
       </c>
       <c r="C166" s="15">
@@ -9135,7 +9160,7 @@
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B167" s="27">
+      <c r="B167" s="23">
         <v>42675</v>
       </c>
       <c r="C167" s="15">
@@ -9143,7 +9168,7 @@
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B168" s="27">
+      <c r="B168" s="23">
         <v>42659</v>
       </c>
       <c r="C168" s="15">
@@ -9151,7 +9176,7 @@
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B169" s="27">
+      <c r="B169" s="23">
         <v>42644</v>
       </c>
       <c r="C169" s="15">
@@ -9159,7 +9184,7 @@
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="27">
+      <c r="B170" s="23">
         <v>42629</v>
       </c>
       <c r="C170" s="15">
@@ -9167,7 +9192,7 @@
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="27">
+      <c r="B171" s="23">
         <v>42614</v>
       </c>
       <c r="C171" s="15">
@@ -9175,7 +9200,7 @@
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="27">
+      <c r="B172" s="23">
         <v>42598</v>
       </c>
       <c r="C172" s="15">
@@ -9183,7 +9208,7 @@
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="27">
+      <c r="B173" s="23">
         <v>42583</v>
       </c>
       <c r="C173" s="15">
@@ -9191,7 +9216,7 @@
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B174" s="27">
+      <c r="B174" s="23">
         <v>42567</v>
       </c>
       <c r="C174" s="15">
@@ -9199,7 +9224,7 @@
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B175" s="27">
+      <c r="B175" s="23">
         <v>42552</v>
       </c>
       <c r="C175" s="15">
@@ -9207,7 +9232,7 @@
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B176" s="27">
+      <c r="B176" s="23">
         <v>42537</v>
       </c>
       <c r="C176" s="15">
@@ -9215,7 +9240,7 @@
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B177" s="27">
+      <c r="B177" s="23">
         <v>42522</v>
       </c>
       <c r="C177" s="15">
@@ -9223,7 +9248,7 @@
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B178" s="27">
+      <c r="B178" s="23">
         <v>42506</v>
       </c>
       <c r="C178" s="15">
@@ -9231,7 +9256,7 @@
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B179" s="27">
+      <c r="B179" s="23">
         <v>42492</v>
       </c>
       <c r="C179" s="15">
@@ -9239,7 +9264,7 @@
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B180" s="27">
+      <c r="B180" s="23">
         <v>42476</v>
       </c>
       <c r="C180" s="15">
@@ -9247,7 +9272,7 @@
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B181" s="27">
+      <c r="B181" s="23">
         <v>42461</v>
       </c>
       <c r="C181" s="15">
@@ -9255,7 +9280,7 @@
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B182" s="27">
+      <c r="B182" s="23">
         <v>42445</v>
       </c>
       <c r="C182" s="15">
@@ -9263,7 +9288,7 @@
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B183" s="27">
+      <c r="B183" s="23">
         <v>42430</v>
       </c>
       <c r="C183" s="15">
@@ -9271,7 +9296,7 @@
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B184" s="27">
+      <c r="B184" s="23">
         <v>42416</v>
       </c>
       <c r="C184" s="15">
@@ -9279,7 +9304,7 @@
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B185" s="27">
+      <c r="B185" s="23">
         <v>42401</v>
       </c>
       <c r="C185" s="15">
@@ -9287,7 +9312,7 @@
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B186" s="27">
+      <c r="B186" s="23">
         <v>42386</v>
       </c>
       <c r="C186" s="15">
@@ -9295,7 +9320,7 @@
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B187" s="27">
+      <c r="B187" s="23">
         <v>43099</v>
       </c>
       <c r="C187" s="15">
@@ -9303,7 +9328,7 @@
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B188" s="27">
+      <c r="B188" s="23">
         <v>43085</v>
       </c>
       <c r="C188" s="15">
@@ -9311,7 +9336,7 @@
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B189" s="27">
+      <c r="B189" s="23">
         <v>43070</v>
       </c>
       <c r="C189" s="15">
@@ -9319,7 +9344,7 @@
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B190" s="27">
+      <c r="B190" s="23">
         <v>43055</v>
       </c>
       <c r="C190" s="15">
@@ -9327,7 +9352,7 @@
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B191" s="27">
+      <c r="B191" s="23">
         <v>43040</v>
       </c>
       <c r="C191" s="15">
@@ -9335,7 +9360,7 @@
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B192" s="27">
+      <c r="B192" s="23">
         <v>43024</v>
       </c>
       <c r="C192" s="15">
@@ -9343,7 +9368,7 @@
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B193" s="27">
+      <c r="B193" s="23">
         <v>43009</v>
       </c>
       <c r="C193" s="15">
@@ -9351,7 +9376,7 @@
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B194" s="27">
+      <c r="B194" s="23">
         <v>42994</v>
       </c>
       <c r="C194" s="15">
@@ -9359,7 +9384,7 @@
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B195" s="27">
+      <c r="B195" s="23">
         <v>42979</v>
       </c>
       <c r="C195" s="15">
@@ -9367,7 +9392,7 @@
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B196" s="27">
+      <c r="B196" s="23">
         <v>42963</v>
       </c>
       <c r="C196" s="15">
@@ -9375,7 +9400,7 @@
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B197" s="27">
+      <c r="B197" s="23">
         <v>42948</v>
       </c>
       <c r="C197" s="15">
@@ -9383,7 +9408,7 @@
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B198" s="27">
+      <c r="B198" s="23">
         <v>42932</v>
       </c>
       <c r="C198" s="15">
@@ -9391,7 +9416,7 @@
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B199" s="27">
+      <c r="B199" s="23">
         <v>42917</v>
       </c>
       <c r="C199" s="15">
@@ -9399,7 +9424,7 @@
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B200" s="27">
+      <c r="B200" s="23">
         <v>42902</v>
       </c>
       <c r="C200" s="15">
@@ -9407,7 +9432,7 @@
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B201" s="27">
+      <c r="B201" s="23">
         <v>42887</v>
       </c>
       <c r="C201" s="15">
@@ -9415,7 +9440,7 @@
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B202" s="27">
+      <c r="B202" s="23">
         <v>42871</v>
       </c>
       <c r="C202" s="15">
@@ -9423,7 +9448,7 @@
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B203" s="27">
+      <c r="B203" s="23">
         <v>42857</v>
       </c>
       <c r="C203" s="15">
@@ -9431,7 +9456,7 @@
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B204" s="27">
+      <c r="B204" s="23">
         <v>42841</v>
       </c>
       <c r="C204" s="15">
@@ -9439,7 +9464,7 @@
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B205" s="27">
+      <c r="B205" s="23">
         <v>42826</v>
       </c>
       <c r="C205" s="15">
@@ -9447,7 +9472,7 @@
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B206" s="27">
+      <c r="B206" s="23">
         <v>42810</v>
       </c>
       <c r="C206" s="15">
@@ -9455,7 +9480,7 @@
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B207" s="27">
+      <c r="B207" s="23">
         <v>42795</v>
       </c>
       <c r="C207" s="15">
@@ -9463,7 +9488,7 @@
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B208" s="27">
+      <c r="B208" s="23">
         <v>42782</v>
       </c>
       <c r="C208" s="15">
@@ -9471,7 +9496,7 @@
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B209" s="27">
+      <c r="B209" s="23">
         <v>42767</v>
       </c>
       <c r="C209" s="15">
@@ -9479,7 +9504,7 @@
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B210" s="27">
+      <c r="B210" s="23">
         <v>42752</v>
       </c>
       <c r="C210" s="15">
@@ -9487,7 +9512,7 @@
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B211" s="27">
+      <c r="B211" s="23">
         <v>42734</v>
       </c>
       <c r="C211" s="15">
@@ -9511,7 +9536,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="23" customWidth="1"/>
     <col min="2" max="2" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9531,7 +9556,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="23">
         <v>43800</v>
       </c>
       <c r="B5" s="15">
@@ -9554,7 +9579,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="23">
         <v>43785</v>
       </c>
       <c r="B9" s="15">
@@ -9577,7 +9602,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="23">
         <v>43770</v>
       </c>
       <c r="B13" s="15">
@@ -9600,7 +9625,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="23">
         <v>43753</v>
       </c>
       <c r="B17" s="15">
@@ -9623,7 +9648,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="23">
         <v>43739</v>
       </c>
       <c r="B21" s="15">
@@ -9646,7 +9671,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="23">
         <v>43724</v>
       </c>
       <c r="B25" s="15">
@@ -9669,7 +9694,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="A29" s="23">
         <v>43709</v>
       </c>
       <c r="B29" s="15">
@@ -9692,7 +9717,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="A33" s="23">
         <v>43693</v>
       </c>
       <c r="B33" s="15">
@@ -9715,7 +9740,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
+      <c r="A37" s="23">
         <v>43678</v>
       </c>
       <c r="B37" s="15">
@@ -9738,7 +9763,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="27">
+      <c r="A41" s="23">
         <v>43661</v>
       </c>
       <c r="B41" s="15">
@@ -9761,7 +9786,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="27">
+      <c r="A45" s="23">
         <v>43647</v>
       </c>
       <c r="B45" s="15">
@@ -9784,7 +9809,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="27">
+      <c r="A49" s="23">
         <v>43632</v>
       </c>
       <c r="B49" s="15">
@@ -9807,7 +9832,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="27">
+      <c r="A53" s="23">
         <v>43617</v>
       </c>
       <c r="B53" s="15">
@@ -9830,7 +9855,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="27">
+      <c r="A57" s="23">
         <v>43601</v>
       </c>
       <c r="B57" s="15">
@@ -9853,7 +9878,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="27">
+      <c r="A61" s="23">
         <v>43587</v>
       </c>
       <c r="B61" s="15">
@@ -9876,7 +9901,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="27">
+      <c r="A65" s="23">
         <v>43571</v>
       </c>
       <c r="B65" s="15">
@@ -9899,7 +9924,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="27">
+      <c r="A69" s="23">
         <v>43556</v>
       </c>
       <c r="B69" s="15">
@@ -9922,7 +9947,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="27">
+      <c r="A73" s="23">
         <v>43540</v>
       </c>
       <c r="B73" s="15">
@@ -9945,7 +9970,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="27">
+      <c r="A77" s="23">
         <v>43525</v>
       </c>
       <c r="B77" s="15">
@@ -9968,7 +9993,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="27">
+      <c r="A81" s="23">
         <v>43512</v>
       </c>
       <c r="B81" s="15">
@@ -9991,7 +10016,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="27">
+      <c r="A85" s="23">
         <v>43497</v>
       </c>
       <c r="B85" s="15">
@@ -10014,7 +10039,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="27">
+      <c r="A89" s="23">
         <v>43482</v>
       </c>
       <c r="B89" s="15">
@@ -10037,7 +10062,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="27">
+      <c r="A93" s="23">
         <v>43464</v>
       </c>
       <c r="B93" s="15">
@@ -10065,7 +10090,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="27">
+      <c r="A98" s="23">
         <v>43450</v>
       </c>
       <c r="B98" s="15">
@@ -10088,7 +10113,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="27">
+      <c r="A102" s="23">
         <v>43435</v>
       </c>
       <c r="B102" s="14">
@@ -10116,7 +10141,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="27">
+      <c r="A107" s="23">
         <v>43420</v>
       </c>
       <c r="B107" s="15">
@@ -10144,7 +10169,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="27">
+      <c r="A112" s="23">
         <v>43405</v>
       </c>
       <c r="B112" s="15">
@@ -10172,7 +10197,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="27">
+      <c r="A117" s="23">
         <v>43389</v>
       </c>
       <c r="B117" s="15">
@@ -10200,7 +10225,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="27">
+      <c r="A122" s="23">
         <v>43374</v>
       </c>
       <c r="B122" s="15">
@@ -10228,7 +10253,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="27">
+      <c r="A127" s="23">
         <v>43359</v>
       </c>
       <c r="B127" s="15">
@@ -10256,7 +10281,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="27">
+      <c r="A132" s="23">
         <v>43369</v>
       </c>
       <c r="B132" s="15">
@@ -10284,7 +10309,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="27">
+      <c r="A137" s="23">
         <v>43322</v>
       </c>
       <c r="B137" s="15">
@@ -10312,7 +10337,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="27">
+      <c r="A142" s="23">
         <v>43313</v>
       </c>
       <c r="B142" s="15">
@@ -10340,7 +10365,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="27">
+      <c r="A147" s="23">
         <v>43297</v>
       </c>
       <c r="B147" s="15">
@@ -10368,7 +10393,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="27">
+      <c r="A152" s="23">
         <v>43282</v>
       </c>
       <c r="B152" s="15">
@@ -10396,7 +10421,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="27">
+      <c r="A157" s="23">
         <v>43267</v>
       </c>
       <c r="B157" s="15">
@@ -10424,7 +10449,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="23">
         <v>43252</v>
       </c>
       <c r="B162" s="15">
@@ -10452,7 +10477,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="27">
+      <c r="A167" s="23">
         <v>43236</v>
       </c>
       <c r="B167" s="15">
@@ -10480,7 +10505,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="27">
+      <c r="A172" s="23">
         <v>43222</v>
       </c>
       <c r="B172" s="15">
@@ -10508,7 +10533,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="27">
+      <c r="A177" s="23">
         <v>43206</v>
       </c>
       <c r="B177" s="15">
@@ -10531,7 +10556,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="27">
+      <c r="A181" s="23">
         <v>43191</v>
       </c>
       <c r="B181" s="14">
@@ -10564,7 +10589,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="27">
+      <c r="A187" s="23">
         <v>43175</v>
       </c>
       <c r="B187" s="15">
@@ -10592,7 +10617,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="27">
+      <c r="A192" s="23">
         <v>43161</v>
       </c>
       <c r="B192" s="15">
@@ -10620,7 +10645,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="27">
+      <c r="A197" s="23">
         <v>43147</v>
       </c>
       <c r="B197" s="15">
@@ -10648,7 +10673,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="27">
+      <c r="A202" s="23">
         <v>43132</v>
       </c>
       <c r="B202" s="15">
@@ -10676,7 +10701,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="27">
+      <c r="A207" s="23">
         <v>43117</v>
       </c>
       <c r="B207" s="15">
@@ -10704,7 +10729,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="27">
+      <c r="A212" s="23">
         <v>43099</v>
       </c>
       <c r="B212" s="15">
@@ -10732,7 +10757,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="27">
+      <c r="A217" s="23">
         <v>43085</v>
       </c>
       <c r="B217" s="15">
@@ -10760,7 +10785,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="27">
+      <c r="A222" s="23">
         <v>43070</v>
       </c>
       <c r="B222" s="15">
@@ -10788,7 +10813,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="27">
+      <c r="A227" s="23">
         <v>43055</v>
       </c>
       <c r="B227" s="15">
@@ -10821,7 +10846,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="27">
+      <c r="A233" s="23">
         <v>43040</v>
       </c>
       <c r="B233" s="15">
@@ -10854,7 +10879,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="27">
+      <c r="A239" s="23">
         <v>43024</v>
       </c>
       <c r="B239" s="15">
@@ -10887,7 +10912,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="27">
+      <c r="A245" s="23">
         <v>43009</v>
       </c>
       <c r="B245" s="15">
@@ -10920,7 +10945,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="27">
+      <c r="A251" s="23">
         <v>42994</v>
       </c>
       <c r="B251" s="15">
@@ -10953,7 +10978,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="27">
+      <c r="A257" s="23">
         <v>42979</v>
       </c>
       <c r="B257" s="15">
@@ -10981,7 +11006,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="27">
+      <c r="A262" s="23">
         <v>42963</v>
       </c>
       <c r="B262" s="15">
@@ -11009,7 +11034,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="27">
+      <c r="A267" s="23">
         <v>42948</v>
       </c>
       <c r="B267" s="15">
@@ -11037,7 +11062,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="27">
+      <c r="A272" s="23">
         <v>42932</v>
       </c>
       <c r="B272" s="15">
@@ -11065,7 +11090,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="27">
+      <c r="A277" s="23">
         <v>42917</v>
       </c>
       <c r="B277" s="15">
@@ -11093,7 +11118,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="27">
+      <c r="A282" s="23">
         <v>42902</v>
       </c>
       <c r="B282" s="15">
@@ -11121,7 +11146,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="27">
+      <c r="A287" s="23">
         <v>42887</v>
       </c>
       <c r="B287" s="15">
@@ -11149,7 +11174,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="27">
+      <c r="A292" s="23">
         <v>42871</v>
       </c>
       <c r="B292" s="15">
@@ -11177,7 +11202,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="27">
+      <c r="A297" s="23">
         <v>42857</v>
       </c>
       <c r="B297" s="15">
@@ -11205,7 +11230,7 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="27">
+      <c r="A302" s="23">
         <v>42841</v>
       </c>
       <c r="B302" s="15">
@@ -11233,7 +11258,7 @@
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="27">
+      <c r="A307" s="23">
         <v>42826</v>
       </c>
       <c r="B307" s="15">
@@ -11261,7 +11286,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="27">
+      <c r="A312" s="23">
         <v>42810</v>
       </c>
       <c r="B312" s="15">
@@ -11289,7 +11314,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="27">
+      <c r="A317" s="23">
         <v>42795</v>
       </c>
       <c r="B317" s="15">
@@ -11317,7 +11342,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="27">
+      <c r="A322" s="23">
         <v>42782</v>
       </c>
       <c r="B322" s="15">
@@ -11345,7 +11370,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="27">
+      <c r="A327" s="23">
         <v>42767</v>
       </c>
       <c r="B327" s="15">
@@ -11373,7 +11398,7 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="27">
+      <c r="A332" s="23">
         <v>42752</v>
       </c>
       <c r="B332" s="15">
@@ -11401,7 +11426,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="27">
+      <c r="A337" s="23">
         <v>42734</v>
       </c>
       <c r="B337" s="15">
@@ -11429,7 +11454,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="27">
+      <c r="A342" s="23">
         <v>42720</v>
       </c>
       <c r="B342" s="15">
@@ -11457,7 +11482,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="27">
+      <c r="A347" s="23">
         <v>42705</v>
       </c>
       <c r="B347" s="15">
@@ -11485,7 +11510,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="27">
+      <c r="A352" s="23">
         <v>42690</v>
       </c>
       <c r="B352" s="15">
@@ -11513,7 +11538,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="27">
+      <c r="A357" s="23">
         <v>42675</v>
       </c>
       <c r="B357" s="15">
@@ -11541,7 +11566,7 @@
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="27">
+      <c r="A362" s="23">
         <v>42659</v>
       </c>
       <c r="B362" s="15">
@@ -11569,7 +11594,7 @@
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="27">
+      <c r="A367" s="23">
         <v>42644</v>
       </c>
       <c r="B367" s="15">
@@ -11597,7 +11622,7 @@
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="27">
+      <c r="A372" s="23">
         <v>42629</v>
       </c>
       <c r="B372" s="15">
@@ -11625,7 +11650,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="27">
+      <c r="A377" s="23">
         <v>42614</v>
       </c>
       <c r="B377" s="15">
@@ -11653,7 +11678,7 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="27">
+      <c r="A382" s="23">
         <v>42598</v>
       </c>
       <c r="B382" s="15">
@@ -11681,7 +11706,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="27">
+      <c r="A387" s="23">
         <v>42583</v>
       </c>
       <c r="B387" s="15">
@@ -11709,7 +11734,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="27">
+      <c r="A392" s="23">
         <v>42567</v>
       </c>
       <c r="B392" s="15">
@@ -11737,7 +11762,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="27">
+      <c r="A397" s="23">
         <v>42552</v>
       </c>
       <c r="B397" s="15">
@@ -11765,7 +11790,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="27">
+      <c r="A402" s="23">
         <v>42537</v>
       </c>
       <c r="B402" s="15">
@@ -11793,7 +11818,7 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="27">
+      <c r="A407" s="23">
         <v>42522</v>
       </c>
       <c r="B407" s="15">
@@ -11821,7 +11846,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="27">
+      <c r="A412" s="23">
         <v>42506</v>
       </c>
       <c r="B412" s="15">
@@ -11849,7 +11874,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="27">
+      <c r="A417" s="23">
         <v>42492</v>
       </c>
       <c r="B417" s="15">
@@ -11877,7 +11902,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="27">
+      <c r="A422" s="23">
         <v>42476</v>
       </c>
       <c r="B422" s="15">
@@ -11905,7 +11930,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="27">
+      <c r="A427" s="23">
         <v>42461</v>
       </c>
       <c r="B427" s="15">
@@ -11933,7 +11958,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="27">
+      <c r="A432" s="23">
         <v>42445</v>
       </c>
       <c r="B432" s="15">
@@ -11961,7 +11986,7 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="27">
+      <c r="A437" s="23">
         <v>42430</v>
       </c>
       <c r="B437" s="15">
@@ -11989,7 +12014,7 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="27">
+      <c r="A442" s="23">
         <v>42416</v>
       </c>
       <c r="B442" s="15">
@@ -12017,7 +12042,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="27">
+      <c r="A447" s="23">
         <v>42401</v>
       </c>
       <c r="B447" s="15">
@@ -12045,7 +12070,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="27">
+      <c r="A452" s="23">
         <v>42386</v>
       </c>
       <c r="B452" s="15">
@@ -14430,14 +14455,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>716</xdr:row>
-                <xdr:rowOff>80467</xdr:rowOff>
+                <xdr:row>704</xdr:row>
+                <xdr:rowOff>29261</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>672998</xdr:colOff>
-                <xdr:row>718</xdr:row>
-                <xdr:rowOff>14630</xdr:rowOff>
+                <xdr:colOff>731520</xdr:colOff>
+                <xdr:row>706</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14455,14 +14480,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>715</xdr:row>
-                <xdr:rowOff>73152</xdr:rowOff>
+                <xdr:row>703</xdr:row>
+                <xdr:rowOff>21946</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1711757</xdr:colOff>
-                <xdr:row>716</xdr:row>
-                <xdr:rowOff>153619</xdr:rowOff>
+                <xdr:colOff>2165299</xdr:colOff>
+                <xdr:row>704</xdr:row>
+                <xdr:rowOff>102413</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14480,14 +14505,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>707</xdr:row>
-                <xdr:rowOff>51206</xdr:rowOff>
+                <xdr:row>695</xdr:row>
+                <xdr:rowOff>29261</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>1602029</xdr:colOff>
-                <xdr:row>708</xdr:row>
-                <xdr:rowOff>124358</xdr:rowOff>
+                <xdr:colOff>2018995</xdr:colOff>
+                <xdr:row>696</xdr:row>
+                <xdr:rowOff>109728</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14966,1699 +14991,2332 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D43F6B-9D11-48BB-95AA-B69E53EE938F}">
-  <dimension ref="A1:B210"/>
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.850000000000001" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="31" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="31"/>
+    <col min="1" max="1" width="15.59765625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" style="27"/>
+    <col min="3" max="3" width="28" style="27" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="28">
+    <row r="1" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A1" s="24">
         <v>45627</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="25">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+      <c r="C1" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="24">
         <v>45612</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="25">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
+      <c r="C2" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A3" s="24">
         <v>45597</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="25">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="28">
+      <c r="C3" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
         <v>45581</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
+      <c r="C4" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
         <v>45566</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="25">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
+      <c r="C5" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
         <v>45551</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="25">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
+      <c r="C6" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A7" s="24">
         <v>45536</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="25">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
+      <c r="C7" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="24">
         <v>45520</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="25">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
+      <c r="C8" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A9" s="24">
         <v>45505</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="25">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
+      <c r="C9" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="24">
         <v>45489</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="25">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
+      <c r="C10" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="24">
         <v>45474</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="25">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
+      <c r="C11" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A12" s="24">
         <v>45459</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="25">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
+      <c r="C12" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A13" s="24">
         <v>45444</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="25">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
+      <c r="C13" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A14" s="24">
         <v>45428</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="25">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
+      <c r="C14" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A15" s="24">
         <v>45414</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="25">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
+      <c r="C15" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A16" s="24">
         <v>45398</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="25">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
+      <c r="C16" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A17" s="24">
         <v>45383</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="25">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
+      <c r="C17" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A18" s="24">
         <v>45367</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="25">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
+      <c r="C18" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A19" s="24">
         <v>45352</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="25">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
+      <c r="C19" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
         <v>45338</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="25">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
+      <c r="C20" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
         <v>45323</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
+      <c r="C21" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
         <v>45308</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="25">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
+      <c r="C22" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A23" s="24">
         <v>45290</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="25">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
+      <c r="C23" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A24" s="24">
         <v>45276</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="25">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="28">
+      <c r="C24" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A25" s="24">
         <v>45261</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="25">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="28">
+      <c r="C25" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A26" s="24">
         <v>45246</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="25">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="28">
+      <c r="C26" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A27" s="24">
         <v>45231</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="25">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="28">
+      <c r="C27" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A28" s="24">
         <v>45215</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="25">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="28">
+      <c r="C28" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A29" s="24">
         <v>45200</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="25">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="28">
+      <c r="C29" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A30" s="24">
         <v>45185</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="25">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="28">
+      <c r="C30" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A31" s="24">
         <v>45170</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="25">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="28">
+      <c r="C31" s="30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A32" s="24">
         <v>45154</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="25">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="28">
+      <c r="C32" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A33" s="24">
         <v>45138</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="26">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="28">
+      <c r="C33" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A34" s="24">
         <v>45123</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="25">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="28">
+      <c r="C34" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A35" s="24">
         <v>45108</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="25">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="28">
+      <c r="C35" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A36" s="24">
         <v>45093</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="28">
+      <c r="C36" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A37" s="24">
         <v>45078</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="28">
+      <c r="C37" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A38" s="24">
         <v>45061</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="25">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
+      <c r="C38" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A39" s="24">
         <v>45048</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="25">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
+      <c r="C39" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A40" s="24">
         <v>45032</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="25">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+      <c r="C40" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A41" s="24">
         <v>45017</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B41" s="25">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="28">
+      <c r="C41" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A42" s="24">
         <v>45001</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="25">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
+      <c r="C42" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A43" s="24">
         <v>44986</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="25">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
+      <c r="C43" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A44" s="24">
         <v>44973</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="25">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="28">
+      <c r="C44" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A45" s="24">
         <v>44958</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="25">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="28">
+      <c r="C45" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A46" s="24">
         <v>44943</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="25">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="28">
+      <c r="C46" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A47" s="24">
         <v>44925</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="25">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
+      <c r="C47" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A48" s="24">
         <v>44911</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="25">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="28">
+      <c r="C48" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A49" s="24">
         <v>44896</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="25">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="28">
+      <c r="C49" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A50" s="24">
         <v>44881</v>
       </c>
-      <c r="B50" s="29">
+      <c r="B50" s="25">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="28">
+      <c r="C50" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A51" s="24">
         <v>44866</v>
       </c>
-      <c r="B51" s="29">
+      <c r="B51" s="25">
         <v>70</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="28">
+      <c r="C51" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A52" s="24">
         <v>44850</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="25">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="28">
+      <c r="C52" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A53" s="24">
         <v>44835</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="25">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="28">
+      <c r="C53" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A54" s="24">
         <v>44820</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="25">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="28">
+      <c r="C54" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A55" s="24">
         <v>44805</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="25">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="28">
+      <c r="C55" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A56" s="24">
         <v>44789</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="25">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="28">
+      <c r="C56" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A57" s="24">
         <v>44774</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B57" s="25">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="28">
+      <c r="C57" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A58" s="24">
         <v>44758</v>
       </c>
-      <c r="B58" s="29">
+      <c r="B58" s="25">
         <v>53</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="28">
+      <c r="C58" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A59" s="24">
         <v>44743</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="25">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="28">
+      <c r="C59" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A60" s="24">
         <v>44728</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="25">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="28">
+      <c r="C60" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A61" s="24">
         <v>44713</v>
       </c>
-      <c r="B61" s="29">
+      <c r="B61" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="28">
+      <c r="C61" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A62" s="24">
         <v>44697</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="28">
+      <c r="C62" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A63" s="24">
         <v>44683</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="25">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="28">
+      <c r="C63" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A64" s="24">
         <v>44667</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="25">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="28">
+      <c r="C64" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A65" s="24">
         <v>44652</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="28">
+      <c r="C65" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A66" s="24">
         <v>44636</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="25">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="28">
+      <c r="C66" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A67" s="24">
         <v>44621</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="25">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="28">
+      <c r="C67" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A68" s="24">
         <v>44609</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="25">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="28">
+      <c r="C68" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A69" s="24">
         <v>44593</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="25">
         <v>30</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="28">
+      <c r="C69" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A70" s="24">
         <v>44578</v>
       </c>
-      <c r="B70" s="29">
+      <c r="B70" s="25">
         <v>92</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="28">
+      <c r="C70" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A71" s="24">
         <v>44560</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="25">
         <v>36</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="28">
+      <c r="C71" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A72" s="24">
         <v>44546</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="25">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="28">
+      <c r="C72" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A73" s="24">
         <v>44531</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="25">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="28">
+      <c r="C73" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A74" s="24">
         <v>44516</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="25">
         <v>57</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="28">
+      <c r="C74" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A75" s="24">
         <v>44501</v>
       </c>
-      <c r="B75" s="29">
+      <c r="B75" s="25">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="28">
+      <c r="C75" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A76" s="24">
         <v>44485</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="25">
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="28">
+      <c r="C76" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A77" s="24">
         <v>44470</v>
       </c>
-      <c r="B77" s="29">
+      <c r="B77" s="25">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="28">
+      <c r="C77" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A78" s="24">
         <v>44455</v>
       </c>
-      <c r="B78" s="29">
+      <c r="B78" s="25">
         <v>90</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="28">
+      <c r="C78" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A79" s="24">
         <v>44440</v>
       </c>
-      <c r="B79" s="29">
+      <c r="B79" s="25">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="28">
+      <c r="C79" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A80" s="24">
         <v>44424</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80" s="25">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="28">
+      <c r="C80" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A81" s="24">
         <v>44409</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81" s="25">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="28">
+      <c r="C81" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A82" s="24">
         <v>44393</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B82" s="25">
         <v>70</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="28">
+      <c r="C82" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A83" s="24">
         <v>44378</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B83" s="25">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="28">
+      <c r="C83" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A84" s="24">
         <v>44363</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="25">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="28">
+      <c r="C84" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A85" s="24">
         <v>44348</v>
       </c>
-      <c r="B85" s="29">
+      <c r="B85" s="25">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="28">
+      <c r="C85" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A86" s="24">
         <v>44332</v>
       </c>
-      <c r="B86" s="29">
+      <c r="B86" s="25">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="28">
+      <c r="C86" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A87" s="24">
         <v>44318</v>
       </c>
-      <c r="B87" s="29">
+      <c r="B87" s="25">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="28">
+      <c r="C87" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A88" s="24">
         <v>44302</v>
       </c>
-      <c r="B88" s="29">
+      <c r="B88" s="25">
         <v>56</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="28">
+      <c r="C88" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A89" s="24">
         <v>44287</v>
       </c>
-      <c r="B89" s="29">
+      <c r="B89" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="28">
+      <c r="C89" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A90" s="24">
         <v>44271</v>
       </c>
-      <c r="B90" s="29">
+      <c r="B90" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="28">
+      <c r="C90" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A91" s="24">
         <v>44256</v>
       </c>
-      <c r="B91" s="29">
+      <c r="B91" s="25">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="28">
+      <c r="C91" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A92" s="24">
         <v>44243</v>
       </c>
-      <c r="B92" s="29">
+      <c r="B92" s="25">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="28">
+      <c r="C92" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A93" s="24">
         <v>44228</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="25">
         <v>97</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="28">
+      <c r="C93" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A94" s="24">
         <v>44213</v>
       </c>
-      <c r="B94" s="29">
+      <c r="B94" s="25">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="28">
+      <c r="C94" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A95" s="24">
         <v>44195</v>
       </c>
-      <c r="B95" s="29">
+      <c r="B95" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="28">
+      <c r="C95" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="24">
         <v>44181</v>
       </c>
-      <c r="B96" s="29">
+      <c r="B96" s="25">
         <v>70</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="28">
+      <c r="C96" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A97" s="24">
         <v>44166</v>
       </c>
-      <c r="B97" s="29">
+      <c r="B97" s="25">
         <v>84</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="28">
+      <c r="C97" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A98" s="24">
         <v>44151</v>
       </c>
-      <c r="B98" s="29">
+      <c r="B98" s="25">
         <v>46</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="28">
+      <c r="C98" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A99" s="24">
         <v>44136</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="25">
         <v>40</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="28">
+      <c r="C99" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A100" s="24">
         <v>44120</v>
       </c>
-      <c r="B100" s="29">
+      <c r="B100" s="25">
         <v>38</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="28">
+      <c r="C100" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A101" s="24">
         <v>44105</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="25">
         <v>59</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="28">
+      <c r="C101" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="24">
         <v>44090</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="25">
         <v>57</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="28">
+      <c r="C102" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A103" s="24">
         <v>44075</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B103" s="25">
         <v>98</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="28">
+      <c r="C103" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A104" s="24">
         <v>44059</v>
       </c>
-      <c r="B104" s="29">
+      <c r="B104" s="25">
         <v>88</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="28">
+      <c r="C104" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A105" s="24">
         <v>44044</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B105" s="25">
         <v>92</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="28">
+      <c r="C105" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A106" s="24">
         <v>44028</v>
       </c>
-      <c r="B106" s="29">
+      <c r="B106" s="25">
         <v>53</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="28">
+      <c r="C106" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A107" s="24">
         <v>44013</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B107" s="25">
         <v>83</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="28">
+      <c r="C107" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A108" s="24">
         <v>43998</v>
       </c>
-      <c r="B108" s="29">
+      <c r="B108" s="25">
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="28">
+      <c r="C108" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A109" s="24">
         <v>43983</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B109" s="25">
         <v>24</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="28">
+      <c r="C109" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A110" s="24">
         <v>43967</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B110" s="25">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="28">
+      <c r="C110" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A111" s="24">
         <v>43906</v>
       </c>
-      <c r="B111" s="29">
+      <c r="B111" s="25">
         <v>77</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="28">
+      <c r="C111" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A112" s="24">
         <v>43891</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B112" s="25">
         <v>98</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="28">
+      <c r="C112" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A113" s="24">
         <v>43877</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B113" s="25">
         <v>94</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="28">
+      <c r="C113" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A114" s="24">
         <v>43862</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B114" s="25">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="28">
+      <c r="C114" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A115" s="24">
         <v>43847</v>
       </c>
-      <c r="B115" s="29">
+      <c r="B115" s="25">
         <v>68</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="28">
+      <c r="C115" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A116" s="24">
         <v>43831</v>
       </c>
-      <c r="B116" s="29">
+      <c r="B116" s="25">
         <v>81</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="32">
+      <c r="C116" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A117" s="28">
         <v>43800</v>
       </c>
-      <c r="B117" s="33">
+      <c r="B117" s="29">
         <v>81</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="32">
+      <c r="C117" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A118" s="28">
         <v>43785</v>
       </c>
-      <c r="B118" s="33">
+      <c r="B118" s="29">
         <v>32</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="32">
+      <c r="C118" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A119" s="28">
         <v>43770</v>
       </c>
-      <c r="B119" s="33">
+      <c r="B119" s="29">
         <v>79</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="32">
+      <c r="C119" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A120" s="28">
         <v>43753</v>
       </c>
-      <c r="B120" s="33">
+      <c r="B120" s="29">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="32">
+      <c r="C120" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A121" s="28">
         <v>43739</v>
       </c>
-      <c r="B121" s="33">
+      <c r="B121" s="29">
         <v>59</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="32">
+      <c r="C121" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A122" s="28">
         <v>43724</v>
       </c>
-      <c r="B122" s="33">
+      <c r="B122" s="29">
         <v>85</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="32">
+      <c r="C122" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A123" s="28">
         <v>43709</v>
       </c>
-      <c r="B123" s="33">
+      <c r="B123" s="29">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="32">
+      <c r="C123" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A124" s="28">
         <v>43693</v>
       </c>
-      <c r="B124" s="33">
+      <c r="B124" s="29">
         <v>89</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="32">
+      <c r="C124" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A125" s="28">
         <v>43678</v>
       </c>
-      <c r="B125" s="33">
+      <c r="B125" s="29">
         <v>58</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="32">
+      <c r="C125" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A126" s="28">
         <v>43661</v>
       </c>
-      <c r="B126" s="33">
+      <c r="B126" s="29">
         <v>88</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="32">
+      <c r="C126" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A127" s="28">
         <v>43647</v>
       </c>
-      <c r="B127" s="33">
+      <c r="B127" s="29">
         <v>86</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="32">
+      <c r="C127" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A128" s="28">
         <v>43632</v>
       </c>
-      <c r="B128" s="33">
+      <c r="B128" s="29">
         <v>29</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="32">
+      <c r="C128" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A129" s="28">
         <v>43617</v>
       </c>
-      <c r="B129" s="33">
+      <c r="B129" s="29">
         <v>46</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="32">
+      <c r="C129" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A130" s="28">
         <v>43601</v>
       </c>
-      <c r="B130" s="33">
+      <c r="B130" s="29">
         <v>71</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="32">
+      <c r="C130" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A131" s="28">
         <v>43587</v>
       </c>
-      <c r="B131" s="33">
+      <c r="B131" s="29">
         <v>25</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="32">
+      <c r="C131" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A132" s="28">
         <v>43571</v>
       </c>
-      <c r="B132" s="33">
+      <c r="B132" s="29">
         <v>23</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="32">
+      <c r="C132" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A133" s="28">
         <v>43556</v>
       </c>
-      <c r="B133" s="33">
+      <c r="B133" s="29">
         <v>52</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="32">
+      <c r="C133" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A134" s="28">
         <v>43540</v>
       </c>
-      <c r="B134" s="33">
+      <c r="B134" s="29">
         <v>64</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="32">
+      <c r="C134" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A135" s="28">
         <v>43525</v>
       </c>
-      <c r="B135" s="33">
+      <c r="B135" s="29">
         <v>65</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="32">
+      <c r="C135" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A136" s="28">
         <v>43512</v>
       </c>
-      <c r="B136" s="33">
+      <c r="B136" s="29">
         <v>56</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="32">
+      <c r="C136" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A137" s="28">
         <v>43497</v>
       </c>
-      <c r="B137" s="33">
+      <c r="B137" s="29">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="32">
+      <c r="C137" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A138" s="28">
         <v>43482</v>
       </c>
-      <c r="B138" s="33">
+      <c r="B138" s="29">
         <v>65</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="32">
+      <c r="C138" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A139" s="28">
         <v>43464</v>
       </c>
-      <c r="B139" s="33">
+      <c r="B139" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="32">
+      <c r="C139" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A140" s="28">
         <v>43450</v>
       </c>
-      <c r="B140" s="33">
+      <c r="B140" s="29">
         <v>62</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="32">
+      <c r="C140" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A141" s="28">
         <v>43435</v>
       </c>
-      <c r="B141" s="33">
+      <c r="B141" s="29">
         <v>67</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="32">
+      <c r="C141" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A142" s="28">
         <v>43420</v>
       </c>
-      <c r="B142" s="33">
+      <c r="B142" s="29">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="32">
+      <c r="C142" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A143" s="28">
         <v>43405</v>
       </c>
-      <c r="B143" s="33">
+      <c r="B143" s="29">
         <v>58</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="32">
+      <c r="C143" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A144" s="28">
         <v>43389</v>
       </c>
-      <c r="B144" s="33">
+      <c r="B144" s="29">
         <v>93</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="32">
+      <c r="C144" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A145" s="28">
         <v>43374</v>
       </c>
-      <c r="B145" s="33">
+      <c r="B145" s="29">
         <v>99</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="32">
+      <c r="C145" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A146" s="28">
         <v>43359</v>
       </c>
-      <c r="B146" s="33">
+      <c r="B146" s="29">
         <v>79</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="32">
+      <c r="C146" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A147" s="28">
         <v>43369</v>
       </c>
-      <c r="B147" s="33">
+      <c r="B147" s="29">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="32">
+      <c r="C147" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A148" s="28">
         <v>43322</v>
       </c>
-      <c r="B148" s="33">
+      <c r="B148" s="29">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="32">
+      <c r="C148" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A149" s="28">
         <v>43313</v>
       </c>
-      <c r="B149" s="33">
+      <c r="B149" s="29">
         <v>78</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="32">
+      <c r="C149" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A150" s="28">
         <v>43297</v>
       </c>
-      <c r="B150" s="33">
+      <c r="B150" s="29">
         <v>27</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="32">
+      <c r="C150" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A151" s="28">
         <v>43282</v>
       </c>
-      <c r="B151" s="33">
+      <c r="B151" s="29">
         <v>83</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="32">
+      <c r="C151" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A152" s="28">
         <v>43267</v>
       </c>
-      <c r="B152" s="33">
+      <c r="B152" s="29">
         <v>46</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="32">
+      <c r="C152" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A153" s="28">
         <v>43252</v>
       </c>
-      <c r="B153" s="33">
+      <c r="B153" s="29">
         <v>95</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="32">
+      <c r="C153" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A154" s="28">
         <v>43236</v>
       </c>
-      <c r="B154" s="33">
+      <c r="B154" s="29">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="32">
+      <c r="C154" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A155" s="28">
         <v>43222</v>
       </c>
-      <c r="B155" s="33">
+      <c r="B155" s="29">
         <v>85</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="32">
+      <c r="C155" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A156" s="28">
         <v>43206</v>
       </c>
-      <c r="B156" s="33">
+      <c r="B156" s="29">
         <v>60</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="32">
+      <c r="C156" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A157" s="28">
         <v>43191</v>
       </c>
-      <c r="B157" s="33">
+      <c r="B157" s="29">
         <v>85</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="32">
+      <c r="C157" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A158" s="28">
         <v>43175</v>
       </c>
-      <c r="B158" s="33">
+      <c r="B158" s="29">
         <v>82</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="32">
+      <c r="C158" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A159" s="28">
         <v>43161</v>
       </c>
-      <c r="B159" s="33">
+      <c r="B159" s="29">
         <v>29</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="32">
+      <c r="C159" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A160" s="28">
         <v>43147</v>
       </c>
-      <c r="B160" s="33">
+      <c r="B160" s="29">
         <v>39</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="32">
+      <c r="C160" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A161" s="28">
         <v>43132</v>
       </c>
-      <c r="B161" s="33">
+      <c r="B161" s="29">
         <v>31</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="32">
+      <c r="C161" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A162" s="28">
         <v>43117</v>
       </c>
-      <c r="B162" s="33">
+      <c r="B162" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="32">
+      <c r="C162" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A163" s="28">
         <v>42720</v>
       </c>
-      <c r="B163" s="33">
+      <c r="B163" s="29">
         <v>35</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="32">
+      <c r="C163" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A164" s="28">
         <v>42705</v>
       </c>
-      <c r="B164" s="33">
+      <c r="B164" s="29">
         <v>77</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="32">
+      <c r="C164" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A165" s="28">
         <v>42690</v>
       </c>
-      <c r="B165" s="33">
+      <c r="B165" s="29">
         <v>44</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="32">
+      <c r="C165" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A166" s="28">
         <v>42675</v>
       </c>
-      <c r="B166" s="33">
+      <c r="B166" s="29">
         <v>86</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="32">
+      <c r="C166" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A167" s="28">
         <v>42659</v>
       </c>
-      <c r="B167" s="33">
+      <c r="B167" s="29">
         <v>98</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="32">
+      <c r="C167" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A168" s="28">
         <v>42644</v>
       </c>
-      <c r="B168" s="33">
+      <c r="B168" s="29">
         <v>33</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="32">
+      <c r="C168" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A169" s="28">
         <v>42629</v>
       </c>
-      <c r="B169" s="33">
+      <c r="B169" s="29">
         <v>42</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="32">
+      <c r="C169" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A170" s="28">
         <v>42614</v>
       </c>
-      <c r="B170" s="33">
+      <c r="B170" s="29">
         <v>62</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="32">
+      <c r="C170" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A171" s="28">
         <v>42598</v>
       </c>
-      <c r="B171" s="33">
+      <c r="B171" s="29">
         <v>33</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="32">
+      <c r="C171" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A172" s="28">
         <v>42583</v>
       </c>
-      <c r="B172" s="33">
+      <c r="B172" s="29">
         <v>57</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="32">
+      <c r="C172" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A173" s="28">
         <v>42567</v>
       </c>
-      <c r="B173" s="33">
+      <c r="B173" s="29">
         <v>55</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="32">
+      <c r="C173" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A174" s="28">
         <v>42552</v>
       </c>
-      <c r="B174" s="33">
+      <c r="B174" s="29">
         <v>53</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="32">
+      <c r="C174" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A175" s="28">
         <v>42537</v>
       </c>
-      <c r="B175" s="33">
+      <c r="B175" s="29">
         <v>79</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="32">
+      <c r="C175" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A176" s="28">
         <v>42522</v>
       </c>
-      <c r="B176" s="33">
+      <c r="B176" s="29">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="32">
+      <c r="C176" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A177" s="28">
         <v>42506</v>
       </c>
-      <c r="B177" s="33">
+      <c r="B177" s="29">
         <v>98</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="32">
+      <c r="C177" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A178" s="28">
         <v>42492</v>
       </c>
-      <c r="B178" s="33">
+      <c r="B178" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="32">
+      <c r="C178" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A179" s="28">
         <v>42476</v>
       </c>
-      <c r="B179" s="33">
+      <c r="B179" s="29">
         <v>87</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="32">
+      <c r="C179" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A180" s="28">
         <v>42461</v>
       </c>
-      <c r="B180" s="33">
+      <c r="B180" s="29">
         <v>92</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="32">
+      <c r="C180" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A181" s="28">
         <v>42445</v>
       </c>
-      <c r="B181" s="33">
+      <c r="B181" s="29">
         <v>32</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="32">
+      <c r="C181" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A182" s="28">
         <v>42430</v>
       </c>
-      <c r="B182" s="33">
+      <c r="B182" s="29">
         <v>6</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="32">
+      <c r="C182" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A183" s="28">
         <v>42416</v>
       </c>
-      <c r="B183" s="33">
+      <c r="B183" s="29">
         <v>98</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="32">
+      <c r="C183" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A184" s="28">
         <v>42401</v>
       </c>
-      <c r="B184" s="33">
+      <c r="B184" s="29">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="32">
+      <c r="C184" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A185" s="28">
         <v>42386</v>
       </c>
-      <c r="B185" s="33">
+      <c r="B185" s="29">
         <v>50</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="32">
+      <c r="C185" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A186" s="28">
         <v>43099</v>
       </c>
-      <c r="B186" s="33">
+      <c r="B186" s="29">
         <v>98</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="32">
+      <c r="C186" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A187" s="28">
         <v>43085</v>
       </c>
-      <c r="B187" s="33">
+      <c r="B187" s="29">
         <v>89</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="32">
+      <c r="C187" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A188" s="28">
         <v>43070</v>
       </c>
-      <c r="B188" s="33">
+      <c r="B188" s="29">
         <v>33</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="32">
+      <c r="C188" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A189" s="28">
         <v>43055</v>
       </c>
-      <c r="B189" s="33">
+      <c r="B189" s="29">
         <v>98</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="32">
+      <c r="C189" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A190" s="28">
         <v>43040</v>
       </c>
-      <c r="B190" s="33">
+      <c r="B190" s="29">
         <v>85</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="32">
+      <c r="C190" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A191" s="28">
         <v>43024</v>
       </c>
-      <c r="B191" s="33">
+      <c r="B191" s="29">
         <v>86</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="32">
+      <c r="C191" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A192" s="28">
         <v>43009</v>
       </c>
-      <c r="B192" s="33">
+      <c r="B192" s="29">
         <v>52</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="32">
+      <c r="C192" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A193" s="28">
         <v>42994</v>
       </c>
-      <c r="B193" s="33">
+      <c r="B193" s="29">
         <v>71</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="32">
+      <c r="C193" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A194" s="28">
         <v>42979</v>
       </c>
-      <c r="B194" s="33">
+      <c r="B194" s="29">
         <v>65</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="32">
+      <c r="C194" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A195" s="28">
         <v>42963</v>
       </c>
-      <c r="B195" s="33">
+      <c r="B195" s="29">
         <v>37</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="32">
+      <c r="C195" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A196" s="28">
         <v>42948</v>
       </c>
-      <c r="B196" s="33">
+      <c r="B196" s="29">
         <v>36</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="32">
+      <c r="C196" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A197" s="28">
         <v>42932</v>
       </c>
-      <c r="B197" s="33">
+      <c r="B197" s="29">
         <v>87</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="32">
+      <c r="C197" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A198" s="28">
         <v>42917</v>
       </c>
-      <c r="B198" s="33">
+      <c r="B198" s="29">
         <v>26</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="32">
+      <c r="C198" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A199" s="28">
         <v>42902</v>
       </c>
-      <c r="B199" s="33">
+      <c r="B199" s="29">
         <v>47</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="32">
+      <c r="C199" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A200" s="28">
         <v>42887</v>
       </c>
-      <c r="B200" s="33">
+      <c r="B200" s="29">
         <v>61</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="32">
+      <c r="C200" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A201" s="28">
         <v>42871</v>
       </c>
-      <c r="B201" s="33">
+      <c r="B201" s="29">
         <v>53</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="32">
+      <c r="C201" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A202" s="28">
         <v>42857</v>
       </c>
-      <c r="B202" s="33">
+      <c r="B202" s="29">
         <v>35</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="32">
+      <c r="C202" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A203" s="28">
         <v>42841</v>
       </c>
-      <c r="B203" s="33">
+      <c r="B203" s="29">
         <v>40</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="32">
+      <c r="C203" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A204" s="28">
         <v>42826</v>
       </c>
-      <c r="B204" s="33">
+      <c r="B204" s="29">
         <v>80</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="32">
+      <c r="C204" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A205" s="28">
         <v>42810</v>
       </c>
-      <c r="B205" s="33">
+      <c r="B205" s="29">
         <v>92</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="32">
+      <c r="C205" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A206" s="28">
         <v>42795</v>
       </c>
-      <c r="B206" s="33">
+      <c r="B206" s="29">
         <v>78</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="32">
+      <c r="C206" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A207" s="28">
         <v>42782</v>
       </c>
-      <c r="B207" s="33">
+      <c r="B207" s="29">
         <v>14</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="32">
+      <c r="C207" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A208" s="28">
         <v>42767</v>
       </c>
-      <c r="B208" s="33">
+      <c r="B208" s="29">
         <v>42</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="32">
+      <c r="C208" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A209" s="28">
         <v>42752</v>
       </c>
-      <c r="B209" s="33">
+      <c r="B209" s="29">
         <v>25</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="32">
+      <c r="C209" s="30" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="24.2" x14ac:dyDescent="0.35">
+      <c r="A210" s="28">
         <v>42734</v>
       </c>
-      <c r="B210" s="33">
+      <c r="B210" s="29">
         <v>46</v>
+      </c>
+      <c r="C210" s="30" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/playground/Lotto/Book1.xlsx
+++ b/playground/Lotto/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TaoThon\tThon\heartrhythmbox\playground\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B473D-7810-42A4-9C64-B2B0E147F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07884E40-82D4-4500-8473-2E6A515B7AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="380" windowWidth="26020" windowHeight="14020" activeTab="4" xr2:uid="{F520DDEF-B5EC-4186-A5B8-903311AB5A1E}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="679">
   <si>
     <t>รางวัลที่ 1</t>
   </si>
@@ -4471,6 +4471,39 @@
   </si>
   <si>
     <t>Prayut Chan-o-cha</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Virgo</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>Scorpio</t>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+  </si>
+  <si>
+    <t>Capricorn</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
+  </si>
+  <si>
+    <t>Pisces</t>
+  </si>
+  <si>
+    <t>Aries</t>
   </si>
 </sst>
 </file>
@@ -4481,7 +4514,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4582,6 +4615,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF292B2C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4666,7 +4711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4763,6 +4808,27 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4800,15 +4866,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552</xdr:colOff>
-          <xdr:row>702</xdr:row>
-          <xdr:rowOff>99943</xdr:rowOff>
+          <xdr:colOff>977</xdr:colOff>
+          <xdr:row>632</xdr:row>
+          <xdr:rowOff>179754</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>30646</xdr:colOff>
-          <xdr:row>703</xdr:row>
-          <xdr:rowOff>178076</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>440104</xdr:colOff>
+          <xdr:row>634</xdr:row>
+          <xdr:rowOff>106973</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4850,15 +4916,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552</xdr:colOff>
-          <xdr:row>710</xdr:row>
-          <xdr:rowOff>102704</xdr:rowOff>
+          <xdr:colOff>977</xdr:colOff>
+          <xdr:row>641</xdr:row>
+          <xdr:rowOff>1465</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>2089702</xdr:colOff>
-          <xdr:row>711</xdr:row>
-          <xdr:rowOff>180837</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>218831</xdr:colOff>
+          <xdr:row>642</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4900,15 +4966,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552</xdr:colOff>
-          <xdr:row>711</xdr:row>
-          <xdr:rowOff>117337</xdr:rowOff>
+          <xdr:colOff>977</xdr:colOff>
+          <xdr:row>642</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>711752</xdr:colOff>
-          <xdr:row>713</xdr:row>
-          <xdr:rowOff>83102</xdr:rowOff>
+          <xdr:colOff>801077</xdr:colOff>
+          <xdr:row>644</xdr:row>
+          <xdr:rowOff>16119</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4949,14 +5015,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>728</xdr:row>
+      <xdr:row>656</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>416966</xdr:colOff>
-      <xdr:row>729</xdr:row>
-      <xdr:rowOff>58520</xdr:rowOff>
+      <xdr:row>657</xdr:row>
+      <xdr:rowOff>58521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5010,14 +5076,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>737</xdr:row>
+      <xdr:row>665</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>416966</xdr:colOff>
-      <xdr:row>738</xdr:row>
-      <xdr:rowOff>58522</xdr:rowOff>
+      <xdr:row>666</xdr:row>
+      <xdr:rowOff>58523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5071,14 +5137,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>872</xdr:row>
+      <xdr:row>800</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>416966</xdr:colOff>
-      <xdr:row>873</xdr:row>
-      <xdr:rowOff>58518</xdr:rowOff>
+      <xdr:row>801</xdr:row>
+      <xdr:rowOff>58517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5431,8 +5497,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -7471,8 +7537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18982121-1DB6-4B93-AB66-773579703A8E}">
   <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C211"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -9528,10 +9594,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BCAC6-BD01-4A99-B251-66120513C041}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:B890"/>
+  <dimension ref="A2:B818"/>
   <sheetViews>
-    <sheetView topLeftCell="A212" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B212" activeCellId="49" sqref="A337 B337 A332 B332 A327 B327 A322 B322 A317 B317 A312 B312 A307 B307 A302 B302 A297 B297 A292 B292 A287 B287 A282 B282 A277 B277 A272 B272 A267 B267 A262 B262 A257 B257 A251 B251 A245 B245 A239 B239 A233 B233 A227 B227 A222 B222 A217 B217 A212 B212"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A572" activeCellId="1" sqref="A567:B567 A572:B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12098,728 +12164,800 @@
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="23">
+        <v>42368</v>
+      </c>
       <c r="B457" s="15">
-        <v>8217</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B458" s="15">
+      <c r="B458" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B459" s="14">
         <v>17</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B459" s="15">
-        <v>217</v>
-      </c>
-    </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B460" s="15">
-        <v>2</v>
+      <c r="B460" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B461" s="16" t="s">
-        <v>437</v>
+      <c r="B461" s="14">
+        <v>2558</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B462" s="14">
-        <v>17</v>
+      <c r="A462" s="23">
+        <v>42355</v>
+      </c>
+      <c r="B462" s="15">
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B463" s="14" t="s">
-        <v>354</v>
+      <c r="B463" s="16" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B464" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B465" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B466" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B465" s="15">
-        <v>930255</v>
-      </c>
-    </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B466" s="15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="23">
+        <v>42339</v>
+      </c>
       <c r="B467" s="15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B468" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B469" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B470" s="14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B468" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B469" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B470" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B471" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="23">
+        <v>42324</v>
+      </c>
+      <c r="B472" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B473" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B474" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B471" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B472" s="14">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B475" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B476" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B473" s="15">
-        <v>915350</v>
-      </c>
-    </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B474" s="15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B475" s="15">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B476" s="15">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B477" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B478" s="14">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="23">
+        <v>42309</v>
+      </c>
+      <c r="B477" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B478" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B479" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B479" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B480" s="14">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B480" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B481" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B481" s="15">
-        <v>795283</v>
-      </c>
-    </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="23">
+        <v>42293</v>
+      </c>
       <c r="B482" s="15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B483" s="15">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B484" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B485" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B483" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B484" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B485" s="14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B486" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="23">
+        <v>42278</v>
+      </c>
+      <c r="B487" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B488" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B489" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B490" s="14" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B491" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="23">
+        <v>42263</v>
+      </c>
+      <c r="B492" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B493" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B494" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B487" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B488" s="14">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B489" s="15">
-        <v>361211</v>
-      </c>
-    </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B490" s="15">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B491" s="15">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B492" s="15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B493" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B494" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B495" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B496" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="23">
+        <v>42248</v>
+      </c>
       <c r="B497" s="15">
-        <v>968630</v>
-      </c>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B498" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B499" s="15">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B500" s="15">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B501" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B502" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B498" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B499" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B500" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B501" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="23">
+        <v>42232</v>
+      </c>
+      <c r="B502" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B503" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B504" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B503" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B504" s="14">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B505" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B506" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B505" s="15">
-        <v>594825</v>
-      </c>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B506" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="23">
+        <v>42217</v>
+      </c>
       <c r="B507" s="15">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B508" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B509" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B510" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B508" s="14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B509" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B511" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B512" s="14">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B510" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B511" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B513" s="15">
-        <v>743148</v>
-      </c>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B514" s="15">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B515" s="15">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B516" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B517" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B518" s="14">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="23">
+        <v>42201</v>
+      </c>
+      <c r="B512" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B513" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B514" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B519" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B520" s="14">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B515" s="14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B516" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B521" s="15">
-        <v>21094</v>
-      </c>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="23">
+        <v>42186</v>
+      </c>
+      <c r="B517" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B518" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B519" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B520" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B521" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="23">
+        <v>42171</v>
+      </c>
       <c r="B522" s="15">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B523" s="15">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B524" s="15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B525" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B523" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B524" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B525" s="14" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B526" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="23">
+        <v>42157</v>
+      </c>
+      <c r="B527" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B528" s="14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B529" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B527" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B528" s="14">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B530" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B531" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B529" s="15">
-        <v>33363</v>
-      </c>
-    </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B530" s="15">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B531" s="15">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="23">
+        <v>42140</v>
+      </c>
       <c r="B532" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B533" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B534" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B535" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.35">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B536" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="23">
+        <v>42126</v>
+      </c>
       <c r="B537" s="15">
-        <v>518677</v>
-      </c>
-    </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B538" s="15">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B539" s="15">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B540" s="15">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B541" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B542" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B538" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B539" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B540" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B541" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="23">
+        <v>42110</v>
+      </c>
+      <c r="B542" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B543" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B544" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B545" s="14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B546" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B545" s="15">
-        <v>121507</v>
-      </c>
-    </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B546" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="23">
+        <v>42095</v>
+      </c>
       <c r="B547" s="15">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B548" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B549" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B550" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B548" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B549" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B550" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B551" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="23">
+        <v>42079</v>
+      </c>
+      <c r="B552" s="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B553" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B554" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B551" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B552" s="14">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B555" s="14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B556" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B553" s="15">
-        <v>759049</v>
-      </c>
-    </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B554" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B555" s="15">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B556" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B557" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B558" s="14">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="23">
+        <v>42064</v>
+      </c>
+      <c r="B557" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B558" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B559" s="14">
         <v>16</v>
       </c>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B559" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B560" s="14">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B560" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B561" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B561" s="15">
-        <v>644742</v>
-      </c>
-    </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="23">
+        <v>42051</v>
+      </c>
       <c r="B562" s="15">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B563" s="15">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B564" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B563" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B564" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B565" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B566" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B567" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B568" s="14">
         <v>2558</v>
       </c>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B569" s="15">
-        <v>388881</v>
-      </c>
-    </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B570" s="15">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B571" s="15">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="23">
+        <v>42036</v>
+      </c>
+      <c r="B567" s="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B568" s="14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B569" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B570" s="14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B571" s="14">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="23">
+        <v>42020</v>
+      </c>
       <c r="B572" s="15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B573" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B574" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B575" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B576" s="14">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B577" s="15">
-        <v>11421</v>
+        <v>461704</v>
       </c>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B578" s="15">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B579" s="15">
-        <v>421</v>
+        <v>704</v>
       </c>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B580" s="15">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B581" s="14" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B582" s="14">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B583" s="14" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B584" s="14">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B585" s="15">
-        <v>543466</v>
+        <v>948354</v>
       </c>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B586" s="15">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B587" s="15">
-        <v>466</v>
+        <v>354</v>
       </c>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B588" s="15">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B589" s="14" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B590" s="14">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B591" s="14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B592" s="14">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B593" s="15">
-        <v>506260</v>
+        <v>480449</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B594" s="15">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B595" s="15">
-        <v>260</v>
+        <v>449</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B596" s="15">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B597" s="14" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B598" s="14">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B599" s="14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B600" s="14">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B601" s="15">
-        <v>605704</v>
+        <v>479804</v>
       </c>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.35">
@@ -12829,1618 +12967,1258 @@
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B603" s="15">
-        <v>704</v>
+        <v>804</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B604" s="15">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B605" s="14" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B606" s="14">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B607" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B608" s="14">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B609" s="15">
-        <v>48151</v>
+        <v>206608</v>
       </c>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B610" s="15">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B611" s="15">
-        <v>151</v>
+        <v>608</v>
       </c>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B612" s="15">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B613" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B614" s="14">
-        <v>1</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="B614" s="17" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B615" s="14" t="s">
-        <v>363</v>
+      <c r="B615" s="18" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B616" s="14">
-        <v>2558</v>
+      <c r="B616" s="18" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B617" s="15">
-        <v>240237</v>
+      <c r="B617" s="18" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B618" s="15">
-        <v>37</v>
+      <c r="B618" s="18" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B619" s="15">
-        <v>237</v>
+      <c r="B619" s="18" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B620" s="15">
-        <v>34</v>
+      <c r="B620" s="18" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B621" s="14" t="s">
-        <v>457</v>
+      <c r="B621" s="18" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B622" s="14">
-        <v>16</v>
+      <c r="B622" s="18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B623" s="14" t="s">
-        <v>364</v>
+      <c r="B623" s="18" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B624" s="14">
-        <v>2558</v>
+      <c r="B624" s="18" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B625" s="15">
-        <v>1864</v>
+      <c r="B625" s="18" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B626" s="15">
-        <v>64</v>
+      <c r="B626" s="18" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B627" s="15">
-        <v>864</v>
+      <c r="B627" s="18" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B628" s="15">
-        <v>90</v>
+      <c r="B628" s="18" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B629" s="14" t="s">
-        <v>458</v>
+      <c r="B629" s="18" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B630" s="14">
-        <v>1</v>
+      <c r="B630" s="18" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B631" s="14" t="s">
-        <v>364</v>
+      <c r="B631" s="18" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B632" s="14">
-        <v>2558</v>
+      <c r="B632" s="18" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B633" s="15">
-        <v>155537</v>
+      <c r="B633" s="18" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B634" s="15">
-        <v>37</v>
+      <c r="B634" s="18" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B635" s="15">
-        <v>537</v>
+      <c r="B635" s="18" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B636" s="15">
-        <v>79</v>
+      <c r="B636" s="18" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B637" s="14" t="s">
-        <v>459</v>
+      <c r="B637" s="18" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B638" s="14">
-        <v>16</v>
+      <c r="B638" s="18" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B639" s="14" t="s">
-        <v>365</v>
+      <c r="B639" s="18" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B640" s="14">
-        <v>2558</v>
+      <c r="B640" s="18" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B641" s="15">
-        <v>244351</v>
+      <c r="B641" s="18" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B642" s="15">
-        <v>51</v>
+      <c r="B642" s="18" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B643" s="15">
-        <v>351</v>
+      <c r="B643" s="18" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B644" s="15">
-        <v>74</v>
+      <c r="B644" s="18" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B645" s="14" t="s">
-        <v>460</v>
+      <c r="B645" s="18" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B646" s="14">
-        <v>30</v>
+      <c r="B646" s="18" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B647" s="14" t="s">
-        <v>354</v>
+      <c r="B647" s="18" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B648" s="14">
-        <v>2557</v>
+      <c r="B648" s="18" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B649" s="15">
-        <v>461704</v>
-      </c>
-    </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B650" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B651" s="15">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B652" s="15">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B653" s="14" t="s">
-        <v>461</v>
-      </c>
+      <c r="B649" s="18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B650" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B651" s="19"/>
+    </row>
+    <row r="652" spans="2:2" ht="99.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B652" s="19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B653" s="19"/>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B654" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B655" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B656" s="14">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B657" s="15">
-        <v>948354</v>
-      </c>
+      <c r="B654" s="20"/>
+    </row>
+    <row r="655" spans="2:2" ht="21.5" x14ac:dyDescent="0.35">
+      <c r="B655" s="17" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B656" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B657" s="21"/>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B658" s="15">
-        <v>54</v>
+      <c r="B658" s="18" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B659" s="15">
-        <v>354</v>
+      <c r="B659" s="18" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B660" s="15">
-        <v>90</v>
+      <c r="B660" s="18" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B661" s="14" t="s">
-        <v>462</v>
+      <c r="B661" s="18" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B662" s="14">
-        <v>1</v>
+      <c r="B662" s="18" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B663" s="14" t="s">
-        <v>354</v>
+      <c r="B663" s="18" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B664" s="14">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B665" s="15">
-        <v>480449</v>
-      </c>
-    </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B666" s="15">
-        <v>49</v>
-      </c>
+      <c r="B664" s="18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B665" s="21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B666" s="21"/>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B667" s="15">
-        <v>449</v>
+      <c r="B667" s="18" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B668" s="15">
-        <v>11</v>
+      <c r="B668" s="18" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B669" s="14" t="s">
-        <v>463</v>
+      <c r="B669" s="18" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B670" s="14">
-        <v>16</v>
+      <c r="B670" s="18" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B671" s="14" t="s">
-        <v>355</v>
+      <c r="B671" s="18" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B672" s="14">
-        <v>2557</v>
+      <c r="B672" s="18" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B673" s="15">
-        <v>479804</v>
+      <c r="B673" s="18" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B674" s="15">
-        <v>4</v>
+      <c r="B674" s="18" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B675" s="15">
-        <v>804</v>
+      <c r="B675" s="18" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B676" s="15">
-        <v>25</v>
+      <c r="B676" s="18" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B677" s="14" t="s">
-        <v>464</v>
+      <c r="B677" s="18" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B678" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B679" s="14" t="s">
-        <v>355</v>
+      <c r="B678" s="18" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B679" s="21" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B680" s="14">
-        <v>2557</v>
+      <c r="B680" s="18" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B681" s="15">
-        <v>206608</v>
+      <c r="B681" s="18" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B682" s="15">
-        <v>8</v>
+      <c r="B682" s="18" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B683" s="15">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B684" s="15">
-        <v>44</v>
+      <c r="B683" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B684" s="21" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B685" s="14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="686" spans="2:2" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="B686" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B687" s="18" t="s">
-        <v>467</v>
+      <c r="B685" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B686" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B687" s="21" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B688" s="18" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B689" s="18" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B690" s="18" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B691" s="18" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B692" s="18" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B693" s="18" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B694" s="18" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B695" s="18" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B696" s="18" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B697" s="18" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B698" s="18" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B699" s="18" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B700" s="18" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B701" s="18" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B702" s="18" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B703" s="18" t="s">
-        <v>483</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B703" s="21" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B704" s="18" t="s">
-        <v>484</v>
+        <v>551</v>
       </c>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B705" s="18" t="s">
-        <v>485</v>
+        <v>552</v>
       </c>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B706" s="18" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B707" s="18" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B708" s="18" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B709" s="18" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B710" s="18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B711" s="18" t="s">
-        <v>491</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="B711" s="22" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B712" s="18" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B713" s="18" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B714" s="18" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B715" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B716" s="18" t="s">
-        <v>496</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B716" s="21" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B717" s="18" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B718" s="18" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B719" s="18" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B720" s="18" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B721" s="18" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="722" spans="2:2" ht="22" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B722" s="17" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="723" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B723" s="19"/>
-    </row>
-    <row r="724" spans="2:2" ht="99.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B724" s="19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="725" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B725" s="19"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B722" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B723" s="18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B724" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B725" s="18" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B726" s="20"/>
-    </row>
-    <row r="727" spans="2:2" ht="21.5" x14ac:dyDescent="0.35">
-      <c r="B727" s="17" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="728" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B728" s="21" t="s">
-        <v>505</v>
+      <c r="B726" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B727" s="18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B728" s="18" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="729" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B729" s="21"/>
+      <c r="B729" s="21" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B730" s="18" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B731" s="18" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B732" s="18" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B733" s="18" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B734" s="18" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B735" s="18" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B736" s="18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="737" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B737" s="21" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="738" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B738" s="21"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B737" s="18" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B738" s="18" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B739" s="18" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B740" s="18" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B741" s="18" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B742" s="18" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B743" s="18" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B744" s="18" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B745" s="18" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B746" s="18" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B747" s="18" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B748" s="18" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B749" s="18" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B750" s="18" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="751" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B751" s="21" t="s">
-        <v>526</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B751" s="18" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B752" s="18" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B753" s="18" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B754" s="18" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B755" s="18" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="756" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B756" s="21" t="s">
-        <v>531</v>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B756" s="18" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B757" s="18" t="s">
-        <v>532</v>
+        <v>604</v>
       </c>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B758" s="18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="759" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B759" s="21" t="s">
-        <v>534</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B759" s="18" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B760" s="18" t="s">
-        <v>535</v>
+        <v>607</v>
       </c>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B761" s="18" t="s">
-        <v>536</v>
+        <v>608</v>
       </c>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B762" s="18" t="s">
-        <v>537</v>
+        <v>609</v>
       </c>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B763" s="18" t="s">
-        <v>538</v>
+        <v>610</v>
       </c>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B764" s="18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B765" s="18" t="s">
-        <v>540</v>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B765" s="21" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B766" s="18" t="s">
-        <v>541</v>
+        <v>613</v>
       </c>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B767" s="18" t="s">
-        <v>542</v>
+        <v>614</v>
       </c>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B768" s="18" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B769" s="18" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B770" s="18" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B771" s="18" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B772" s="18" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B773" s="18" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B774" s="18" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="775" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B775" s="21" t="s">
-        <v>550</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B775" s="18" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B776" s="18" t="s">
-        <v>551</v>
+        <v>623</v>
       </c>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B777" s="18" t="s">
-        <v>552</v>
+        <v>624</v>
       </c>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B778" s="18" t="s">
-        <v>553</v>
+        <v>625</v>
       </c>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B779" s="18" t="s">
-        <v>554</v>
+        <v>626</v>
       </c>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B780" s="18" t="s">
-        <v>555</v>
+        <v>627</v>
       </c>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B781" s="18" t="s">
-        <v>556</v>
+        <v>628</v>
       </c>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B782" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="783" spans="2:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="B783" s="22" t="s">
-        <v>558</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B783" s="18" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B784" s="18" t="s">
-        <v>559</v>
+        <v>631</v>
       </c>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B785" s="18" t="s">
-        <v>560</v>
+        <v>632</v>
       </c>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B786" s="18" t="s">
-        <v>561</v>
+        <v>633</v>
       </c>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B787" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="788" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B788" s="21" t="s">
-        <v>563</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B788" s="18" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B789" s="18" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B790" s="18" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B791" s="18" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B792" s="18" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B793" s="18" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B794" s="18" t="s">
-        <v>569</v>
+        <v>641</v>
       </c>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B795" s="18" t="s">
-        <v>570</v>
+        <v>642</v>
       </c>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B796" s="18" t="s">
-        <v>571</v>
+        <v>643</v>
       </c>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B797" s="18" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B798" s="18" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B799" s="18" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B800" s="18" t="s">
-        <v>575</v>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B800" s="21" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="801" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B801" s="21" t="s">
-        <v>576</v>
-      </c>
+      <c r="B801" s="21"/>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B802" s="18" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B803" s="18" t="s">
-        <v>578</v>
+        <v>649</v>
       </c>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B804" s="18" t="s">
-        <v>579</v>
+        <v>650</v>
       </c>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B805" s="18" t="s">
-        <v>580</v>
+        <v>651</v>
       </c>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B806" s="18" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B807" s="18" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B808" s="18" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B809" s="18" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B810" s="18" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B811" s="18" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B812" s="18" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B813" s="18" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B814" s="18" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B815" s="18" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B816" s="18" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B817" s="18" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B818" s="18" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B819" s="18" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B820" s="18" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B821" s="18" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B822" s="18" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B823" s="18" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B824" s="18" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B825" s="18" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B826" s="18" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B827" s="18" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B828" s="18" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B829" s="18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B830" s="18" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B831" s="18" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B832" s="18" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B833" s="18" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B834" s="18" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B835" s="18" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B836" s="18" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="837" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B837" s="21" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B838" s="18" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B839" s="18" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B840" s="18" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B841" s="18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B842" s="18" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B843" s="18" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B844" s="18" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B845" s="18" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B846" s="18" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B847" s="18" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B848" s="18" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B849" s="18" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B850" s="18" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B851" s="18" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B852" s="18" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B853" s="18" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B854" s="18" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B855" s="18" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B856" s="18" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B857" s="18" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B858" s="18" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B859" s="18" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B860" s="18" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B861" s="18" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B862" s="18" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B863" s="18" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B864" s="18" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B865" s="18" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B866" s="18" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B867" s="18" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B868" s="18" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B869" s="18" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B870" s="18" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B871" s="18" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="872" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B872" s="21" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="873" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B873" s="21"/>
-    </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B874" s="18" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B875" s="18" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B876" s="18" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B877" s="18" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B878" s="18" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B879" s="18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B880" s="18" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B881" s="18" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B882" s="18" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B883" s="18" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B884" s="18" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B885" s="18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B886" s="18" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B887" s="18" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B888" s="18" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B889" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B890" s="18" t="s">
         <v>664</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B687" r:id="rId1" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2567.aspx" xr:uid="{1BF2AC39-DFCB-4048-95C6-EE50EBF87645}"/>
-    <hyperlink ref="B688" r:id="rId2" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2566" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2566.aspx" xr:uid="{C85D2E67-5717-40D0-87FD-A37C0C0AB2E5}"/>
-    <hyperlink ref="B689" r:id="rId3" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2565" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2565.aspx" xr:uid="{BDA76A0C-FC57-4AFC-B94B-362A77BB3E02}"/>
-    <hyperlink ref="B690" r:id="rId4" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2564" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2564.aspx" xr:uid="{0E5EC8AF-1EEB-4558-B26F-432F9FABB2AB}"/>
-    <hyperlink ref="B691" r:id="rId5" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2563" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2563.aspx" xr:uid="{C2DCA06D-2EE7-4514-A77D-0A2841EB0368}"/>
-    <hyperlink ref="B692" r:id="rId6" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2562" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2562.aspx" xr:uid="{C2477691-F7F4-4E7B-AA6D-7AE34A577317}"/>
-    <hyperlink ref="B693" r:id="rId7" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2561" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2561.aspx" xr:uid="{7B07FC9E-E5BA-4BEC-A985-6D2747E2B4EC}"/>
-    <hyperlink ref="B694" r:id="rId8" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2560" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2560.aspx" xr:uid="{83D791AE-9E0B-43E8-B0EA-0D615DB80696}"/>
-    <hyperlink ref="B695" r:id="rId9" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2559" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2559.aspx" xr:uid="{C26E0CF5-3785-405F-8188-6C2464A5A4A7}"/>
-    <hyperlink ref="B696" r:id="rId10" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2558" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2558.aspx" xr:uid="{AE03CEB7-1162-4717-892C-35E6A7259928}"/>
-    <hyperlink ref="B697" r:id="rId11" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2557" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2557.aspx" xr:uid="{ED03A4FA-74FA-4C8C-A3B4-FD7AB5259241}"/>
-    <hyperlink ref="B698" r:id="rId12" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2556" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2556.aspx" xr:uid="{E8C58C58-2C82-46F3-B607-947FB80E30FF}"/>
-    <hyperlink ref="B699" r:id="rId13" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2555" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2555.aspx" xr:uid="{25BA7CC0-BE51-467F-831D-C73B9B6A0594}"/>
-    <hyperlink ref="B700" r:id="rId14" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2554" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2554.aspx" xr:uid="{149C8F52-F255-4584-885C-8EED90638B9F}"/>
-    <hyperlink ref="B701" r:id="rId15" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2553" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2553.aspx" xr:uid="{59DA5639-07BD-40F3-8994-FD698E7AF958}"/>
-    <hyperlink ref="B702" r:id="rId16" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2552" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2552.aspx" xr:uid="{5C2AB19E-12DA-4F59-B581-55C3EAA7DF42}"/>
-    <hyperlink ref="B703" r:id="rId17" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2551" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2551.aspx" xr:uid="{4C4ED439-A353-4426-93EC-1184AE4B45B8}"/>
-    <hyperlink ref="B704" r:id="rId18" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2550" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2550.aspx" xr:uid="{54D6A088-DB94-4EB2-9F4D-17BA6A143FC0}"/>
-    <hyperlink ref="B705" r:id="rId19" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2549" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2549.aspx" xr:uid="{6C8B8182-5A08-48C9-8A33-874FD81251ED}"/>
-    <hyperlink ref="B706" r:id="rId20" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2548" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2548.aspx" xr:uid="{7850EC8A-06C6-45B2-A08E-F9EF03AC6ACA}"/>
-    <hyperlink ref="B707" r:id="rId21" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2547" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2547.aspx" xr:uid="{51747B5F-F0F3-4DC6-99F3-83016F7D9595}"/>
-    <hyperlink ref="B708" r:id="rId22" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2546" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2546.aspx" xr:uid="{D8E5BF45-E15F-4DF7-BF25-4558E36F1A1E}"/>
-    <hyperlink ref="B709" r:id="rId23" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2545" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2545.aspx" xr:uid="{54810C55-77A2-48A6-83A2-BB0360E201C3}"/>
-    <hyperlink ref="B710" r:id="rId24" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2544" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2544.aspx" xr:uid="{904BABC3-4319-45F4-A649-9B22DE6D25EF}"/>
-    <hyperlink ref="B711" r:id="rId25" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2543" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2543.aspx" xr:uid="{172E6104-2EE2-4E01-A505-DA88E4003422}"/>
-    <hyperlink ref="B712" r:id="rId26" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2542" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2542.aspx" xr:uid="{07E9C106-9680-4F4D-BED3-2F6DC641642B}"/>
-    <hyperlink ref="B713" r:id="rId27" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2541" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2541.aspx" xr:uid="{8ECE430F-60A8-4AE4-B27A-C3D1943F2E49}"/>
-    <hyperlink ref="B714" r:id="rId28" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2540" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2540.aspx" xr:uid="{CFCAAEBD-C012-4EB0-8FE7-A32ADDA6E242}"/>
-    <hyperlink ref="B715" r:id="rId29" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2539" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2539.aspx" xr:uid="{4CD1BA8D-710C-46D8-9835-5654E4C1BAD8}"/>
-    <hyperlink ref="B716" r:id="rId30" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2538" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2538.aspx" xr:uid="{AB761D2D-351D-42C1-A6BC-0A60EDDF5B00}"/>
-    <hyperlink ref="B717" r:id="rId31" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2537" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2537.aspx" xr:uid="{4EEB7CC1-00D8-4C6A-870D-F22CA4E62A72}"/>
-    <hyperlink ref="B718" r:id="rId32" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2536" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2536.aspx" xr:uid="{C2282A38-4C1D-468C-B3A5-138C21C46E0A}"/>
-    <hyperlink ref="B719" r:id="rId33" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2535" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2535.aspx" xr:uid="{EB8A70E1-046D-43E9-A3D4-A408EFF21484}"/>
-    <hyperlink ref="B720" r:id="rId34" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2534" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2534.aspx" xr:uid="{6E5FCDC1-349C-4B05-B3A5-A7B2DC55A6BB}"/>
-    <hyperlink ref="B721" r:id="rId35" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2533" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2533.aspx" xr:uid="{DFE373D9-8680-41A0-ABBB-20BFF2003D1D}"/>
-    <hyperlink ref="B730" r:id="rId36" tooltip="สถิติหวย ออกวันอาทิตย์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%ad%e0%b8%b2%e0%b8%97%e0%b8%b4%e0%b8%95%e0%b8%a2%e0%b9%8c.aspx?mode=day-of-week&amp;value=1&amp;range=20" xr:uid="{CCCA6E15-40CD-4D50-B0AD-37B1865848B8}"/>
-    <hyperlink ref="B731" r:id="rId37" tooltip="สถิติหวย ออกวันจันทร์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%88%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%a3%e0%b9%8c.aspx?mode=day-of-week&amp;value=2&amp;range=20" xr:uid="{FC2EC357-EF6B-4761-8CA5-4EFE803421F4}"/>
-    <hyperlink ref="B732" r:id="rId38" tooltip="สถิติหวย ออกวันอังคาร" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%ad%e0%b8%b1%e0%b8%87%e0%b8%84%e0%b8%b2%e0%b8%a3.aspx?mode=day-of-week&amp;value=3&amp;range=20" xr:uid="{675F2106-2E9E-416F-9223-3E811470D144}"/>
-    <hyperlink ref="B733" r:id="rId39" tooltip="สถิติหวย ออกวันพุธ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%9e%e0%b8%b8%e0%b8%98.aspx?mode=day-of-week&amp;value=4&amp;range=20" xr:uid="{ABC3FD60-C17D-439E-B3C5-6D4A29626EE5}"/>
-    <hyperlink ref="B734" r:id="rId40" tooltip="สถิติหวย ออกวันพฤหัสบดี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%9e%e0%b8%a4%e0%b8%ab%e0%b8%b1%e0%b8%aa%e0%b8%9a%e0%b8%94%e0%b8%b5.aspx?mode=day-of-week&amp;value=5&amp;range=20" xr:uid="{314A52A1-E447-457D-A9F0-8B969A9FFABE}"/>
-    <hyperlink ref="B735" r:id="rId41" tooltip="สถิติหวย ออกวันศุกร์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%a8%e0%b8%b8%e0%b8%81%e0%b8%a3%e0%b9%8c.aspx?mode=day-of-week&amp;value=6&amp;range=20" xr:uid="{2188211A-2A66-4986-81EB-3AAEADFB98CA}"/>
-    <hyperlink ref="B736" r:id="rId42" tooltip="สถิติหวย ออกวันเสาร์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b9%80%e0%b8%aa%e0%b8%b2%e0%b8%a3%e0%b9%8c.aspx?mode=day-of-week&amp;value=7&amp;range=20" xr:uid="{F046716B-8973-4CBB-84C3-C964896952D5}"/>
-    <hyperlink ref="B739" r:id="rId43" tooltip="สถิติหวยออก เดือนมกราคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a1%e0%b8%81%e0%b8%a3%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=1&amp;range=20" xr:uid="{F222328A-3321-4291-ABDE-E84CA569A2C4}"/>
-    <hyperlink ref="B740" r:id="rId44" tooltip="สถิติหวยออก เดือนกุมภาพันธ์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%81%e0%b8%b8%e0%b8%a1%e0%b8%a0%e0%b8%b2%e0%b8%9e%e0%b8%b1%e0%b8%99%e0%b8%98%e0%b9%8c.aspx?mode=month&amp;value=2&amp;range=20" xr:uid="{C4A82B98-7A21-49E1-B86D-D9C58BC37256}"/>
-    <hyperlink ref="B741" r:id="rId45" tooltip="สถิติหวยออก เดือนมีนาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a1%e0%b8%b5%e0%b8%99%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=3&amp;range=20" xr:uid="{F1506937-09BE-44DE-9AF0-BDE0F0F4C8AA}"/>
-    <hyperlink ref="B742" r:id="rId46" tooltip="สถิติหวยออก เดือนเมษายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b9%80%e0%b8%a1%e0%b8%a9%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=4&amp;range=20" xr:uid="{C41E123A-F96F-45F5-BF07-10CF0912A163}"/>
-    <hyperlink ref="B743" r:id="rId47" tooltip="สถิติหวยออก เดือนพฤษภาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%9e%e0%b8%a4%e0%b8%a9%e0%b8%a0%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=5&amp;range=20" xr:uid="{E689C038-3ECC-4164-A8A9-5B59B7D4943D}"/>
-    <hyperlink ref="B744" r:id="rId48" tooltip="สถิติหวยออก เดือนมิถุนายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a1%e0%b8%b4%e0%b8%96%e0%b8%b8%e0%b8%99%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=6&amp;range=20" xr:uid="{3B9330C6-B9BF-4964-8744-259645027C24}"/>
-    <hyperlink ref="B745" r:id="rId49" tooltip="สถิติหวยออก เดือนกรกฎาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%81%e0%b8%a3%e0%b8%81%e0%b8%8e%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=7&amp;range=20" xr:uid="{38629A06-33FD-4EA7-BAC7-E52A55351226}"/>
-    <hyperlink ref="B746" r:id="rId50" tooltip="สถิติหวยออก เดือนสิงหาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%87%e0%b8%ab%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=8&amp;range=20" xr:uid="{972D620E-EC74-4345-B52B-6180932C161E}"/>
-    <hyperlink ref="B747" r:id="rId51" tooltip="สถิติหวยออก เดือนกันยายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%81%e0%b8%b1%e0%b8%99%e0%b8%a2%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=9&amp;range=20" xr:uid="{A646E8DD-FD6B-4E7F-BBC3-C273A6E80432}"/>
-    <hyperlink ref="B748" r:id="rId52" tooltip="สถิติหวยออก เดือนตุลาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%95%e0%b8%b8%e0%b8%a5%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=10&amp;range=20" xr:uid="{A3792851-667E-49E9-8E08-B5143DE4F2F2}"/>
-    <hyperlink ref="B749" r:id="rId53" tooltip="สถิติหวยออก เดือนพฤศจิกายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%9e%e0%b8%a4%e0%b8%a8%e0%b8%88%e0%b8%b4%e0%b8%81%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=11&amp;range=20" xr:uid="{7765B9BF-31C9-496B-8A32-474107F442B8}"/>
-    <hyperlink ref="B750" r:id="rId54" tooltip="สถิติหวยออก เดือนธันวาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%98%e0%b8%b1%e0%b8%99%e0%b8%a7%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=12&amp;range=20" xr:uid="{07E3791E-4BE4-4A52-8E9A-F1D40E307DFA}"/>
-    <hyperlink ref="B752" r:id="rId55" tooltip="สถิติหวยออก วันที่ 1" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-1.aspx?mode=day&amp;value=1&amp;range=20" xr:uid="{68FE88B6-CF83-4216-AFE0-2D53D0DCD6EF}"/>
-    <hyperlink ref="B753" r:id="rId56" tooltip="สถิติหวยออก วันที่ 16" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-16.aspx?mode=day&amp;value=16&amp;range=20" xr:uid="{343A433A-B6DB-46CE-965F-459E8978C567}"/>
-    <hyperlink ref="B754" r:id="rId57" tooltip="สถิติหวยออก วันที่ 2 พ.ค." display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-2.aspx?mode=day&amp;value=2&amp;range=20" xr:uid="{A7600552-DBD1-47E5-90C5-4E0027A307B0}"/>
-    <hyperlink ref="B755" r:id="rId58" tooltip="สถิติหวยออก วันที่ 30 ธ.ค" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-30.aspx?mode=day&amp;value=30&amp;range=20" xr:uid="{5C7C9BC0-0DB7-4629-8780-8B0CA04C4A70}"/>
-    <hyperlink ref="B757" r:id="rId59" tooltip="สถิติหวยออก ข้างขึ้น" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%82%e0%b9%89%e0%b8%b2%e0%b8%87%e0%b8%82%e0%b8%b6%e0%b9%89%e0%b8%99.aspx?mode=day-lunar-type&amp;value=1&amp;range=20" xr:uid="{AD813C62-2C55-423A-8C36-D8A2A351FE4B}"/>
-    <hyperlink ref="B758" r:id="rId60" tooltip="สถิติหวยออก ข้างแรม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%82%e0%b9%89%e0%b8%b2%e0%b8%87%e0%b9%81%e0%b8%a3%e0%b8%a1.aspx?mode=day-lunar-type&amp;value=0&amp;range=20" xr:uid="{A1EB7E6A-3411-4EDD-9641-A21724FBF3CC}"/>
-    <hyperlink ref="B760" r:id="rId61" tooltip="สถิติหวย ออกวัน ๑ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-1-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=1&amp;range=20" xr:uid="{AD540DA6-6542-43D8-9C25-A027CB156C9D}"/>
-    <hyperlink ref="B761" r:id="rId62" tooltip="สถิติหวย ออกวัน ๒ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-2-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=2&amp;range=20" xr:uid="{99E66AC5-684B-415E-93EF-4D6A3734E44E}"/>
-    <hyperlink ref="B762" r:id="rId63" tooltip="สถิติหวย ออกวัน ๓ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-3-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=3&amp;range=20" xr:uid="{50E8A5B3-E167-4B76-9E9F-00DC3806ACCB}"/>
-    <hyperlink ref="B763" r:id="rId64" tooltip="สถิติหวย ออกวัน ๔ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-4-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=4&amp;range=20" xr:uid="{6EB2C9A9-3525-44CF-90A0-25714F292911}"/>
-    <hyperlink ref="B764" r:id="rId65" tooltip="สถิติหวย ออกวัน ๕ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-5-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=5&amp;range=20" xr:uid="{C589D33C-FBC6-44C7-9358-B94E233E01C4}"/>
-    <hyperlink ref="B765" r:id="rId66" tooltip="สถิติหวย ออกวัน ๖ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-6-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=6&amp;range=20" xr:uid="{09DEF3CF-F6EE-43BC-A296-6EB5CBB4295D}"/>
-    <hyperlink ref="B766" r:id="rId67" tooltip="สถิติหวย ออกวัน ๗ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-7-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=7&amp;range=20" xr:uid="{8AB9E74F-6BB0-4A8C-BBD8-F219CD3ABCA5}"/>
-    <hyperlink ref="B767" r:id="rId68" tooltip="สถิติหวย ออกวัน ๘ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-8-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=8&amp;range=20" xr:uid="{AB5B543D-12F9-4B2C-A056-1B6143BE19DB}"/>
-    <hyperlink ref="B768" r:id="rId69" tooltip="สถิติหวย ออกวัน ๙  ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-9-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=9&amp;range=20" xr:uid="{2F6B43B2-3427-4BAF-97E2-A095C34769EE}"/>
-    <hyperlink ref="B769" r:id="rId70" tooltip="สถิติหวย ออกวัน ๑๐ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-10-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=10&amp;range=20" xr:uid="{1582C231-DE37-4FBE-9363-6191AE6AAC5C}"/>
-    <hyperlink ref="B770" r:id="rId71" tooltip="สถิติหวย ออกวัน ๑๑ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-11-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=11&amp;range=20" xr:uid="{B2368C8C-2D19-4746-A5B1-38DB64F363B2}"/>
-    <hyperlink ref="B771" r:id="rId72" tooltip="สถิติหวย ออกวัน ๑๒ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-12-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=12&amp;range=20" xr:uid="{7DF2F3D1-8AA0-4CC2-AFC1-DADFE8986FED}"/>
-    <hyperlink ref="B772" r:id="rId73" tooltip="สถิติหวย ออกวัน ๑๓ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-13-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=13&amp;range=20" xr:uid="{55455421-54F0-4C4F-9B1A-E6875A7B77FF}"/>
-    <hyperlink ref="B773" r:id="rId74" tooltip="สถิติหวย ออกวัน ๑๔ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-14-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=14&amp;range=20" xr:uid="{480FC7A1-8E6E-46BF-9AD6-73C2CC16E1F1}"/>
-    <hyperlink ref="B774" r:id="rId75" tooltip="สถิติหวย ออกวัน ๑๕ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-15-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=15&amp;range=20" xr:uid="{7BE77F81-3FED-44BC-941D-16214D944272}"/>
-    <hyperlink ref="B776" r:id="rId76" tooltip="สถิติหวยออก เดือนอ้าย" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%ad%e0%b9%89%e0%b8%b2%e0%b8%a2.aspx?mode=month-lunar&amp;value=1&amp;range=20" xr:uid="{2A24A6D9-7A27-4EE3-9649-CD272EFD692E}"/>
-    <hyperlink ref="B777" r:id="rId77" tooltip="สถิติหวยออก เดือนยี่" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a2%e0%b8%b5%e0%b9%88.aspx?mode=month-lunar&amp;value=2&amp;range=20" xr:uid="{60AFE519-ABA0-4CFC-9A22-80AD7B79187F}"/>
-    <hyperlink ref="B778" r:id="rId78" tooltip="สถิติหวยออก เดือนสาม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b2%e0%b8%a1.aspx?mode=month-lunar&amp;value=3&amp;range=20" xr:uid="{6B6D0193-4F2B-4878-9764-E36F6430396B}"/>
-    <hyperlink ref="B779" r:id="rId79" tooltip="สถิติหวยออก เดือนสี่" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b5%e0%b9%88.aspx?mode=month-lunar&amp;value=4&amp;range=20" xr:uid="{CD5BE6CB-F03A-4118-B8E9-A460B2D67457}"/>
-    <hyperlink ref="B780" r:id="rId80" tooltip="สถิติหวยออก เดือนห้า" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b9%89%e0%b8%b2.aspx?mode=month-lunar&amp;value=5&amp;range=20" xr:uid="{13E7BB7A-9DBE-4F88-8BFA-7990DC317384}"/>
-    <hyperlink ref="B781" r:id="rId81" tooltip="สถิติหวยออก เดือนหก" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%81.aspx?mode=month-lunar&amp;value=6&amp;range=20" xr:uid="{1917A923-31CC-4538-8E57-2446D4E4E6BF}"/>
-    <hyperlink ref="B782" r:id="rId82" tooltip="สถิติหวยออก เดือนเจ็ด" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b9%80%e0%b8%88%e0%b9%87%e0%b8%94.aspx?mode=month-lunar&amp;value=7&amp;range=20" xr:uid="{9704D5CA-BED3-461B-8DAF-64495BCCB19D}"/>
-    <hyperlink ref="B784" r:id="rId83" tooltip="สถิติหวยออก เดือนเก้า" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b9%80%e0%b8%81%e0%b9%89%e0%b8%b2.aspx?mode=month-lunar&amp;value=9&amp;range=20" xr:uid="{5E30F389-0CC3-4C13-809D-E67F7156731C}"/>
-    <hyperlink ref="B785" r:id="rId84" tooltip="สถิติหวยออก เดือนสิบ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%9a.aspx?mode=month-lunar&amp;value=10&amp;range=20" xr:uid="{86857585-D324-403C-80CC-DA824834C252}"/>
-    <hyperlink ref="B786" r:id="rId85" tooltip="สถิติหวยออก เดือนสิบเอ็ด" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%9a%e0%b9%80%e0%b8%ad%e0%b9%87%e0%b8%94.aspx?mode=month-lunar&amp;value=11&amp;range=20" xr:uid="{4765FB64-5266-423C-BB4C-8C5812075857}"/>
-    <hyperlink ref="B787" r:id="rId86" tooltip="สถิติหวยออก เดือนสิบสอง" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%9a%e0%b8%aa%e0%b8%ad%e0%b8%87.aspx?mode=month-lunar&amp;value=12&amp;range=20" xr:uid="{C8AA05F7-A271-4AB4-BA78-0F5445688716}"/>
-    <hyperlink ref="B789" r:id="rId87" tooltip="สถิติหวยออก ปีชวด" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%8a%e0%b8%a7%e0%b8%94.aspx?mode=year-lunar&amp;value=1&amp;range=20" xr:uid="{ACF29620-8FA2-47D6-B262-449A3AC4DDBF}"/>
-    <hyperlink ref="B790" r:id="rId88" tooltip="สถิติหวยออก ปีฉลู" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%89%e0%b8%a5%e0%b8%b9.aspx?mode=year-lunar&amp;value=2&amp;range=20" xr:uid="{F74A436F-F266-45DE-BDBF-86FE8035164B}"/>
-    <hyperlink ref="B791" r:id="rId89" tooltip="สถิติหวยออก ปีขาล" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%82%e0%b8%b2%e0%b8%a5.aspx?mode=year-lunar&amp;value=3&amp;range=20" xr:uid="{29B77BFF-7D91-490A-BE25-2ECC2C9E8EFA}"/>
-    <hyperlink ref="B792" r:id="rId90" tooltip="สถิติหวยออก ปีเถาะ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b9%80%e0%b8%96%e0%b8%b2%e0%b8%b0.aspx?mode=year-lunar&amp;value=4&amp;range=20" xr:uid="{CECABBE0-6840-4607-ABB4-B0A4687F81E2}"/>
-    <hyperlink ref="B793" r:id="rId91" tooltip="สถิติหวยออก ปีมะโรง" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%82%e0%b8%a3%e0%b8%87.aspx?mode=year-lunar&amp;value=5&amp;range=20" xr:uid="{A0458E95-240A-49BB-A3C2-5DA2976F08CA}"/>
-    <hyperlink ref="B794" r:id="rId92" tooltip="สถิติหวยออก ปีมะเส็ง" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%80%e0%b8%aa%e0%b9%87%e0%b8%87.aspx?mode=year-lunar&amp;value=6&amp;range=20" xr:uid="{0643637E-60C0-43AA-A7CA-33512082B8CD}"/>
-    <hyperlink ref="B795" r:id="rId93" tooltip="สถิติหวยออก ปีมะเมีย" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%80%e0%b8%a1%e0%b8%b5%e0%b8%a2.aspx?mode=year-lunar&amp;value=7&amp;range=20" xr:uid="{3F4B7542-B983-4079-AA78-1EF92D3DBA4F}"/>
-    <hyperlink ref="B796" r:id="rId94" tooltip="สถิติหวยออก ปีมะแม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%81%e0%b8%a1.aspx?mode=year-lunar&amp;value=8&amp;range=20" xr:uid="{AEE94BE9-F29B-468B-A808-B04E011CD91F}"/>
-    <hyperlink ref="B797" r:id="rId95" tooltip="สถิติหวยออก ปีวอก" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a7%e0%b8%ad%e0%b8%81.aspx?mode=year-lunar&amp;value=9&amp;range=20" xr:uid="{D75A9C5B-C4CC-4BB2-B1C3-09AE90971CD2}"/>
-    <hyperlink ref="B798" r:id="rId96" tooltip="สถิติหวยออก ปีระกา" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a3%e0%b8%b0%e0%b8%81%e0%b8%b2.aspx?mode=year-lunar&amp;value=10&amp;range=20" xr:uid="{3392887C-4C2A-4098-A92B-C8054013CA16}"/>
-    <hyperlink ref="B799" r:id="rId97" tooltip="สถิติหวยออก ปีจอ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%88%e0%b8%ad.aspx?mode=year-lunar&amp;value=11&amp;range=20" xr:uid="{58B43890-3C5B-4897-BFF7-634F4841E8CB}"/>
-    <hyperlink ref="B800" r:id="rId98" tooltip="สถิติหวยออก ปีกุน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%81%e0%b8%b8%e0%b8%99.aspx?mode=year-lunar&amp;value=12&amp;range=20" xr:uid="{AF2880A6-7FB5-4EBA-8257-535274DA0958}"/>
-    <hyperlink ref="B802" r:id="rId99" tooltip="สถิติหวย ออกปี 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2567.aspx?mode=year&amp;value=2567" xr:uid="{9B53A379-8764-49D9-A22D-755712FFEB0E}"/>
-    <hyperlink ref="B803" r:id="rId100" tooltip="สถิติหวย ออกปี 2566" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2566.aspx?mode=year&amp;value=2566" xr:uid="{6C5CFA72-75B3-4B99-A1E8-9C67CA40F300}"/>
-    <hyperlink ref="B804" r:id="rId101" tooltip="สถิติหวย ออกปี 2565" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2565.aspx?mode=year&amp;value=2565" xr:uid="{F4504ECC-1DEA-4021-A036-F136352B4DF7}"/>
-    <hyperlink ref="B805" r:id="rId102" tooltip="สถิติหวย ออกปี 2564" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2564.aspx?mode=year&amp;value=2564" xr:uid="{CF8AB44D-EC1F-47EF-9843-2F3ED565F1C2}"/>
-    <hyperlink ref="B806" r:id="rId103" tooltip="สถิติหวย ออกปี 2563" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2563.aspx?mode=year&amp;value=2563" xr:uid="{1D9B7680-FEEA-4930-B4B2-52A4F0F17D79}"/>
-    <hyperlink ref="B807" r:id="rId104" tooltip="สถิติหวย ออกปี 2562" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2562.aspx?mode=year&amp;value=2562" xr:uid="{9D2E795F-A174-47E6-8CD8-E325B846FCFD}"/>
-    <hyperlink ref="B808" r:id="rId105" tooltip="สถิติหวย ออกปี 2561" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2561.aspx?mode=year&amp;value=2561" xr:uid="{63A8877B-F5AC-4DE3-8180-0BAECA14CC2F}"/>
-    <hyperlink ref="B809" r:id="rId106" tooltip="สถิติหวย ออกปี 2560" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2560.aspx?mode=year&amp;value=2560" xr:uid="{8E5EFC19-CE0B-4CFC-A75E-8DC5666B2169}"/>
-    <hyperlink ref="B810" r:id="rId107" tooltip="สถิติหวย ออกปี 2559" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2559.aspx?mode=year&amp;value=2559" xr:uid="{FBCCF733-6473-40ED-9F15-1D76AAF65F9E}"/>
-    <hyperlink ref="B811" r:id="rId108" tooltip="สถิติหวย ออกปี 2558" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2558.aspx?mode=year&amp;value=2558" xr:uid="{D3FE54E3-7AF6-4B49-9946-329BC1F270C1}"/>
-    <hyperlink ref="B812" r:id="rId109" tooltip="สถิติหวย ออกปี 2557" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2557.aspx?mode=year&amp;value=2557" xr:uid="{65DDBFAE-AFB3-48A4-AF41-61334818BE72}"/>
-    <hyperlink ref="B813" r:id="rId110" tooltip="สถิติหวย ออกปี 2556" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2556.aspx?mode=year&amp;value=2556" xr:uid="{34EAB705-761F-4BC4-992A-925EC947A580}"/>
-    <hyperlink ref="B814" r:id="rId111" tooltip="สถิติหวย ออกปี 2555" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2555.aspx?mode=year&amp;value=2555" xr:uid="{15946B3B-417A-467D-9E07-A8C1B68C0DFA}"/>
-    <hyperlink ref="B815" r:id="rId112" tooltip="สถิติหวย ออกปี 2554" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2554.aspx?mode=year&amp;value=2554" xr:uid="{AD5DBD9D-858F-412D-B2F4-C9DEE0F00EB4}"/>
-    <hyperlink ref="B816" r:id="rId113" tooltip="สถิติหวย ออกปี 2553" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2553.aspx?mode=year&amp;value=2553" xr:uid="{8EA7DB0D-A861-483F-8480-0A8F8FD43000}"/>
-    <hyperlink ref="B817" r:id="rId114" tooltip="สถิติหวย ออกปี 2552" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2552.aspx?mode=year&amp;value=2552" xr:uid="{8D1AC6F3-80E3-4396-9763-33298FED4146}"/>
-    <hyperlink ref="B818" r:id="rId115" tooltip="สถิติหวย ออกปี 2551" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2551.aspx?mode=year&amp;value=2551" xr:uid="{A82C9BCA-6304-4361-8EEE-D5444CFF7978}"/>
-    <hyperlink ref="B819" r:id="rId116" tooltip="สถิติหวย ออกปี 2550" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2550.aspx?mode=year&amp;value=2550" xr:uid="{8F0A65BE-EE13-43B6-8E2E-8FDA9A936BD8}"/>
-    <hyperlink ref="B820" r:id="rId117" tooltip="สถิติหวย ออกปี 2549" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2549.aspx?mode=year&amp;value=2549" xr:uid="{3F8C55BA-80A5-464B-AAB1-29C0E6B2FAB5}"/>
-    <hyperlink ref="B821" r:id="rId118" tooltip="สถิติหวย ออกปี 2548" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2548.aspx?mode=year&amp;value=2548" xr:uid="{643D7DE7-97F7-4F96-81C7-9A837ED99D2E}"/>
-    <hyperlink ref="B822" r:id="rId119" tooltip="สถิติหวย ออกปี 2547" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2547.aspx?mode=year&amp;value=2547" xr:uid="{40B86BE7-1016-4491-BCD6-14DD6A61D0F8}"/>
-    <hyperlink ref="B823" r:id="rId120" tooltip="สถิติหวย ออกปี 2546" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2546.aspx?mode=year&amp;value=2546" xr:uid="{83A64352-0EB2-4ED2-95D7-9184A6BAA5D9}"/>
-    <hyperlink ref="B824" r:id="rId121" tooltip="สถิติหวย ออกปี 2545" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2545.aspx?mode=year&amp;value=2545" xr:uid="{5F49002B-C899-4220-88F0-D90ABC5476D6}"/>
-    <hyperlink ref="B825" r:id="rId122" tooltip="สถิติหวย ออกปี 2544" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2544.aspx?mode=year&amp;value=2544" xr:uid="{A195BF4F-D5AA-4A38-8032-49733D986F06}"/>
-    <hyperlink ref="B826" r:id="rId123" tooltip="สถิติหวย ออกปี 2543" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2543.aspx?mode=year&amp;value=2543" xr:uid="{0045C265-88CD-4C99-AD51-E9F9BD637D9C}"/>
-    <hyperlink ref="B827" r:id="rId124" tooltip="สถิติหวย ออกปี 2542" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2542.aspx?mode=year&amp;value=2542" xr:uid="{0A661130-C9B7-4859-B784-CB8F6058C2BA}"/>
-    <hyperlink ref="B828" r:id="rId125" tooltip="สถิติหวย ออกปี 2541" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2541.aspx?mode=year&amp;value=2541" xr:uid="{B36678E5-E12D-4BFD-82BE-D627FE76411B}"/>
-    <hyperlink ref="B829" r:id="rId126" tooltip="สถิติหวย ออกปี 2540" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2540.aspx?mode=year&amp;value=2540" xr:uid="{7EDD0CE3-A39D-427C-A7F1-AD15D8D83442}"/>
-    <hyperlink ref="B830" r:id="rId127" tooltip="สถิติหวย ออกปี 2539" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2539.aspx?mode=year&amp;value=2539" xr:uid="{932CD316-778F-4B20-8D1B-1B3B20AE963E}"/>
-    <hyperlink ref="B831" r:id="rId128" tooltip="สถิติหวย ออกปี 2538" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2538.aspx?mode=year&amp;value=2538" xr:uid="{16A1D94B-0054-429B-86CC-93C28626E959}"/>
-    <hyperlink ref="B832" r:id="rId129" tooltip="สถิติหวย ออกปี 2537" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2537.aspx?mode=year&amp;value=2537" xr:uid="{6FB07F69-9023-41D5-BA76-B82F5336EEC9}"/>
-    <hyperlink ref="B833" r:id="rId130" tooltip="สถิติหวย ออกปี 2536" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2536.aspx?mode=year&amp;value=2536" xr:uid="{D544E9D8-1EFE-49FB-9BC6-F456B5FBC820}"/>
-    <hyperlink ref="B834" r:id="rId131" tooltip="สถิติหวย ออกปี 2535" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2535.aspx?mode=year&amp;value=2535" xr:uid="{CF76FB2C-7252-4EB8-A7A1-840EBF859F3C}"/>
-    <hyperlink ref="B835" r:id="rId132" tooltip="สถิติหวย ออกปี 2534" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2534.aspx?mode=year&amp;value=2534" xr:uid="{2A4D1AD9-AC56-416E-BF13-CB9E832D386E}"/>
-    <hyperlink ref="B836" r:id="rId133" tooltip="สถิติหวย ออกปี 2533" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2533.aspx?mode=year&amp;value=2533" xr:uid="{435BDF8F-2A13-4AC4-8C42-DB5D23D5D0AE}"/>
-    <hyperlink ref="B838" r:id="rId134" tooltip="สถิติหวยย้อนหลัง  1 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-1-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=1" xr:uid="{4DC8FCB4-2B90-45C5-8A29-9162C0269EA7}"/>
-    <hyperlink ref="B839" r:id="rId135" tooltip="สถิติหวยย้อนหลัง  2 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-2-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=2" xr:uid="{1AE9524C-C93C-4363-AE72-F0FDBB4C70A7}"/>
-    <hyperlink ref="B840" r:id="rId136" tooltip="สถิติหวยย้อนหลัง  3 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-3-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=3" xr:uid="{2A86DAC2-95F9-496C-8D5A-53383936C88B}"/>
-    <hyperlink ref="B841" r:id="rId137" tooltip="สถิติหวยย้อนหลัง  4 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-4-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=4" xr:uid="{9BA4DCE4-B337-4185-8423-D06F33BD119D}"/>
-    <hyperlink ref="B842" r:id="rId138" tooltip="สถิติหวยย้อนหลัง  5 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-5-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=5" xr:uid="{179549A1-A239-460C-9729-861B7A460A4C}"/>
-    <hyperlink ref="B843" r:id="rId139" tooltip="สถิติหวยย้อนหลัง  6 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-6-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=6" xr:uid="{D522B118-B2E6-4896-BD7C-FB42812BF983}"/>
-    <hyperlink ref="B844" r:id="rId140" tooltip="สถิติหวยย้อนหลัง  7 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-7-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=7" xr:uid="{1403FE7D-4B87-4D17-8E74-837F333026FE}"/>
-    <hyperlink ref="B845" r:id="rId141" tooltip="สถิติหวยย้อนหลัง  8 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-8-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=8" xr:uid="{866D5F8E-9CC8-4C80-A876-0C3A0E2DA967}"/>
-    <hyperlink ref="B846" r:id="rId142" tooltip="สถิติหวยย้อนหลัง  9 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-9-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=9" xr:uid="{7608582F-DC2C-4F04-BD47-1B7ABA869A28}"/>
-    <hyperlink ref="B847" r:id="rId143" tooltip="สถิติหวยย้อนหลัง  10 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-10-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=10" xr:uid="{78517A7F-7AEA-46B1-BE37-534DAF3A2DEE}"/>
-    <hyperlink ref="B848" r:id="rId144" tooltip="สถิติหวยย้อนหลัง  11 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-11-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=11" xr:uid="{3881BED6-B3BF-420A-B244-8B35EE63286F}"/>
-    <hyperlink ref="B849" r:id="rId145" tooltip="สถิติหวยย้อนหลัง  12 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-12-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=12" xr:uid="{A1C29ECD-2082-4B51-969E-15B6516CBC22}"/>
-    <hyperlink ref="B850" r:id="rId146" tooltip="สถิติหวยย้อนหลัง  13 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-13-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=13" xr:uid="{0F125A36-707D-4CEC-980A-8AD68F115A31}"/>
-    <hyperlink ref="B851" r:id="rId147" tooltip="สถิติหวยย้อนหลัง  14 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-14-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=14" xr:uid="{C674603C-A6AA-4CCF-9CA3-4E6ABAD81430}"/>
-    <hyperlink ref="B852" r:id="rId148" tooltip="สถิติหวยย้อนหลัง  15 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-15-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=15" xr:uid="{91383E76-01A6-4201-BD30-D3966AA0FC9A}"/>
-    <hyperlink ref="B853" r:id="rId149" tooltip="สถิติหวยย้อนหลัง  16 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-16-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=16" xr:uid="{BDABC958-B3F0-474A-9DF3-74867AC07452}"/>
-    <hyperlink ref="B854" r:id="rId150" tooltip="สถิติหวยย้อนหลัง  17 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-17-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=17" xr:uid="{D14A6681-693C-4CD2-9CCA-0328D068C4BD}"/>
-    <hyperlink ref="B855" r:id="rId151" tooltip="สถิติหวยย้อนหลัง  18 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-18-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=18" xr:uid="{335591B6-A5DF-472A-915E-733E155C41DB}"/>
-    <hyperlink ref="B856" r:id="rId152" tooltip="สถิติหวยย้อนหลัง  19 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-19-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=19" xr:uid="{ABB7FA7F-9CE7-4324-B514-484ABDFC0C17}"/>
-    <hyperlink ref="B857" r:id="rId153" tooltip="สถิติหวยย้อนหลัง  20 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-20-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=20" xr:uid="{DA2E33A8-A55C-4C23-9CFA-655B3A686F04}"/>
-    <hyperlink ref="B858" r:id="rId154" tooltip="สถิติหวยย้อนหลัง  21 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-21-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=21" xr:uid="{EC4FE866-AF41-4286-B45A-F15C917088F8}"/>
-    <hyperlink ref="B859" r:id="rId155" tooltip="สถิติหวยย้อนหลัง  22 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-22-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=22" xr:uid="{1877C13B-6AF5-4818-AA52-7B871D791C61}"/>
-    <hyperlink ref="B860" r:id="rId156" tooltip="สถิติหวยย้อนหลัง  23 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-23-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=23" xr:uid="{41C6DD40-F11C-4C21-817C-75B7ABD2B4B0}"/>
-    <hyperlink ref="B861" r:id="rId157" tooltip="สถิติหวยย้อนหลัง  24 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-24-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=24" xr:uid="{AEF159B2-4EAF-4348-BEBA-A0A794F99A29}"/>
-    <hyperlink ref="B862" r:id="rId158" tooltip="สถิติหวยย้อนหลัง  25 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-25-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=25" xr:uid="{3C9BE2C6-416D-4656-9BC2-83D75C98B37C}"/>
-    <hyperlink ref="B863" r:id="rId159" tooltip="สถิติหวยย้อนหลัง  26 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-26-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=26" xr:uid="{8D57BBE3-090B-45BE-BB9C-4204BD5ADE93}"/>
-    <hyperlink ref="B864" r:id="rId160" tooltip="สถิติหวยย้อนหลัง  27 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-27-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=27" xr:uid="{8F3CC6BD-AB21-4296-B13F-A71D031F1870}"/>
-    <hyperlink ref="B865" r:id="rId161" tooltip="สถิติหวยย้อนหลัง  28 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-28-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=28" xr:uid="{C00246B6-EE2E-4B69-94CD-9B4569B58C6C}"/>
-    <hyperlink ref="B866" r:id="rId162" tooltip="สถิติหวยย้อนหลัง  29 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-29-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=29" xr:uid="{BABDE898-DDBA-4958-8D07-072E2A5F58B9}"/>
-    <hyperlink ref="B867" r:id="rId163" tooltip="สถิติหวยย้อนหลัง  30 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-30-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=30" xr:uid="{339344CB-BEF5-48DB-A204-E5503BE3AD1A}"/>
-    <hyperlink ref="B868" r:id="rId164" tooltip="สถิติหวยย้อนหลัง  31 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-31-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=31" xr:uid="{288B67D2-823B-4843-A79B-4FABA5AB5B1D}"/>
-    <hyperlink ref="B869" r:id="rId165" tooltip="สถิติหวยย้อนหลัง  32 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-32-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=32" xr:uid="{5E179B85-DB09-4A4B-A342-F6B2F6BC052C}"/>
-    <hyperlink ref="B870" r:id="rId166" tooltip="สถิติหวยย้อนหลัง  33 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-33-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=33" xr:uid="{5E43EE5B-29D8-4ED6-9C8A-97D50D0BD007}"/>
-    <hyperlink ref="B871" r:id="rId167" tooltip="สถิติหวยย้อนหลัง  34 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-34-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=34" xr:uid="{B50F7F56-1904-4E18-8992-2F0947BE9B44}"/>
-    <hyperlink ref="B874" r:id="rId168" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 ธันวาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%98%e0%b8%b1%e0%b8%99%e0%b8%a7%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{0C06E7CD-A5CA-48BB-973B-92A80883D218}"/>
-    <hyperlink ref="B875" r:id="rId169" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 พฤศจิกายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%9e%e0%b8%a4%e0%b8%a8%e0%b8%88%e0%b8%b4%e0%b8%81%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{A2739F14-81EE-43FB-BDA2-702B5B290297}"/>
-    <hyperlink ref="B876" r:id="rId170" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 พฤศจิกายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%9e%e0%b8%a4%e0%b8%a8%e0%b8%88%e0%b8%b4%e0%b8%81%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{16BF46C2-DA40-44C2-8505-779EA1DD2CFB}"/>
-    <hyperlink ref="B877" r:id="rId171" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 ตุลาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%95%e0%b8%b8%e0%b8%a5%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{29E38D8D-DF98-4CDB-B582-52028DE82D6A}"/>
-    <hyperlink ref="B878" r:id="rId172" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 ตุลาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%95%e0%b8%b8%e0%b8%a5%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{875434AE-1A0F-4F90-A7C3-18DEA28C43C0}"/>
-    <hyperlink ref="B879" r:id="rId173" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 กันยายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%81%e0%b8%b1%e0%b8%99%e0%b8%a2%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{4285916A-FE21-416F-9F4C-E737FAAD6193}"/>
-    <hyperlink ref="B880" r:id="rId174" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 กันยายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%81%e0%b8%b1%e0%b8%99%e0%b8%a2%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{E32AB70F-1785-4D6D-8372-79944336C798}"/>
-    <hyperlink ref="B881" r:id="rId175" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 สิงหาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%aa%e0%b8%b4%e0%b8%87%e0%b8%ab%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{20EBD9ED-17F9-4CC9-8CA2-4F73D2C26BBD}"/>
-    <hyperlink ref="B882" r:id="rId176" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 สิงหาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%aa%e0%b8%b4%e0%b8%87%e0%b8%ab%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{7D20BD47-147A-43F5-963A-50F5BE9B5500}"/>
-    <hyperlink ref="B883" r:id="rId177" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 กรกฎาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%81%e0%b8%a3%e0%b8%81%e0%b8%8e%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{3566A644-374C-4AA3-8BFE-64937449DA9D}"/>
-    <hyperlink ref="B884" r:id="rId178" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 กรกฎาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%81%e0%b8%a3%e0%b8%81%e0%b8%8e%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{637548EB-0F24-4085-B6BA-8026C6901A32}"/>
-    <hyperlink ref="B885" r:id="rId179" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 มิถุนายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%a1%e0%b8%b4%e0%b8%96%e0%b8%b8%e0%b8%99%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{95C63E1B-1F18-4BD7-9101-539E4C52106E}"/>
-    <hyperlink ref="B886" r:id="rId180" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 มิถุนายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%a1%e0%b8%b4%e0%b8%96%e0%b8%b8%e0%b8%99%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{019B7FDD-FB38-4A20-B6DF-104D8F48A6A5}"/>
-    <hyperlink ref="B887" r:id="rId181" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 พฤษภาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%9e%e0%b8%a4%e0%b8%a9%e0%b8%a0%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{8F44FDB9-3935-4ECD-B2B6-01A304F35C84}"/>
-    <hyperlink ref="B888" r:id="rId182" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 2 พฤษภาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-2-%e0%b8%9e%e0%b8%a4%e0%b8%a9%e0%b8%a0%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{F42DA8B1-81E6-47C8-98BB-605950D946AD}"/>
-    <hyperlink ref="B889" r:id="rId183" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 เมษายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b9%80%e0%b8%a1%e0%b8%a9%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{BBC584DB-50A1-4A6C-B2C3-162986EA082C}"/>
-    <hyperlink ref="B890" r:id="rId184" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 เมษายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b9%80%e0%b8%a1%e0%b8%a9%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{29E7BEE7-2725-4ADE-B698-411BBA7D1A2B}"/>
+    <hyperlink ref="B615" r:id="rId1" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2567.aspx" xr:uid="{1BF2AC39-DFCB-4048-95C6-EE50EBF87645}"/>
+    <hyperlink ref="B616" r:id="rId2" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2566" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2566.aspx" xr:uid="{C85D2E67-5717-40D0-87FD-A37C0C0AB2E5}"/>
+    <hyperlink ref="B617" r:id="rId3" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2565" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2565.aspx" xr:uid="{BDA76A0C-FC57-4AFC-B94B-362A77BB3E02}"/>
+    <hyperlink ref="B618" r:id="rId4" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2564" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2564.aspx" xr:uid="{0E5EC8AF-1EEB-4558-B26F-432F9FABB2AB}"/>
+    <hyperlink ref="B619" r:id="rId5" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2563" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2563.aspx" xr:uid="{C2DCA06D-2EE7-4514-A77D-0A2841EB0368}"/>
+    <hyperlink ref="B620" r:id="rId6" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2562" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2562.aspx" xr:uid="{C2477691-F7F4-4E7B-AA6D-7AE34A577317}"/>
+    <hyperlink ref="B621" r:id="rId7" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2561" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2561.aspx" xr:uid="{7B07FC9E-E5BA-4BEC-A985-6D2747E2B4EC}"/>
+    <hyperlink ref="B622" r:id="rId8" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2560" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2560.aspx" xr:uid="{83D791AE-9E0B-43E8-B0EA-0D615DB80696}"/>
+    <hyperlink ref="B623" r:id="rId9" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2559" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2559.aspx" xr:uid="{C26E0CF5-3785-405F-8188-6C2464A5A4A7}"/>
+    <hyperlink ref="B624" r:id="rId10" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2558" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2558.aspx" xr:uid="{AE03CEB7-1162-4717-892C-35E6A7259928}"/>
+    <hyperlink ref="B625" r:id="rId11" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2557" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2557.aspx" xr:uid="{ED03A4FA-74FA-4C8C-A3B4-FD7AB5259241}"/>
+    <hyperlink ref="B626" r:id="rId12" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2556" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2556.aspx" xr:uid="{E8C58C58-2C82-46F3-B607-947FB80E30FF}"/>
+    <hyperlink ref="B627" r:id="rId13" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2555" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2555.aspx" xr:uid="{25BA7CC0-BE51-467F-831D-C73B9B6A0594}"/>
+    <hyperlink ref="B628" r:id="rId14" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2554" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2554.aspx" xr:uid="{149C8F52-F255-4584-885C-8EED90638B9F}"/>
+    <hyperlink ref="B629" r:id="rId15" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2553" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2553.aspx" xr:uid="{59DA5639-07BD-40F3-8994-FD698E7AF958}"/>
+    <hyperlink ref="B630" r:id="rId16" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2552" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2552.aspx" xr:uid="{5C2AB19E-12DA-4F59-B581-55C3EAA7DF42}"/>
+    <hyperlink ref="B631" r:id="rId17" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2551" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2551.aspx" xr:uid="{4C4ED439-A353-4426-93EC-1184AE4B45B8}"/>
+    <hyperlink ref="B632" r:id="rId18" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2550" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2550.aspx" xr:uid="{54D6A088-DB94-4EB2-9F4D-17BA6A143FC0}"/>
+    <hyperlink ref="B633" r:id="rId19" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2549" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2549.aspx" xr:uid="{6C8B8182-5A08-48C9-8A33-874FD81251ED}"/>
+    <hyperlink ref="B634" r:id="rId20" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2548" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2548.aspx" xr:uid="{7850EC8A-06C6-45B2-A08E-F9EF03AC6ACA}"/>
+    <hyperlink ref="B635" r:id="rId21" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2547" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2547.aspx" xr:uid="{51747B5F-F0F3-4DC6-99F3-83016F7D9595}"/>
+    <hyperlink ref="B636" r:id="rId22" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2546" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2546.aspx" xr:uid="{D8E5BF45-E15F-4DF7-BF25-4558E36F1A1E}"/>
+    <hyperlink ref="B637" r:id="rId23" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2545" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2545.aspx" xr:uid="{54810C55-77A2-48A6-83A2-BB0360E201C3}"/>
+    <hyperlink ref="B638" r:id="rId24" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2544" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2544.aspx" xr:uid="{904BABC3-4319-45F4-A649-9B22DE6D25EF}"/>
+    <hyperlink ref="B639" r:id="rId25" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2543" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2543.aspx" xr:uid="{172E6104-2EE2-4E01-A505-DA88E4003422}"/>
+    <hyperlink ref="B640" r:id="rId26" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2542" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2542.aspx" xr:uid="{07E9C106-9680-4F4D-BED3-2F6DC641642B}"/>
+    <hyperlink ref="B641" r:id="rId27" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2541" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2541.aspx" xr:uid="{8ECE430F-60A8-4AE4-B27A-C3D1943F2E49}"/>
+    <hyperlink ref="B642" r:id="rId28" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2540" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2540.aspx" xr:uid="{CFCAAEBD-C012-4EB0-8FE7-A32ADDA6E242}"/>
+    <hyperlink ref="B643" r:id="rId29" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2539" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2539.aspx" xr:uid="{4CD1BA8D-710C-46D8-9835-5654E4C1BAD8}"/>
+    <hyperlink ref="B644" r:id="rId30" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2538" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2538.aspx" xr:uid="{AB761D2D-351D-42C1-A6BC-0A60EDDF5B00}"/>
+    <hyperlink ref="B645" r:id="rId31" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2537" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2537.aspx" xr:uid="{4EEB7CC1-00D8-4C6A-870D-F22CA4E62A72}"/>
+    <hyperlink ref="B646" r:id="rId32" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2536" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2536.aspx" xr:uid="{C2282A38-4C1D-468C-B3A5-138C21C46E0A}"/>
+    <hyperlink ref="B647" r:id="rId33" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2535" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2535.aspx" xr:uid="{EB8A70E1-046D-43E9-A3D4-A408EFF21484}"/>
+    <hyperlink ref="B648" r:id="rId34" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2534" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2534.aspx" xr:uid="{6E5FCDC1-349C-4B05-B3A5-A7B2DC55A6BB}"/>
+    <hyperlink ref="B649" r:id="rId35" tooltip="ตรวจหวย ตรวจสลากกินแบ่งรัฐบาล ย้อนหลัง ปี 2533" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%9b%e0%b8%b5-2533.aspx" xr:uid="{DFE373D9-8680-41A0-ABBB-20BFF2003D1D}"/>
+    <hyperlink ref="B658" r:id="rId36" tooltip="สถิติหวย ออกวันอาทิตย์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%ad%e0%b8%b2%e0%b8%97%e0%b8%b4%e0%b8%95%e0%b8%a2%e0%b9%8c.aspx?mode=day-of-week&amp;value=1&amp;range=20" xr:uid="{CCCA6E15-40CD-4D50-B0AD-37B1865848B8}"/>
+    <hyperlink ref="B659" r:id="rId37" tooltip="สถิติหวย ออกวันจันทร์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%88%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%a3%e0%b9%8c.aspx?mode=day-of-week&amp;value=2&amp;range=20" xr:uid="{FC2EC357-EF6B-4761-8CA5-4EFE803421F4}"/>
+    <hyperlink ref="B660" r:id="rId38" tooltip="สถิติหวย ออกวันอังคาร" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%ad%e0%b8%b1%e0%b8%87%e0%b8%84%e0%b8%b2%e0%b8%a3.aspx?mode=day-of-week&amp;value=3&amp;range=20" xr:uid="{675F2106-2E9E-416F-9223-3E811470D144}"/>
+    <hyperlink ref="B661" r:id="rId39" tooltip="สถิติหวย ออกวันพุธ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%9e%e0%b8%b8%e0%b8%98.aspx?mode=day-of-week&amp;value=4&amp;range=20" xr:uid="{ABC3FD60-C17D-439E-B3C5-6D4A29626EE5}"/>
+    <hyperlink ref="B662" r:id="rId40" tooltip="สถิติหวย ออกวันพฤหัสบดี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%9e%e0%b8%a4%e0%b8%ab%e0%b8%b1%e0%b8%aa%e0%b8%9a%e0%b8%94%e0%b8%b5.aspx?mode=day-of-week&amp;value=5&amp;range=20" xr:uid="{314A52A1-E447-457D-A9F0-8B969A9FFABE}"/>
+    <hyperlink ref="B663" r:id="rId41" tooltip="สถิติหวย ออกวันศุกร์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%a8%e0%b8%b8%e0%b8%81%e0%b8%a3%e0%b9%8c.aspx?mode=day-of-week&amp;value=6&amp;range=20" xr:uid="{2188211A-2A66-4986-81EB-3AAEADFB98CA}"/>
+    <hyperlink ref="B664" r:id="rId42" tooltip="สถิติหวย ออกวันเสาร์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b9%80%e0%b8%aa%e0%b8%b2%e0%b8%a3%e0%b9%8c.aspx?mode=day-of-week&amp;value=7&amp;range=20" xr:uid="{F046716B-8973-4CBB-84C3-C964896952D5}"/>
+    <hyperlink ref="B667" r:id="rId43" tooltip="สถิติหวยออก เดือนมกราคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a1%e0%b8%81%e0%b8%a3%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=1&amp;range=20" xr:uid="{F222328A-3321-4291-ABDE-E84CA569A2C4}"/>
+    <hyperlink ref="B668" r:id="rId44" tooltip="สถิติหวยออก เดือนกุมภาพันธ์" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%81%e0%b8%b8%e0%b8%a1%e0%b8%a0%e0%b8%b2%e0%b8%9e%e0%b8%b1%e0%b8%99%e0%b8%98%e0%b9%8c.aspx?mode=month&amp;value=2&amp;range=20" xr:uid="{C4A82B98-7A21-49E1-B86D-D9C58BC37256}"/>
+    <hyperlink ref="B669" r:id="rId45" tooltip="สถิติหวยออก เดือนมีนาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a1%e0%b8%b5%e0%b8%99%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=3&amp;range=20" xr:uid="{F1506937-09BE-44DE-9AF0-BDE0F0F4C8AA}"/>
+    <hyperlink ref="B670" r:id="rId46" tooltip="สถิติหวยออก เดือนเมษายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b9%80%e0%b8%a1%e0%b8%a9%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=4&amp;range=20" xr:uid="{C41E123A-F96F-45F5-BF07-10CF0912A163}"/>
+    <hyperlink ref="B671" r:id="rId47" tooltip="สถิติหวยออก เดือนพฤษภาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%9e%e0%b8%a4%e0%b8%a9%e0%b8%a0%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=5&amp;range=20" xr:uid="{E689C038-3ECC-4164-A8A9-5B59B7D4943D}"/>
+    <hyperlink ref="B672" r:id="rId48" tooltip="สถิติหวยออก เดือนมิถุนายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a1%e0%b8%b4%e0%b8%96%e0%b8%b8%e0%b8%99%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=6&amp;range=20" xr:uid="{3B9330C6-B9BF-4964-8744-259645027C24}"/>
+    <hyperlink ref="B673" r:id="rId49" tooltip="สถิติหวยออก เดือนกรกฎาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%81%e0%b8%a3%e0%b8%81%e0%b8%8e%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=7&amp;range=20" xr:uid="{38629A06-33FD-4EA7-BAC7-E52A55351226}"/>
+    <hyperlink ref="B674" r:id="rId50" tooltip="สถิติหวยออก เดือนสิงหาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%87%e0%b8%ab%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=8&amp;range=20" xr:uid="{972D620E-EC74-4345-B52B-6180932C161E}"/>
+    <hyperlink ref="B675" r:id="rId51" tooltip="สถิติหวยออก เดือนกันยายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%81%e0%b8%b1%e0%b8%99%e0%b8%a2%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=9&amp;range=20" xr:uid="{A646E8DD-FD6B-4E7F-BBC3-C273A6E80432}"/>
+    <hyperlink ref="B676" r:id="rId52" tooltip="สถิติหวยออก เดือนตุลาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%95%e0%b8%b8%e0%b8%a5%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=10&amp;range=20" xr:uid="{A3792851-667E-49E9-8E08-B5143DE4F2F2}"/>
+    <hyperlink ref="B677" r:id="rId53" tooltip="สถิติหวยออก เดือนพฤศจิกายน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%9e%e0%b8%a4%e0%b8%a8%e0%b8%88%e0%b8%b4%e0%b8%81%e0%b8%b2%e0%b8%a2%e0%b8%99.aspx?mode=month&amp;value=11&amp;range=20" xr:uid="{7765B9BF-31C9-496B-8A32-474107F442B8}"/>
+    <hyperlink ref="B678" r:id="rId54" tooltip="สถิติหวยออก เดือนธันวาคม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%98%e0%b8%b1%e0%b8%99%e0%b8%a7%e0%b8%b2%e0%b8%84%e0%b8%a1.aspx?mode=month&amp;value=12&amp;range=20" xr:uid="{07E3791E-4BE4-4A52-8E9A-F1D40E307DFA}"/>
+    <hyperlink ref="B680" r:id="rId55" tooltip="สถิติหวยออก วันที่ 1" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-1.aspx?mode=day&amp;value=1&amp;range=20" xr:uid="{68FE88B6-CF83-4216-AFE0-2D53D0DCD6EF}"/>
+    <hyperlink ref="B681" r:id="rId56" tooltip="สถิติหวยออก วันที่ 16" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-16.aspx?mode=day&amp;value=16&amp;range=20" xr:uid="{343A433A-B6DB-46CE-965F-459E8978C567}"/>
+    <hyperlink ref="B682" r:id="rId57" tooltip="สถิติหวยออก วันที่ 2 พ.ค." display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-2.aspx?mode=day&amp;value=2&amp;range=20" xr:uid="{A7600552-DBD1-47E5-90C5-4E0027A307B0}"/>
+    <hyperlink ref="B683" r:id="rId58" tooltip="สถิติหวยออก วันที่ 30 ธ.ค" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%a7%e0%b8%b1%e0%b8%99%e0%b8%97%e0%b8%b5%e0%b9%88-30.aspx?mode=day&amp;value=30&amp;range=20" xr:uid="{5C7C9BC0-0DB7-4629-8780-8B0CA04C4A70}"/>
+    <hyperlink ref="B685" r:id="rId59" tooltip="สถิติหวยออก ข้างขึ้น" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%82%e0%b9%89%e0%b8%b2%e0%b8%87%e0%b8%82%e0%b8%b6%e0%b9%89%e0%b8%99.aspx?mode=day-lunar-type&amp;value=1&amp;range=20" xr:uid="{AD813C62-2C55-423A-8C36-D8A2A351FE4B}"/>
+    <hyperlink ref="B686" r:id="rId60" tooltip="สถิติหวยออก ข้างแรม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%82%e0%b9%89%e0%b8%b2%e0%b8%87%e0%b9%81%e0%b8%a3%e0%b8%a1.aspx?mode=day-lunar-type&amp;value=0&amp;range=20" xr:uid="{A1EB7E6A-3411-4EDD-9641-A21724FBF3CC}"/>
+    <hyperlink ref="B688" r:id="rId61" tooltip="สถิติหวย ออกวัน ๑ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-1-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=1&amp;range=20" xr:uid="{AD540DA6-6542-43D8-9C25-A027CB156C9D}"/>
+    <hyperlink ref="B689" r:id="rId62" tooltip="สถิติหวย ออกวัน ๒ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-2-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=2&amp;range=20" xr:uid="{99E66AC5-684B-415E-93EF-4D6A3734E44E}"/>
+    <hyperlink ref="B690" r:id="rId63" tooltip="สถิติหวย ออกวัน ๓ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-3-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=3&amp;range=20" xr:uid="{50E8A5B3-E167-4B76-9E9F-00DC3806ACCB}"/>
+    <hyperlink ref="B691" r:id="rId64" tooltip="สถิติหวย ออกวัน ๔ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-4-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=4&amp;range=20" xr:uid="{6EB2C9A9-3525-44CF-90A0-25714F292911}"/>
+    <hyperlink ref="B692" r:id="rId65" tooltip="สถิติหวย ออกวัน ๕ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-5-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=5&amp;range=20" xr:uid="{C589D33C-FBC6-44C7-9358-B94E233E01C4}"/>
+    <hyperlink ref="B693" r:id="rId66" tooltip="สถิติหวย ออกวัน ๖ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-6-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=6&amp;range=20" xr:uid="{09DEF3CF-F6EE-43BC-A296-6EB5CBB4295D}"/>
+    <hyperlink ref="B694" r:id="rId67" tooltip="สถิติหวย ออกวัน ๗ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-7-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=7&amp;range=20" xr:uid="{8AB9E74F-6BB0-4A8C-BBD8-F219CD3ABCA5}"/>
+    <hyperlink ref="B695" r:id="rId68" tooltip="สถิติหวย ออกวัน ๘ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-8-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=8&amp;range=20" xr:uid="{AB5B543D-12F9-4B2C-A056-1B6143BE19DB}"/>
+    <hyperlink ref="B696" r:id="rId69" tooltip="สถิติหวย ออกวัน ๙  ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-9-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=9&amp;range=20" xr:uid="{2F6B43B2-3427-4BAF-97E2-A095C34769EE}"/>
+    <hyperlink ref="B697" r:id="rId70" tooltip="สถิติหวย ออกวัน ๑๐ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-10-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=10&amp;range=20" xr:uid="{1582C231-DE37-4FBE-9363-6191AE6AAC5C}"/>
+    <hyperlink ref="B698" r:id="rId71" tooltip="สถิติหวย ออกวัน ๑๑ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-11-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=11&amp;range=20" xr:uid="{B2368C8C-2D19-4746-A5B1-38DB64F363B2}"/>
+    <hyperlink ref="B699" r:id="rId72" tooltip="สถิติหวย ออกวัน ๑๒ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-12-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=12&amp;range=20" xr:uid="{7DF2F3D1-8AA0-4CC2-AFC1-DADFE8986FED}"/>
+    <hyperlink ref="B700" r:id="rId73" tooltip="สถิติหวย ออกวัน ๑๓ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-13-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=13&amp;range=20" xr:uid="{55455421-54F0-4C4F-9B1A-E6875A7B77FF}"/>
+    <hyperlink ref="B701" r:id="rId74" tooltip="สถิติหวย ออกวัน ๑๔ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-14-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=14&amp;range=20" xr:uid="{480FC7A1-8E6E-46BF-9AD6-73C2CC16E1F1}"/>
+    <hyperlink ref="B702" r:id="rId75" tooltip="สถิติหวย ออกวัน ๑๕ ค่ำ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81-15-%e0%b8%84%e0%b9%88%e0%b8%b3.aspx?mode=day-lunar&amp;value=15&amp;range=20" xr:uid="{7BE77F81-3FED-44BC-941D-16214D944272}"/>
+    <hyperlink ref="B704" r:id="rId76" tooltip="สถิติหวยออก เดือนอ้าย" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%ad%e0%b9%89%e0%b8%b2%e0%b8%a2.aspx?mode=month-lunar&amp;value=1&amp;range=20" xr:uid="{2A24A6D9-7A27-4EE3-9649-CD272EFD692E}"/>
+    <hyperlink ref="B705" r:id="rId77" tooltip="สถิติหวยออก เดือนยี่" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%a2%e0%b8%b5%e0%b9%88.aspx?mode=month-lunar&amp;value=2&amp;range=20" xr:uid="{60AFE519-ABA0-4CFC-9A22-80AD7B79187F}"/>
+    <hyperlink ref="B706" r:id="rId78" tooltip="สถิติหวยออก เดือนสาม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b2%e0%b8%a1.aspx?mode=month-lunar&amp;value=3&amp;range=20" xr:uid="{6B6D0193-4F2B-4878-9764-E36F6430396B}"/>
+    <hyperlink ref="B707" r:id="rId79" tooltip="สถิติหวยออก เดือนสี่" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b5%e0%b9%88.aspx?mode=month-lunar&amp;value=4&amp;range=20" xr:uid="{CD5BE6CB-F03A-4118-B8E9-A460B2D67457}"/>
+    <hyperlink ref="B708" r:id="rId80" tooltip="สถิติหวยออก เดือนห้า" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b9%89%e0%b8%b2.aspx?mode=month-lunar&amp;value=5&amp;range=20" xr:uid="{13E7BB7A-9DBE-4F88-8BFA-7990DC317384}"/>
+    <hyperlink ref="B709" r:id="rId81" tooltip="สถิติหวยออก เดือนหก" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%81.aspx?mode=month-lunar&amp;value=6&amp;range=20" xr:uid="{1917A923-31CC-4538-8E57-2446D4E4E6BF}"/>
+    <hyperlink ref="B710" r:id="rId82" tooltip="สถิติหวยออก เดือนเจ็ด" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b9%80%e0%b8%88%e0%b9%87%e0%b8%94.aspx?mode=month-lunar&amp;value=7&amp;range=20" xr:uid="{9704D5CA-BED3-461B-8DAF-64495BCCB19D}"/>
+    <hyperlink ref="B712" r:id="rId83" tooltip="สถิติหวยออก เดือนเก้า" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b9%80%e0%b8%81%e0%b9%89%e0%b8%b2.aspx?mode=month-lunar&amp;value=9&amp;range=20" xr:uid="{5E30F389-0CC3-4C13-809D-E67F7156731C}"/>
+    <hyperlink ref="B713" r:id="rId84" tooltip="สถิติหวยออก เดือนสิบ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%9a.aspx?mode=month-lunar&amp;value=10&amp;range=20" xr:uid="{86857585-D324-403C-80CC-DA824834C252}"/>
+    <hyperlink ref="B714" r:id="rId85" tooltip="สถิติหวยออก เดือนสิบเอ็ด" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%9a%e0%b9%80%e0%b8%ad%e0%b9%87%e0%b8%94.aspx?mode=month-lunar&amp;value=11&amp;range=20" xr:uid="{4765FB64-5266-423C-BB4C-8C5812075857}"/>
+    <hyperlink ref="B715" r:id="rId86" tooltip="สถิติหวยออก เดือนสิบสอง" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b9%80%e0%b8%94%e0%b8%b7%e0%b8%ad%e0%b8%99%e0%b8%aa%e0%b8%b4%e0%b8%9a%e0%b8%aa%e0%b8%ad%e0%b8%87.aspx?mode=month-lunar&amp;value=12&amp;range=20" xr:uid="{C8AA05F7-A271-4AB4-BA78-0F5445688716}"/>
+    <hyperlink ref="B717" r:id="rId87" tooltip="สถิติหวยออก ปีชวด" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%8a%e0%b8%a7%e0%b8%94.aspx?mode=year-lunar&amp;value=1&amp;range=20" xr:uid="{ACF29620-8FA2-47D6-B262-449A3AC4DDBF}"/>
+    <hyperlink ref="B718" r:id="rId88" tooltip="สถิติหวยออก ปีฉลู" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%89%e0%b8%a5%e0%b8%b9.aspx?mode=year-lunar&amp;value=2&amp;range=20" xr:uid="{F74A436F-F266-45DE-BDBF-86FE8035164B}"/>
+    <hyperlink ref="B719" r:id="rId89" tooltip="สถิติหวยออก ปีขาล" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%82%e0%b8%b2%e0%b8%a5.aspx?mode=year-lunar&amp;value=3&amp;range=20" xr:uid="{29B77BFF-7D91-490A-BE25-2ECC2C9E8EFA}"/>
+    <hyperlink ref="B720" r:id="rId90" tooltip="สถิติหวยออก ปีเถาะ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b9%80%e0%b8%96%e0%b8%b2%e0%b8%b0.aspx?mode=year-lunar&amp;value=4&amp;range=20" xr:uid="{CECABBE0-6840-4607-ABB4-B0A4687F81E2}"/>
+    <hyperlink ref="B721" r:id="rId91" tooltip="สถิติหวยออก ปีมะโรง" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%82%e0%b8%a3%e0%b8%87.aspx?mode=year-lunar&amp;value=5&amp;range=20" xr:uid="{A0458E95-240A-49BB-A3C2-5DA2976F08CA}"/>
+    <hyperlink ref="B722" r:id="rId92" tooltip="สถิติหวยออก ปีมะเส็ง" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%80%e0%b8%aa%e0%b9%87%e0%b8%87.aspx?mode=year-lunar&amp;value=6&amp;range=20" xr:uid="{0643637E-60C0-43AA-A7CA-33512082B8CD}"/>
+    <hyperlink ref="B723" r:id="rId93" tooltip="สถิติหวยออก ปีมะเมีย" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%80%e0%b8%a1%e0%b8%b5%e0%b8%a2.aspx?mode=year-lunar&amp;value=7&amp;range=20" xr:uid="{3F4B7542-B983-4079-AA78-1EF92D3DBA4F}"/>
+    <hyperlink ref="B724" r:id="rId94" tooltip="สถิติหวยออก ปีมะแม" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a1%e0%b8%b0%e0%b9%81%e0%b8%a1.aspx?mode=year-lunar&amp;value=8&amp;range=20" xr:uid="{AEE94BE9-F29B-468B-A808-B04E011CD91F}"/>
+    <hyperlink ref="B725" r:id="rId95" tooltip="สถิติหวยออก ปีวอก" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a7%e0%b8%ad%e0%b8%81.aspx?mode=year-lunar&amp;value=9&amp;range=20" xr:uid="{D75A9C5B-C4CC-4BB2-B1C3-09AE90971CD2}"/>
+    <hyperlink ref="B726" r:id="rId96" tooltip="สถิติหวยออก ปีระกา" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%a3%e0%b8%b0%e0%b8%81%e0%b8%b2.aspx?mode=year-lunar&amp;value=10&amp;range=20" xr:uid="{3392887C-4C2A-4098-A92B-C8054013CA16}"/>
+    <hyperlink ref="B727" r:id="rId97" tooltip="สถิติหวยออก ปีจอ" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%88%e0%b8%ad.aspx?mode=year-lunar&amp;value=11&amp;range=20" xr:uid="{58B43890-3C5B-4897-BFF7-634F4841E8CB}"/>
+    <hyperlink ref="B728" r:id="rId98" tooltip="สถิติหวยออก ปีกุน" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%ad%e0%b8%ad%e0%b8%81%e0%b8%9b%e0%b8%b5%e0%b8%81%e0%b8%b8%e0%b8%99.aspx?mode=year-lunar&amp;value=12&amp;range=20" xr:uid="{AF2880A6-7FB5-4EBA-8257-535274DA0958}"/>
+    <hyperlink ref="B730" r:id="rId99" tooltip="สถิติหวย ออกปี 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2567.aspx?mode=year&amp;value=2567" xr:uid="{9B53A379-8764-49D9-A22D-755712FFEB0E}"/>
+    <hyperlink ref="B731" r:id="rId100" tooltip="สถิติหวย ออกปี 2566" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2566.aspx?mode=year&amp;value=2566" xr:uid="{6C5CFA72-75B3-4B99-A1E8-9C67CA40F300}"/>
+    <hyperlink ref="B732" r:id="rId101" tooltip="สถิติหวย ออกปี 2565" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2565.aspx?mode=year&amp;value=2565" xr:uid="{F4504ECC-1DEA-4021-A036-F136352B4DF7}"/>
+    <hyperlink ref="B733" r:id="rId102" tooltip="สถิติหวย ออกปี 2564" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2564.aspx?mode=year&amp;value=2564" xr:uid="{CF8AB44D-EC1F-47EF-9843-2F3ED565F1C2}"/>
+    <hyperlink ref="B734" r:id="rId103" tooltip="สถิติหวย ออกปี 2563" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2563.aspx?mode=year&amp;value=2563" xr:uid="{1D9B7680-FEEA-4930-B4B2-52A4F0F17D79}"/>
+    <hyperlink ref="B735" r:id="rId104" tooltip="สถิติหวย ออกปี 2562" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2562.aspx?mode=year&amp;value=2562" xr:uid="{9D2E795F-A174-47E6-8CD8-E325B846FCFD}"/>
+    <hyperlink ref="B736" r:id="rId105" tooltip="สถิติหวย ออกปี 2561" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2561.aspx?mode=year&amp;value=2561" xr:uid="{63A8877B-F5AC-4DE3-8180-0BAECA14CC2F}"/>
+    <hyperlink ref="B737" r:id="rId106" tooltip="สถิติหวย ออกปี 2560" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2560.aspx?mode=year&amp;value=2560" xr:uid="{8E5EFC19-CE0B-4CFC-A75E-8DC5666B2169}"/>
+    <hyperlink ref="B738" r:id="rId107" tooltip="สถิติหวย ออกปี 2559" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2559.aspx?mode=year&amp;value=2559" xr:uid="{FBCCF733-6473-40ED-9F15-1D76AAF65F9E}"/>
+    <hyperlink ref="B739" r:id="rId108" tooltip="สถิติหวย ออกปี 2558" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2558.aspx?mode=year&amp;value=2558" xr:uid="{D3FE54E3-7AF6-4B49-9946-329BC1F270C1}"/>
+    <hyperlink ref="B740" r:id="rId109" tooltip="สถิติหวย ออกปี 2557" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2557.aspx?mode=year&amp;value=2557" xr:uid="{65DDBFAE-AFB3-48A4-AF41-61334818BE72}"/>
+    <hyperlink ref="B741" r:id="rId110" tooltip="สถิติหวย ออกปี 2556" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2556.aspx?mode=year&amp;value=2556" xr:uid="{34EAB705-761F-4BC4-992A-925EC947A580}"/>
+    <hyperlink ref="B742" r:id="rId111" tooltip="สถิติหวย ออกปี 2555" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2555.aspx?mode=year&amp;value=2555" xr:uid="{15946B3B-417A-467D-9E07-A8C1B68C0DFA}"/>
+    <hyperlink ref="B743" r:id="rId112" tooltip="สถิติหวย ออกปี 2554" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2554.aspx?mode=year&amp;value=2554" xr:uid="{AD5DBD9D-858F-412D-B2F4-C9DEE0F00EB4}"/>
+    <hyperlink ref="B744" r:id="rId113" tooltip="สถิติหวย ออกปี 2553" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2553.aspx?mode=year&amp;value=2553" xr:uid="{8EA7DB0D-A861-483F-8480-0A8F8FD43000}"/>
+    <hyperlink ref="B745" r:id="rId114" tooltip="สถิติหวย ออกปี 2552" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2552.aspx?mode=year&amp;value=2552" xr:uid="{8D1AC6F3-80E3-4396-9763-33298FED4146}"/>
+    <hyperlink ref="B746" r:id="rId115" tooltip="สถิติหวย ออกปี 2551" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2551.aspx?mode=year&amp;value=2551" xr:uid="{A82C9BCA-6304-4361-8EEE-D5444CFF7978}"/>
+    <hyperlink ref="B747" r:id="rId116" tooltip="สถิติหวย ออกปี 2550" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2550.aspx?mode=year&amp;value=2550" xr:uid="{8F0A65BE-EE13-43B6-8E2E-8FDA9A936BD8}"/>
+    <hyperlink ref="B748" r:id="rId117" tooltip="สถิติหวย ออกปี 2549" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2549.aspx?mode=year&amp;value=2549" xr:uid="{3F8C55BA-80A5-464B-AAB1-29C0E6B2FAB5}"/>
+    <hyperlink ref="B749" r:id="rId118" tooltip="สถิติหวย ออกปี 2548" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2548.aspx?mode=year&amp;value=2548" xr:uid="{643D7DE7-97F7-4F96-81C7-9A837ED99D2E}"/>
+    <hyperlink ref="B750" r:id="rId119" tooltip="สถิติหวย ออกปี 2547" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2547.aspx?mode=year&amp;value=2547" xr:uid="{40B86BE7-1016-4491-BCD6-14DD6A61D0F8}"/>
+    <hyperlink ref="B751" r:id="rId120" tooltip="สถิติหวย ออกปี 2546" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2546.aspx?mode=year&amp;value=2546" xr:uid="{83A64352-0EB2-4ED2-95D7-9184A6BAA5D9}"/>
+    <hyperlink ref="B752" r:id="rId121" tooltip="สถิติหวย ออกปี 2545" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2545.aspx?mode=year&amp;value=2545" xr:uid="{5F49002B-C899-4220-88F0-D90ABC5476D6}"/>
+    <hyperlink ref="B753" r:id="rId122" tooltip="สถิติหวย ออกปี 2544" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2544.aspx?mode=year&amp;value=2544" xr:uid="{A195BF4F-D5AA-4A38-8032-49733D986F06}"/>
+    <hyperlink ref="B754" r:id="rId123" tooltip="สถิติหวย ออกปี 2543" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2543.aspx?mode=year&amp;value=2543" xr:uid="{0045C265-88CD-4C99-AD51-E9F9BD637D9C}"/>
+    <hyperlink ref="B755" r:id="rId124" tooltip="สถิติหวย ออกปี 2542" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2542.aspx?mode=year&amp;value=2542" xr:uid="{0A661130-C9B7-4859-B784-CB8F6058C2BA}"/>
+    <hyperlink ref="B756" r:id="rId125" tooltip="สถิติหวย ออกปี 2541" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2541.aspx?mode=year&amp;value=2541" xr:uid="{B36678E5-E12D-4BFD-82BE-D627FE76411B}"/>
+    <hyperlink ref="B757" r:id="rId126" tooltip="สถิติหวย ออกปี 2540" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2540.aspx?mode=year&amp;value=2540" xr:uid="{7EDD0CE3-A39D-427C-A7F1-AD15D8D83442}"/>
+    <hyperlink ref="B758" r:id="rId127" tooltip="สถิติหวย ออกปี 2539" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2539.aspx?mode=year&amp;value=2539" xr:uid="{932CD316-778F-4B20-8D1B-1B3B20AE963E}"/>
+    <hyperlink ref="B759" r:id="rId128" tooltip="สถิติหวย ออกปี 2538" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2538.aspx?mode=year&amp;value=2538" xr:uid="{16A1D94B-0054-429B-86CC-93C28626E959}"/>
+    <hyperlink ref="B760" r:id="rId129" tooltip="สถิติหวย ออกปี 2537" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2537.aspx?mode=year&amp;value=2537" xr:uid="{6FB07F69-9023-41D5-BA76-B82F5336EEC9}"/>
+    <hyperlink ref="B761" r:id="rId130" tooltip="สถิติหวย ออกปี 2536" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2536.aspx?mode=year&amp;value=2536" xr:uid="{D544E9D8-1EFE-49FB-9BC6-F456B5FBC820}"/>
+    <hyperlink ref="B762" r:id="rId131" tooltip="สถิติหวย ออกปี 2535" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2535.aspx?mode=year&amp;value=2535" xr:uid="{CF76FB2C-7252-4EB8-A7A1-840EBF859F3C}"/>
+    <hyperlink ref="B763" r:id="rId132" tooltip="สถิติหวย ออกปี 2534" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2534.aspx?mode=year&amp;value=2534" xr:uid="{2A4D1AD9-AC56-416E-BF13-CB9E832D386E}"/>
+    <hyperlink ref="B764" r:id="rId133" tooltip="สถิติหวย ออกปี 2533" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%9b%e0%b8%b5-2533.aspx?mode=year&amp;value=2533" xr:uid="{435BDF8F-2A13-4AC4-8C42-DB5D23D5D0AE}"/>
+    <hyperlink ref="B766" r:id="rId134" tooltip="สถิติหวยย้อนหลัง  1 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-1-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=1" xr:uid="{4DC8FCB4-2B90-45C5-8A29-9162C0269EA7}"/>
+    <hyperlink ref="B767" r:id="rId135" tooltip="สถิติหวยย้อนหลัง  2 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-2-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=2" xr:uid="{1AE9524C-C93C-4363-AE72-F0FDBB4C70A7}"/>
+    <hyperlink ref="B768" r:id="rId136" tooltip="สถิติหวยย้อนหลัง  3 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-3-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=3" xr:uid="{2A86DAC2-95F9-496C-8D5A-53383936C88B}"/>
+    <hyperlink ref="B769" r:id="rId137" tooltip="สถิติหวยย้อนหลัง  4 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-4-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=4" xr:uid="{9BA4DCE4-B337-4185-8423-D06F33BD119D}"/>
+    <hyperlink ref="B770" r:id="rId138" tooltip="สถิติหวยย้อนหลัง  5 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-5-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=5" xr:uid="{179549A1-A239-460C-9729-861B7A460A4C}"/>
+    <hyperlink ref="B771" r:id="rId139" tooltip="สถิติหวยย้อนหลัง  6 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-6-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=6" xr:uid="{D522B118-B2E6-4896-BD7C-FB42812BF983}"/>
+    <hyperlink ref="B772" r:id="rId140" tooltip="สถิติหวยย้อนหลัง  7 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-7-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=7" xr:uid="{1403FE7D-4B87-4D17-8E74-837F333026FE}"/>
+    <hyperlink ref="B773" r:id="rId141" tooltip="สถิติหวยย้อนหลัง  8 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-8-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=8" xr:uid="{866D5F8E-9CC8-4C80-A876-0C3A0E2DA967}"/>
+    <hyperlink ref="B774" r:id="rId142" tooltip="สถิติหวยย้อนหลัง  9 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-9-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=9" xr:uid="{7608582F-DC2C-4F04-BD47-1B7ABA869A28}"/>
+    <hyperlink ref="B775" r:id="rId143" tooltip="สถิติหวยย้อนหลัง  10 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-10-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=10" xr:uid="{78517A7F-7AEA-46B1-BE37-534DAF3A2DEE}"/>
+    <hyperlink ref="B776" r:id="rId144" tooltip="สถิติหวยย้อนหลัง  11 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-11-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=11" xr:uid="{3881BED6-B3BF-420A-B244-8B35EE63286F}"/>
+    <hyperlink ref="B777" r:id="rId145" tooltip="สถิติหวยย้อนหลัง  12 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-12-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=12" xr:uid="{A1C29ECD-2082-4B51-969E-15B6516CBC22}"/>
+    <hyperlink ref="B778" r:id="rId146" tooltip="สถิติหวยย้อนหลัง  13 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-13-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=13" xr:uid="{0F125A36-707D-4CEC-980A-8AD68F115A31}"/>
+    <hyperlink ref="B779" r:id="rId147" tooltip="สถิติหวยย้อนหลัง  14 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-14-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=14" xr:uid="{C674603C-A6AA-4CCF-9CA3-4E6ABAD81430}"/>
+    <hyperlink ref="B780" r:id="rId148" tooltip="สถิติหวยย้อนหลัง  15 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-15-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=15" xr:uid="{91383E76-01A6-4201-BD30-D3966AA0FC9A}"/>
+    <hyperlink ref="B781" r:id="rId149" tooltip="สถิติหวยย้อนหลัง  16 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-16-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=16" xr:uid="{BDABC958-B3F0-474A-9DF3-74867AC07452}"/>
+    <hyperlink ref="B782" r:id="rId150" tooltip="สถิติหวยย้อนหลัง  17 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-17-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=17" xr:uid="{D14A6681-693C-4CD2-9CCA-0328D068C4BD}"/>
+    <hyperlink ref="B783" r:id="rId151" tooltip="สถิติหวยย้อนหลัง  18 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-18-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=18" xr:uid="{335591B6-A5DF-472A-915E-733E155C41DB}"/>
+    <hyperlink ref="B784" r:id="rId152" tooltip="สถิติหวยย้อนหลัง  19 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-19-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=19" xr:uid="{ABB7FA7F-9CE7-4324-B514-484ABDFC0C17}"/>
+    <hyperlink ref="B785" r:id="rId153" tooltip="สถิติหวยย้อนหลัง  20 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-20-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=20" xr:uid="{DA2E33A8-A55C-4C23-9CFA-655B3A686F04}"/>
+    <hyperlink ref="B786" r:id="rId154" tooltip="สถิติหวยย้อนหลัง  21 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-21-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=21" xr:uid="{EC4FE866-AF41-4286-B45A-F15C917088F8}"/>
+    <hyperlink ref="B787" r:id="rId155" tooltip="สถิติหวยย้อนหลัง  22 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-22-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=22" xr:uid="{1877C13B-6AF5-4818-AA52-7B871D791C61}"/>
+    <hyperlink ref="B788" r:id="rId156" tooltip="สถิติหวยย้อนหลัง  23 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-23-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=23" xr:uid="{41C6DD40-F11C-4C21-817C-75B7ABD2B4B0}"/>
+    <hyperlink ref="B789" r:id="rId157" tooltip="สถิติหวยย้อนหลัง  24 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-24-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=24" xr:uid="{AEF159B2-4EAF-4348-BEBA-A0A794F99A29}"/>
+    <hyperlink ref="B790" r:id="rId158" tooltip="สถิติหวยย้อนหลัง  25 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-25-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=25" xr:uid="{3C9BE2C6-416D-4656-9BC2-83D75C98B37C}"/>
+    <hyperlink ref="B791" r:id="rId159" tooltip="สถิติหวยย้อนหลัง  26 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-26-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=26" xr:uid="{8D57BBE3-090B-45BE-BB9C-4204BD5ADE93}"/>
+    <hyperlink ref="B792" r:id="rId160" tooltip="สถิติหวยย้อนหลัง  27 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-27-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=27" xr:uid="{8F3CC6BD-AB21-4296-B13F-A71D031F1870}"/>
+    <hyperlink ref="B793" r:id="rId161" tooltip="สถิติหวยย้อนหลัง  28 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-28-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=28" xr:uid="{C00246B6-EE2E-4B69-94CD-9B4569B58C6C}"/>
+    <hyperlink ref="B794" r:id="rId162" tooltip="สถิติหวยย้อนหลัง  29 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-29-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=29" xr:uid="{BABDE898-DDBA-4958-8D07-072E2A5F58B9}"/>
+    <hyperlink ref="B795" r:id="rId163" tooltip="สถิติหวยย้อนหลัง  30 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-30-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=30" xr:uid="{339344CB-BEF5-48DB-A204-E5503BE3AD1A}"/>
+    <hyperlink ref="B796" r:id="rId164" tooltip="สถิติหวยย้อนหลัง  31 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-31-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=31" xr:uid="{288B67D2-823B-4843-A79B-4FABA5AB5B1D}"/>
+    <hyperlink ref="B797" r:id="rId165" tooltip="สถิติหวยย้อนหลัง  32 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-32-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=32" xr:uid="{5E179B85-DB09-4A4B-A342-F6B2F6BC052C}"/>
+    <hyperlink ref="B798" r:id="rId166" tooltip="สถิติหวยย้อนหลัง  33 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-33-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=33" xr:uid="{5E43EE5B-29D8-4ED6-9C8A-97D50D0BD007}"/>
+    <hyperlink ref="B799" r:id="rId167" tooltip="สถิติหวยย้อนหลัง  34 ปี" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%aa%e0%b8%96%e0%b8%b4%e0%b8%95%e0%b8%b4%e0%b8%ab%e0%b8%a7%e0%b8%a2-%e0%b8%a2%e0%b9%89%e0%b8%ad%e0%b8%99%e0%b8%ab%e0%b8%a5%e0%b8%b1%e0%b8%87-34-%e0%b8%9b%e0%b8%b5.aspx?mode=year-range&amp;value=34" xr:uid="{B50F7F56-1904-4E18-8992-2F0947BE9B44}"/>
+    <hyperlink ref="B802" r:id="rId168" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 ธันวาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%98%e0%b8%b1%e0%b8%99%e0%b8%a7%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{0C06E7CD-A5CA-48BB-973B-92A80883D218}"/>
+    <hyperlink ref="B803" r:id="rId169" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 พฤศจิกายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%9e%e0%b8%a4%e0%b8%a8%e0%b8%88%e0%b8%b4%e0%b8%81%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{A2739F14-81EE-43FB-BDA2-702B5B290297}"/>
+    <hyperlink ref="B804" r:id="rId170" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 พฤศจิกายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%9e%e0%b8%a4%e0%b8%a8%e0%b8%88%e0%b8%b4%e0%b8%81%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{16BF46C2-DA40-44C2-8505-779EA1DD2CFB}"/>
+    <hyperlink ref="B805" r:id="rId171" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 ตุลาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%95%e0%b8%b8%e0%b8%a5%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{29E38D8D-DF98-4CDB-B582-52028DE82D6A}"/>
+    <hyperlink ref="B806" r:id="rId172" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 ตุลาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%95%e0%b8%b8%e0%b8%a5%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{875434AE-1A0F-4F90-A7C3-18DEA28C43C0}"/>
+    <hyperlink ref="B807" r:id="rId173" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 กันยายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%81%e0%b8%b1%e0%b8%99%e0%b8%a2%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{4285916A-FE21-416F-9F4C-E737FAAD6193}"/>
+    <hyperlink ref="B808" r:id="rId174" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 กันยายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%81%e0%b8%b1%e0%b8%99%e0%b8%a2%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{E32AB70F-1785-4D6D-8372-79944336C798}"/>
+    <hyperlink ref="B809" r:id="rId175" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 สิงหาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%aa%e0%b8%b4%e0%b8%87%e0%b8%ab%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{20EBD9ED-17F9-4CC9-8CA2-4F73D2C26BBD}"/>
+    <hyperlink ref="B810" r:id="rId176" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 สิงหาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%aa%e0%b8%b4%e0%b8%87%e0%b8%ab%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{7D20BD47-147A-43F5-963A-50F5BE9B5500}"/>
+    <hyperlink ref="B811" r:id="rId177" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 กรกฎาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%81%e0%b8%a3%e0%b8%81%e0%b8%8e%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{3566A644-374C-4AA3-8BFE-64937449DA9D}"/>
+    <hyperlink ref="B812" r:id="rId178" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 กรกฎาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%81%e0%b8%a3%e0%b8%81%e0%b8%8e%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{637548EB-0F24-4085-B6BA-8026C6901A32}"/>
+    <hyperlink ref="B813" r:id="rId179" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 มิถุนายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%a1%e0%b8%b4%e0%b8%96%e0%b8%b8%e0%b8%99%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{95C63E1B-1F18-4BD7-9101-539E4C52106E}"/>
+    <hyperlink ref="B814" r:id="rId180" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 มิถุนายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b8%a1%e0%b8%b4%e0%b8%96%e0%b8%b8%e0%b8%99%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{019B7FDD-FB38-4A20-B6DF-104D8F48A6A5}"/>
+    <hyperlink ref="B815" r:id="rId181" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 พฤษภาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b8%9e%e0%b8%a4%e0%b8%a9%e0%b8%a0%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{8F44FDB9-3935-4ECD-B2B6-01A304F35C84}"/>
+    <hyperlink ref="B816" r:id="rId182" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 2 พฤษภาคม 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-2-%e0%b8%9e%e0%b8%a4%e0%b8%a9%e0%b8%a0%e0%b8%b2%e0%b8%84%e0%b8%a1-2567.aspx" xr:uid="{F42DA8B1-81E6-47C8-98BB-605950D946AD}"/>
+    <hyperlink ref="B817" r:id="rId183" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 16 เมษายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-16-%e0%b9%80%e0%b8%a1%e0%b8%a9%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{BBC584DB-50A1-4A6C-B2C3-162986EA082C}"/>
+    <hyperlink ref="B818" r:id="rId184" tooltip="ตรวจหวย สลากกินแบ่งรัฐบาล ลอตเตอรี่ หวย งวดวันที่ 1 เมษายน 2567" display="https://www.myhora.com/%E0%B8%AB%E0%B8%A7%E0%B8%A2/%e0%b8%87%e0%b8%a7%e0%b8%94-1-%e0%b9%80%e0%b8%a1%e0%b8%a9%e0%b8%b2%e0%b8%a2%e0%b8%99-2567.aspx" xr:uid="{29E7BEE7-2725-4ADE-B698-411BBA7D1A2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId185"/>
@@ -14455,14 +14233,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>702</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>632</xdr:row>
+                <xdr:rowOff>177800</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>31750</xdr:colOff>
-                <xdr:row>703</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>438150</xdr:colOff>
+                <xdr:row>634</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14480,14 +14258,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>710</xdr:row>
-                <xdr:rowOff>101600</xdr:rowOff>
+                <xdr:row>641</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>2089150</xdr:colOff>
-                <xdr:row>711</xdr:row>
-                <xdr:rowOff>177800</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>215900</xdr:colOff>
+                <xdr:row>642</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14505,14 +14283,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>711</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:row>642</xdr:row>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>711200</xdr:colOff>
-                <xdr:row>713</xdr:row>
-                <xdr:rowOff>82550</xdr:rowOff>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>644</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -14527,477 +14305,2684 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A494B51F-0A14-4C13-A382-770DEBD288D8}">
-  <dimension ref="B3:B91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D43F6B-9D11-48BB-95AA-B69E53EE938F}">
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A241" sqref="A1:C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="20" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="1" max="16384" width="31.54296875" style="40"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="38">
+        <v>45627</v>
+      </c>
+      <c r="B1" s="36">
+        <v>61</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="38">
+        <v>45612</v>
+      </c>
+      <c r="B2" s="36">
+        <v>38</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="38">
+        <v>45597</v>
+      </c>
+      <c r="B3" s="36">
+        <v>32</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="38">
+        <v>45581</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="38">
+        <v>45566</v>
+      </c>
+      <c r="B5" s="36">
+        <v>59</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="38">
+        <v>45551</v>
+      </c>
+      <c r="B6" s="36">
+        <v>37</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="38">
+        <v>45536</v>
+      </c>
+      <c r="B7" s="36">
+        <v>94</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="38">
+        <v>45520</v>
+      </c>
+      <c r="B8" s="36">
+        <v>28</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="38">
+        <v>45505</v>
+      </c>
+      <c r="B9" s="36">
+        <v>46</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="38">
+        <v>45489</v>
+      </c>
+      <c r="B10" s="36">
+        <v>21</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="38">
+        <v>45474</v>
+      </c>
+      <c r="B11" s="36">
+        <v>89</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="38">
+        <v>45459</v>
+      </c>
+      <c r="B12" s="36">
+        <v>31</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="38">
+        <v>45444</v>
+      </c>
+      <c r="B13" s="36">
+        <v>42</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="38">
+        <v>45428</v>
+      </c>
+      <c r="B14" s="36">
+        <v>60</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="38">
+        <v>45414</v>
+      </c>
+      <c r="B15" s="36">
+        <v>17</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="38">
+        <v>45398</v>
+      </c>
+      <c r="B16" s="36">
+        <v>79</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="38">
+        <v>45383</v>
+      </c>
+      <c r="B17" s="36">
+        <v>90</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="38">
+        <v>45367</v>
+      </c>
+      <c r="B18" s="36">
+        <v>78</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="38">
+        <v>45352</v>
+      </c>
+      <c r="B19" s="36">
+        <v>79</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="38">
+        <v>45338</v>
+      </c>
+      <c r="B20" s="36">
+        <v>43</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="38">
+        <v>45323</v>
+      </c>
+      <c r="B21" s="36">
+        <v>9</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="38">
+        <v>45308</v>
+      </c>
+      <c r="B22" s="36">
+        <v>61</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="38">
+        <v>45290</v>
+      </c>
+      <c r="B23" s="36">
+        <v>89</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="38">
+        <v>45276</v>
+      </c>
+      <c r="B24" s="36">
+        <v>85</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="38">
+        <v>45261</v>
+      </c>
+      <c r="B25" s="36">
+        <v>91</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="38">
+        <v>45246</v>
+      </c>
+      <c r="B26" s="36">
+        <v>14</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="38">
+        <v>45231</v>
+      </c>
+      <c r="B27" s="36">
+        <v>63</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="38">
+        <v>45215</v>
+      </c>
+      <c r="B28" s="36">
+        <v>44</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="38">
+        <v>45200</v>
+      </c>
+      <c r="B29" s="36">
+        <v>66</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="38">
+        <v>45185</v>
+      </c>
+      <c r="B30" s="36">
+        <v>46</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="38">
+        <v>45170</v>
+      </c>
+      <c r="B31" s="36">
+        <v>91</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="38">
+        <v>45154</v>
+      </c>
+      <c r="B32" s="36">
+        <v>67</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="38">
+        <v>45138</v>
+      </c>
+      <c r="B33" s="36">
+        <v>11</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="38">
+        <v>45123</v>
+      </c>
+      <c r="B34" s="36">
+        <v>62</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="38">
+        <v>45108</v>
+      </c>
+      <c r="B35" s="36">
+        <v>16</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="38">
+        <v>45093</v>
+      </c>
+      <c r="B36" s="36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="38">
+        <v>45078</v>
+      </c>
+      <c r="B37" s="36">
+        <v>9</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="38">
+        <v>45061</v>
+      </c>
+      <c r="B38" s="36">
+        <v>99</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="38">
+        <v>45048</v>
+      </c>
+      <c r="B39" s="36">
+        <v>65</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="38">
+        <v>45032</v>
+      </c>
+      <c r="B40" s="36">
+        <v>71</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="38">
+        <v>45017</v>
+      </c>
+      <c r="B41" s="36">
+        <v>99</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="38">
+        <v>45001</v>
+      </c>
+      <c r="B42" s="36">
+        <v>73</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="38">
+        <v>44986</v>
+      </c>
+      <c r="B43" s="36">
+        <v>55</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="38">
+        <v>44973</v>
+      </c>
+      <c r="B44" s="36">
+        <v>80</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="38">
+        <v>44958</v>
+      </c>
+      <c r="B45" s="36">
+        <v>92</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="38">
+        <v>44943</v>
+      </c>
+      <c r="B46" s="36">
+        <v>47</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="38">
+        <v>44925</v>
+      </c>
+      <c r="B47" s="36">
+        <v>58</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="38">
+        <v>44911</v>
+      </c>
+      <c r="B48" s="36">
+        <v>14</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="38">
+        <v>44896</v>
+      </c>
+      <c r="B49" s="36">
+        <v>8</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="38">
+        <v>44881</v>
+      </c>
+      <c r="B50" s="36">
+        <v>64</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="38">
+        <v>44866</v>
+      </c>
+      <c r="B51" s="36">
+        <v>70</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="38">
+        <v>44850</v>
+      </c>
+      <c r="B52" s="36">
+        <v>15</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="38">
+        <v>44835</v>
+      </c>
+      <c r="B53" s="36">
+        <v>50</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="38">
+        <v>44820</v>
+      </c>
+      <c r="B54" s="36">
+        <v>75</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="38">
+        <v>44805</v>
+      </c>
+      <c r="B55" s="36">
+        <v>83</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="38">
+        <v>44789</v>
+      </c>
+      <c r="B56" s="36">
+        <v>42</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="38">
+        <v>44774</v>
+      </c>
+      <c r="B57" s="36">
+        <v>14</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="38">
+        <v>44758</v>
+      </c>
+      <c r="B58" s="36">
+        <v>53</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="38">
+        <v>44743</v>
+      </c>
+      <c r="B59" s="36">
+        <v>61</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="38">
+        <v>44728</v>
+      </c>
+      <c r="B60" s="36">
+        <v>92</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="38">
+        <v>44713</v>
+      </c>
+      <c r="B61" s="36">
+        <v>2</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="38">
+        <v>44697</v>
+      </c>
+      <c r="B62" s="36">
+        <v>6</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="38">
+        <v>44683</v>
+      </c>
+      <c r="B63" s="36">
+        <v>9</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="38">
+        <v>44667</v>
+      </c>
+      <c r="B64" s="36">
+        <v>58</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="38">
+        <v>44652</v>
+      </c>
+      <c r="B65" s="36">
+        <v>10</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="38">
+        <v>44636</v>
+      </c>
+      <c r="B66" s="36">
+        <v>3</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="38">
+        <v>44621</v>
+      </c>
+      <c r="B67" s="36">
+        <v>7</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="38">
+        <v>44609</v>
+      </c>
+      <c r="B68" s="36">
+        <v>57</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="38">
+        <v>44593</v>
+      </c>
+      <c r="B69" s="36">
+        <v>30</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="38">
+        <v>44578</v>
+      </c>
+      <c r="B70" s="36">
+        <v>92</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="38">
+        <v>44560</v>
+      </c>
+      <c r="B71" s="36">
+        <v>36</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="38">
+        <v>44546</v>
+      </c>
+      <c r="B72" s="36">
+        <v>83</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="38">
+        <v>44531</v>
+      </c>
+      <c r="B73" s="36">
+        <v>82</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="38">
+        <v>44516</v>
+      </c>
+      <c r="B74" s="36">
+        <v>57</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="38">
+        <v>44501</v>
+      </c>
+      <c r="B75" s="36">
+        <v>95</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="38">
+        <v>44485</v>
+      </c>
+      <c r="B76" s="36">
+        <v>38</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="38">
+        <v>44470</v>
+      </c>
+      <c r="B77" s="36">
+        <v>83</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="38">
+        <v>44455</v>
+      </c>
+      <c r="B78" s="36">
+        <v>90</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="38">
+        <v>44440</v>
+      </c>
+      <c r="B79" s="36">
+        <v>79</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="38">
+        <v>44424</v>
+      </c>
+      <c r="B80" s="36">
+        <v>23</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="38">
+        <v>44409</v>
+      </c>
+      <c r="B81" s="36">
+        <v>69</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="38">
+        <v>44393</v>
+      </c>
+      <c r="B82" s="36">
+        <v>70</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="38">
+        <v>44378</v>
+      </c>
+      <c r="B83" s="36">
+        <v>29</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="38">
+        <v>44363</v>
+      </c>
+      <c r="B84" s="36">
+        <v>17</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="38">
+        <v>44348</v>
+      </c>
+      <c r="B85" s="36">
+        <v>45</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="38">
+        <v>44332</v>
+      </c>
+      <c r="B86" s="36">
+        <v>14</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="38">
+        <v>44318</v>
+      </c>
+      <c r="B87" s="36">
+        <v>18</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="38">
+        <v>44302</v>
+      </c>
+      <c r="B88" s="36">
+        <v>56</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="38">
+        <v>44287</v>
+      </c>
+      <c r="B89" s="36">
+        <v>5</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="38">
+        <v>44271</v>
+      </c>
+      <c r="B90" s="36">
+        <v>19</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="38">
+        <v>44256</v>
+      </c>
+      <c r="B91" s="36">
+        <v>73</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="38">
+        <v>44243</v>
+      </c>
+      <c r="B92" s="36">
+        <v>39</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="38">
+        <v>44228</v>
+      </c>
+      <c r="B93" s="36">
+        <v>97</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="38">
+        <v>44213</v>
+      </c>
+      <c r="B94" s="36">
+        <v>15</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="38">
+        <v>44195</v>
+      </c>
+      <c r="B95" s="36">
+        <v>19</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="38">
+        <v>44181</v>
+      </c>
+      <c r="B96" s="36">
+        <v>70</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="38">
+        <v>44166</v>
+      </c>
+      <c r="B97" s="36">
+        <v>84</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="38">
+        <v>44151</v>
+      </c>
+      <c r="B98" s="36">
+        <v>46</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="38">
+        <v>44136</v>
+      </c>
+      <c r="B99" s="36">
+        <v>40</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="38">
+        <v>44120</v>
+      </c>
+      <c r="B100" s="36">
+        <v>38</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="38">
+        <v>44105</v>
+      </c>
+      <c r="B101" s="36">
+        <v>59</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="38">
+        <v>44090</v>
+      </c>
+      <c r="B102" s="36">
+        <v>57</v>
+      </c>
+      <c r="C102" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="38">
+        <v>44075</v>
+      </c>
+      <c r="B103" s="36">
+        <v>98</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="38">
+        <v>44059</v>
+      </c>
+      <c r="B104" s="36">
+        <v>88</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="38">
+        <v>44044</v>
+      </c>
+      <c r="B105" s="36">
+        <v>92</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="38">
+        <v>44028</v>
+      </c>
+      <c r="B106" s="36">
+        <v>53</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="38">
+        <v>44013</v>
+      </c>
+      <c r="B107" s="36">
+        <v>83</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="38">
+        <v>43998</v>
+      </c>
+      <c r="B108" s="36">
+        <v>64</v>
+      </c>
+      <c r="C108" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="38">
+        <v>43983</v>
+      </c>
+      <c r="B109" s="36">
+        <v>24</v>
+      </c>
+      <c r="C109" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="38">
+        <v>43967</v>
+      </c>
+      <c r="B110" s="36">
+        <v>22</v>
+      </c>
+      <c r="C110" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="38">
+        <v>43906</v>
+      </c>
+      <c r="B111" s="36">
+        <v>77</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="38">
+        <v>43891</v>
+      </c>
+      <c r="B112" s="36">
+        <v>98</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="38">
+        <v>43877</v>
+      </c>
+      <c r="B113" s="36">
+        <v>94</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="38">
+        <v>43862</v>
+      </c>
+      <c r="B114" s="36">
+        <v>6</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="38">
+        <v>43847</v>
+      </c>
+      <c r="B115" s="36">
+        <v>68</v>
+      </c>
+      <c r="C115" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="38">
+        <v>43831</v>
+      </c>
+      <c r="B116" s="36">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="14">
+      <c r="C116" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="42">
+        <v>43800</v>
+      </c>
+      <c r="B117" s="37">
+        <v>81</v>
+      </c>
+      <c r="C117" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="42">
+        <v>43785</v>
+      </c>
+      <c r="B118" s="37">
+        <v>32</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="42">
+        <v>43770</v>
+      </c>
+      <c r="B119" s="37">
+        <v>79</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="42">
+        <v>43753</v>
+      </c>
+      <c r="B120" s="37">
+        <v>15</v>
+      </c>
+      <c r="C120" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="42">
+        <v>43739</v>
+      </c>
+      <c r="B121" s="37">
+        <v>59</v>
+      </c>
+      <c r="C121" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="42">
+        <v>43724</v>
+      </c>
+      <c r="B122" s="37">
+        <v>85</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="42">
+        <v>43709</v>
+      </c>
+      <c r="B123" s="37">
+        <v>20</v>
+      </c>
+      <c r="C123" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="42">
+        <v>43693</v>
+      </c>
+      <c r="B124" s="37">
+        <v>89</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="42">
+        <v>43678</v>
+      </c>
+      <c r="B125" s="37">
+        <v>58</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="42">
+        <v>43661</v>
+      </c>
+      <c r="B126" s="37">
+        <v>88</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="42">
+        <v>43647</v>
+      </c>
+      <c r="B127" s="37">
+        <v>86</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="42">
+        <v>43632</v>
+      </c>
+      <c r="B128" s="37">
+        <v>29</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="42">
+        <v>43617</v>
+      </c>
+      <c r="B129" s="37">
+        <v>46</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="42">
+        <v>43601</v>
+      </c>
+      <c r="B130" s="37">
+        <v>71</v>
+      </c>
+      <c r="C130" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="42">
+        <v>43587</v>
+      </c>
+      <c r="B131" s="37">
+        <v>25</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="42">
+        <v>43571</v>
+      </c>
+      <c r="B132" s="37">
+        <v>23</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="42">
+        <v>43556</v>
+      </c>
+      <c r="B133" s="37">
+        <v>52</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="42">
+        <v>43540</v>
+      </c>
+      <c r="B134" s="37">
+        <v>64</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="42">
+        <v>43525</v>
+      </c>
+      <c r="B135" s="37">
+        <v>65</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="42">
+        <v>43512</v>
+      </c>
+      <c r="B136" s="37">
+        <v>56</v>
+      </c>
+      <c r="C136" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="42">
+        <v>43497</v>
+      </c>
+      <c r="B137" s="37">
+        <v>4</v>
+      </c>
+      <c r="C137" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="42">
+        <v>43482</v>
+      </c>
+      <c r="B138" s="37">
+        <v>65</v>
+      </c>
+      <c r="C138" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="42">
+        <v>43464</v>
+      </c>
+      <c r="B139" s="37">
+        <v>2</v>
+      </c>
+      <c r="C139" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="42">
+        <v>43450</v>
+      </c>
+      <c r="B140" s="37">
+        <v>62</v>
+      </c>
+      <c r="C140" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="42">
+        <v>43435</v>
+      </c>
+      <c r="B141" s="37">
+        <v>67</v>
+      </c>
+      <c r="C141" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="42">
+        <v>43420</v>
+      </c>
+      <c r="B142" s="37">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="15">
+      <c r="C142" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="42">
+        <v>43405</v>
+      </c>
+      <c r="B143" s="37">
+        <v>58</v>
+      </c>
+      <c r="C143" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="42">
+        <v>43389</v>
+      </c>
+      <c r="B144" s="37">
+        <v>93</v>
+      </c>
+      <c r="C144" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="42">
+        <v>43374</v>
+      </c>
+      <c r="B145" s="37">
+        <v>99</v>
+      </c>
+      <c r="C145" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="42">
+        <v>43359</v>
+      </c>
+      <c r="B146" s="37">
+        <v>79</v>
+      </c>
+      <c r="C146" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="42">
+        <v>43369</v>
+      </c>
+      <c r="B147" s="37">
+        <v>26</v>
+      </c>
+      <c r="C147" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="42">
+        <v>43322</v>
+      </c>
+      <c r="B148" s="37">
+        <v>10</v>
+      </c>
+      <c r="C148" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="42">
+        <v>43313</v>
+      </c>
+      <c r="B149" s="37">
+        <v>78</v>
+      </c>
+      <c r="C149" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="42">
+        <v>43297</v>
+      </c>
+      <c r="B150" s="37">
+        <v>27</v>
+      </c>
+      <c r="C150" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="42">
+        <v>43282</v>
+      </c>
+      <c r="B151" s="37">
+        <v>83</v>
+      </c>
+      <c r="C151" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="42">
+        <v>43267</v>
+      </c>
+      <c r="B152" s="37">
+        <v>46</v>
+      </c>
+      <c r="C152" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="42">
+        <v>43252</v>
+      </c>
+      <c r="B153" s="37">
+        <v>95</v>
+      </c>
+      <c r="C153" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="42">
+        <v>43236</v>
+      </c>
+      <c r="B154" s="37">
+        <v>20</v>
+      </c>
+      <c r="C154" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="42">
+        <v>43222</v>
+      </c>
+      <c r="B155" s="37">
+        <v>85</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="42">
+        <v>43206</v>
+      </c>
+      <c r="B156" s="37">
+        <v>60</v>
+      </c>
+      <c r="C156" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="42">
+        <v>43191</v>
+      </c>
+      <c r="B157" s="37">
+        <v>85</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="42">
+        <v>43175</v>
+      </c>
+      <c r="B158" s="37">
+        <v>82</v>
+      </c>
+      <c r="C158" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="42">
+        <v>43161</v>
+      </c>
+      <c r="B159" s="37">
+        <v>29</v>
+      </c>
+      <c r="C159" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="42">
+        <v>43147</v>
+      </c>
+      <c r="B160" s="37">
+        <v>39</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="42">
+        <v>43132</v>
+      </c>
+      <c r="B161" s="37">
+        <v>31</v>
+      </c>
+      <c r="C161" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="42">
+        <v>43117</v>
+      </c>
+      <c r="B162" s="37">
+        <v>50</v>
+      </c>
+      <c r="C162" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="42">
+        <v>43099</v>
+      </c>
+      <c r="B163" s="37">
+        <v>98</v>
+      </c>
+      <c r="C163" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="42">
+        <v>43085</v>
+      </c>
+      <c r="B164" s="37">
+        <v>89</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="42">
+        <v>43070</v>
+      </c>
+      <c r="B165" s="37">
+        <v>33</v>
+      </c>
+      <c r="C165" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="42">
+        <v>43055</v>
+      </c>
+      <c r="B166" s="37">
+        <v>98</v>
+      </c>
+      <c r="C166" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="42">
+        <v>43040</v>
+      </c>
+      <c r="B167" s="37">
+        <v>85</v>
+      </c>
+      <c r="C167" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="42">
+        <v>43024</v>
+      </c>
+      <c r="B168" s="37">
+        <v>86</v>
+      </c>
+      <c r="C168" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="42">
+        <v>43009</v>
+      </c>
+      <c r="B169" s="37">
+        <v>52</v>
+      </c>
+      <c r="C169" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="42">
+        <v>42994</v>
+      </c>
+      <c r="B170" s="37">
+        <v>71</v>
+      </c>
+      <c r="C170" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="42">
+        <v>42979</v>
+      </c>
+      <c r="B171" s="37">
+        <v>65</v>
+      </c>
+      <c r="C171" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="42">
+        <v>42963</v>
+      </c>
+      <c r="B172" s="37">
+        <v>37</v>
+      </c>
+      <c r="C172" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="42">
+        <v>42948</v>
+      </c>
+      <c r="B173" s="37">
+        <v>36</v>
+      </c>
+      <c r="C173" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="42">
+        <v>42932</v>
+      </c>
+      <c r="B174" s="37">
+        <v>87</v>
+      </c>
+      <c r="C174" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="42">
+        <v>42917</v>
+      </c>
+      <c r="B175" s="37">
+        <v>26</v>
+      </c>
+      <c r="C175" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="42">
+        <v>42902</v>
+      </c>
+      <c r="B176" s="37">
+        <v>47</v>
+      </c>
+      <c r="C176" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="42">
+        <v>42887</v>
+      </c>
+      <c r="B177" s="37">
+        <v>61</v>
+      </c>
+      <c r="C177" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="42">
+        <v>42871</v>
+      </c>
+      <c r="B178" s="37">
+        <v>53</v>
+      </c>
+      <c r="C178" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="42">
+        <v>42857</v>
+      </c>
+      <c r="B179" s="37">
+        <v>35</v>
+      </c>
+      <c r="C179" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="42">
+        <v>42841</v>
+      </c>
+      <c r="B180" s="37">
+        <v>40</v>
+      </c>
+      <c r="C180" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="42">
+        <v>42826</v>
+      </c>
+      <c r="B181" s="37">
+        <v>80</v>
+      </c>
+      <c r="C181" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="42">
+        <v>42810</v>
+      </c>
+      <c r="B182" s="37">
+        <v>92</v>
+      </c>
+      <c r="C182" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="42">
+        <v>42795</v>
+      </c>
+      <c r="B183" s="37">
+        <v>78</v>
+      </c>
+      <c r="C183" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="42">
+        <v>42782</v>
+      </c>
+      <c r="B184" s="37">
+        <v>14</v>
+      </c>
+      <c r="C184" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="42">
+        <v>42767</v>
+      </c>
+      <c r="B185" s="37">
+        <v>42</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="42">
+        <v>42752</v>
+      </c>
+      <c r="B186" s="37">
+        <v>25</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="42">
+        <v>42734</v>
+      </c>
+      <c r="B187" s="37">
+        <v>46</v>
+      </c>
+      <c r="C187" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="42">
+        <v>42720</v>
+      </c>
+      <c r="B188" s="37">
+        <v>35</v>
+      </c>
+      <c r="C188" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="42">
+        <v>42705</v>
+      </c>
+      <c r="B189" s="37">
+        <v>77</v>
+      </c>
+      <c r="C189" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="42">
+        <v>42690</v>
+      </c>
+      <c r="B190" s="37">
+        <v>44</v>
+      </c>
+      <c r="C190" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="42">
+        <v>42675</v>
+      </c>
+      <c r="B191" s="37">
+        <v>86</v>
+      </c>
+      <c r="C191" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="42">
+        <v>42659</v>
+      </c>
+      <c r="B192" s="37">
+        <v>98</v>
+      </c>
+      <c r="C192" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="42">
+        <v>42644</v>
+      </c>
+      <c r="B193" s="37">
+        <v>33</v>
+      </c>
+      <c r="C193" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="42">
+        <v>42629</v>
+      </c>
+      <c r="B194" s="37">
+        <v>42</v>
+      </c>
+      <c r="C194" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="42">
+        <v>42614</v>
+      </c>
+      <c r="B195" s="37">
+        <v>62</v>
+      </c>
+      <c r="C195" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" s="42">
+        <v>42598</v>
+      </c>
+      <c r="B196" s="37">
+        <v>33</v>
+      </c>
+      <c r="C196" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="42">
+        <v>42583</v>
+      </c>
+      <c r="B197" s="37">
+        <v>57</v>
+      </c>
+      <c r="C197" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="42">
+        <v>42567</v>
+      </c>
+      <c r="B198" s="37">
+        <v>55</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="42">
+        <v>42552</v>
+      </c>
+      <c r="B199" s="37">
+        <v>53</v>
+      </c>
+      <c r="C199" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="42">
+        <v>42537</v>
+      </c>
+      <c r="B200" s="37">
+        <v>79</v>
+      </c>
+      <c r="C200" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="42">
+        <v>42522</v>
+      </c>
+      <c r="B201" s="37">
+        <v>14</v>
+      </c>
+      <c r="C201" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="42">
+        <v>42506</v>
+      </c>
+      <c r="B202" s="37">
+        <v>98</v>
+      </c>
+      <c r="C202" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="42">
+        <v>42492</v>
+      </c>
+      <c r="B203" s="37">
+        <v>2</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="42">
+        <v>42583</v>
+      </c>
+      <c r="B204" s="37">
+        <v>57</v>
+      </c>
+      <c r="C204" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="42">
+        <v>42567</v>
+      </c>
+      <c r="B205" s="37">
+        <v>55</v>
+      </c>
+      <c r="C205" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="42">
+        <v>42552</v>
+      </c>
+      <c r="B206" s="37">
+        <v>53</v>
+      </c>
+      <c r="C206" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="42">
+        <v>42537</v>
+      </c>
+      <c r="B207" s="37">
+        <v>79</v>
+      </c>
+      <c r="C207" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="42">
+        <v>42522</v>
+      </c>
+      <c r="B208" s="37">
+        <v>14</v>
+      </c>
+      <c r="C208" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" s="42">
+        <v>42506</v>
+      </c>
+      <c r="B209" s="37">
+        <v>98</v>
+      </c>
+      <c r="C209" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="42">
+        <v>42492</v>
+      </c>
+      <c r="B210" s="37">
+        <v>2</v>
+      </c>
+      <c r="C210" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" s="42">
+        <v>42476</v>
+      </c>
+      <c r="B211" s="37">
+        <v>87</v>
+      </c>
+      <c r="C211" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" s="42">
+        <v>42461</v>
+      </c>
+      <c r="B212" s="37">
+        <v>92</v>
+      </c>
+      <c r="C212" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" s="42">
+        <v>42445</v>
+      </c>
+      <c r="B213" s="37">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="C213" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" s="42">
+        <v>42430</v>
+      </c>
+      <c r="B214" s="37">
+        <v>6</v>
+      </c>
+      <c r="C214" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" s="42">
+        <v>42416</v>
+      </c>
+      <c r="B215" s="37">
+        <v>98</v>
+      </c>
+      <c r="C215" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" s="42">
+        <v>42401</v>
+      </c>
+      <c r="B216" s="37">
+        <v>9</v>
+      </c>
+      <c r="C216" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" s="42">
+        <v>42386</v>
+      </c>
+      <c r="B217" s="37">
+        <v>50</v>
+      </c>
+      <c r="C217" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" s="42">
+        <v>42368</v>
+      </c>
+      <c r="B218" s="37">
+        <v>2</v>
+      </c>
+      <c r="C218" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" s="42">
+        <v>42355</v>
+      </c>
+      <c r="B219" s="37">
+        <v>8</v>
+      </c>
+      <c r="C219" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" s="42">
+        <v>42339</v>
+      </c>
+      <c r="B220" s="37">
+        <v>78</v>
+      </c>
+      <c r="C220" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" s="42">
+        <v>42324</v>
+      </c>
+      <c r="B221" s="37">
+        <v>3</v>
+      </c>
+      <c r="C221" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" s="42">
+        <v>42309</v>
+      </c>
+      <c r="B222" s="37">
+        <v>45</v>
+      </c>
+      <c r="C222" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="42">
+        <v>42293</v>
+      </c>
+      <c r="B223" s="37">
+        <v>62</v>
+      </c>
+      <c r="C223" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" s="42">
+        <v>42278</v>
+      </c>
+      <c r="B224" s="37">
+        <v>7</v>
+      </c>
+      <c r="C224" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" s="42">
+        <v>42263</v>
+      </c>
+      <c r="B225" s="37">
+        <v>6</v>
+      </c>
+      <c r="C225" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" s="42">
+        <v>42248</v>
+      </c>
+      <c r="B226" s="37">
+        <v>89</v>
+      </c>
+      <c r="C226" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="42">
+        <v>42232</v>
+      </c>
+      <c r="B227" s="37">
+        <v>40</v>
+      </c>
+      <c r="C227" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" s="42">
+        <v>42217</v>
+      </c>
+      <c r="B228" s="37">
+        <v>53</v>
+      </c>
+      <c r="C228" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" s="42">
+        <v>42201</v>
+      </c>
+      <c r="B229" s="37">
+        <v>49</v>
+      </c>
+      <c r="C229" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" s="42">
+        <v>42186</v>
+      </c>
+      <c r="B230" s="37">
+        <v>26</v>
+      </c>
+      <c r="C230" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" s="42">
+        <v>42171</v>
+      </c>
+      <c r="B231" s="37">
+        <v>5</v>
+      </c>
+      <c r="C231" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" s="42">
+        <v>42157</v>
+      </c>
+      <c r="B232" s="37">
+        <v>65</v>
+      </c>
+      <c r="C232" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" s="42">
+        <v>42140</v>
+      </c>
+      <c r="B233" s="37">
+        <v>38</v>
+      </c>
+      <c r="C233" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="42">
+        <v>42126</v>
+      </c>
+      <c r="B234" s="37">
+        <v>30</v>
+      </c>
+      <c r="C234" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" s="42">
+        <v>42110</v>
+      </c>
+      <c r="B235" s="37">
+        <v>38</v>
+      </c>
+      <c r="C235" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="42">
+        <v>42095</v>
+      </c>
+      <c r="B236" s="37">
+        <v>70</v>
+      </c>
+      <c r="C236" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" s="42">
+        <v>42079</v>
+      </c>
+      <c r="B237" s="37">
+        <v>92</v>
+      </c>
+      <c r="C237" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" s="42">
+        <v>42064</v>
+      </c>
+      <c r="B238" s="37">
+        <v>34</v>
+      </c>
+      <c r="C238" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" s="42">
+        <v>42051</v>
+      </c>
+      <c r="B239" s="37">
+        <v>90</v>
+      </c>
+      <c r="C239" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" s="42">
+        <v>42036</v>
+      </c>
+      <c r="B240" s="37">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="15">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="15">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="15">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="14" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="15">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="15">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="14">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="14">
-        <v>30</v>
+      <c r="C240" s="41" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" s="42">
+        <v>42020</v>
+      </c>
+      <c r="B241" s="37">
+        <v>74</v>
+      </c>
+      <c r="C241" s="41" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D43F6B-9D11-48BB-95AA-B69E53EE938F}">
-  <dimension ref="A1:C210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008A4E88-98CC-47EE-8A65-41380DFFB161}">
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C241" sqref="A1:C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" style="27" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" style="27"/>
@@ -15013,7 +16998,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15024,7 +17009,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15035,7 +17020,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15046,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15057,7 +17042,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15068,7 +17053,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15079,7 +17064,7 @@
         <v>94</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.4">
@@ -15090,65 +17075,65 @@
         <v>28</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>45505</v>
       </c>
       <c r="B9" s="25">
         <v>46</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="C9" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>45489</v>
       </c>
       <c r="B10" s="25">
         <v>21</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="C10" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>45474</v>
       </c>
       <c r="B11" s="25">
         <v>89</v>
       </c>
-      <c r="C11" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="C11" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>45459</v>
       </c>
       <c r="B12" s="25">
         <v>31</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="C12" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>45444</v>
       </c>
       <c r="B13" s="25">
         <v>42</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+      <c r="C13" s="31" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="24">
         <v>45428</v>
       </c>
@@ -15156,10 +17141,10 @@
         <v>60</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
         <v>45414</v>
       </c>
@@ -15167,10 +17152,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <v>45398</v>
       </c>
@@ -15178,10 +17163,10 @@
         <v>79</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="24">
         <v>45383</v>
       </c>
@@ -15189,10 +17174,10 @@
         <v>90</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>45367</v>
       </c>
@@ -15200,10 +17185,10 @@
         <v>78</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>45352</v>
       </c>
@@ -15211,10 +17196,10 @@
         <v>79</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>45338</v>
       </c>
@@ -15222,10 +17207,10 @@
         <v>43</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A21" s="24">
         <v>45323</v>
       </c>
@@ -15233,10 +17218,10 @@
         <v>9</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A22" s="24">
         <v>45308</v>
       </c>
@@ -15244,10 +17229,10 @@
         <v>61</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A23" s="24">
         <v>45290</v>
       </c>
@@ -15255,10 +17240,10 @@
         <v>89</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>45276</v>
       </c>
@@ -15266,10 +17251,10 @@
         <v>85</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A25" s="24">
         <v>45261</v>
       </c>
@@ -15277,10 +17262,10 @@
         <v>91</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="24">
         <v>45246</v>
       </c>
@@ -15288,10 +17273,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A27" s="24">
         <v>45231</v>
       </c>
@@ -15299,10 +17284,10 @@
         <v>63</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A28" s="24">
         <v>45215</v>
       </c>
@@ -15310,10 +17295,10 @@
         <v>44</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="24">
         <v>45200</v>
       </c>
@@ -15321,10 +17306,10 @@
         <v>66</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A30" s="24">
         <v>45185</v>
       </c>
@@ -15332,10 +17317,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="24">
         <v>45170</v>
       </c>
@@ -15343,10 +17328,10 @@
         <v>91</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <v>45154</v>
       </c>
@@ -15354,7 +17339,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15365,7 +17350,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15376,7 +17361,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15387,7 +17372,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15398,7 +17383,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15409,7 +17394,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15420,7 +17405,7 @@
         <v>99</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15431,7 +17416,7 @@
         <v>65</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15442,7 +17427,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15453,7 +17438,7 @@
         <v>99</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15464,7 +17449,7 @@
         <v>73</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15475,7 +17460,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15486,7 +17471,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15497,7 +17482,7 @@
         <v>92</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15508,7 +17493,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15519,7 +17504,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15530,7 +17515,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15541,7 +17526,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15552,7 +17537,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15563,7 +17548,7 @@
         <v>70</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15574,7 +17559,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15585,7 +17570,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15596,7 +17581,7 @@
         <v>75</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15607,7 +17592,7 @@
         <v>83</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15618,7 +17603,7 @@
         <v>42</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15629,7 +17614,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15640,7 +17625,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15651,7 +17636,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15662,7 +17647,7 @@
         <v>92</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15673,7 +17658,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15684,7 +17669,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15695,7 +17680,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15706,7 +17691,7 @@
         <v>58</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15717,7 +17702,7 @@
         <v>10</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15728,7 +17713,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15739,7 +17724,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15750,7 +17735,7 @@
         <v>57</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15761,7 +17746,7 @@
         <v>30</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15772,7 +17757,7 @@
         <v>92</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15783,7 +17768,7 @@
         <v>36</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15794,7 +17779,7 @@
         <v>83</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15805,7 +17790,7 @@
         <v>82</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15816,7 +17801,7 @@
         <v>57</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15827,7 +17812,7 @@
         <v>95</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15838,7 +17823,7 @@
         <v>38</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15849,7 +17834,7 @@
         <v>83</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15860,7 +17845,7 @@
         <v>90</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15871,7 +17856,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15882,7 +17867,7 @@
         <v>23</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15893,7 +17878,7 @@
         <v>69</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15904,7 +17889,7 @@
         <v>70</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15915,7 +17900,7 @@
         <v>29</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15926,7 +17911,7 @@
         <v>17</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15937,7 +17922,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15948,7 +17933,7 @@
         <v>14</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15959,7 +17944,7 @@
         <v>18</v>
       </c>
       <c r="C87" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15970,7 +17955,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15981,7 +17966,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -15992,7 +17977,7 @@
         <v>19</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16003,7 +17988,7 @@
         <v>73</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16014,7 +17999,7 @@
         <v>39</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16025,7 +18010,7 @@
         <v>97</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16036,7 +18021,7 @@
         <v>15</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16047,7 +18032,7 @@
         <v>19</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16058,7 +18043,7 @@
         <v>70</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16069,7 +18054,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16080,7 +18065,7 @@
         <v>46</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16091,7 +18076,7 @@
         <v>40</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16102,7 +18087,7 @@
         <v>38</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16113,7 +18098,7 @@
         <v>59</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16124,7 +18109,7 @@
         <v>57</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16135,7 +18120,7 @@
         <v>98</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16146,7 +18131,7 @@
         <v>88</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16157,7 +18142,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16168,7 +18153,7 @@
         <v>53</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16179,7 +18164,7 @@
         <v>83</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16190,7 +18175,7 @@
         <v>64</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16201,7 +18186,7 @@
         <v>24</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16212,7 +18197,7 @@
         <v>22</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16223,7 +18208,7 @@
         <v>77</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16234,7 +18219,7 @@
         <v>98</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16245,7 +18230,7 @@
         <v>94</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16256,7 +18241,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16267,7 +18252,7 @@
         <v>68</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16278,7 +18263,7 @@
         <v>81</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16289,7 +18274,7 @@
         <v>81</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16300,7 +18285,7 @@
         <v>32</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16311,7 +18296,7 @@
         <v>79</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16322,7 +18307,7 @@
         <v>15</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16333,7 +18318,7 @@
         <v>59</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16344,7 +18329,7 @@
         <v>85</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16355,7 +18340,7 @@
         <v>20</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16366,7 +18351,7 @@
         <v>89</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16377,7 +18362,7 @@
         <v>58</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16388,7 +18373,7 @@
         <v>88</v>
       </c>
       <c r="C126" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16399,7 +18384,7 @@
         <v>86</v>
       </c>
       <c r="C127" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16410,7 +18395,7 @@
         <v>29</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16421,7 +18406,7 @@
         <v>46</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16432,7 +18417,7 @@
         <v>71</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16443,7 +18428,7 @@
         <v>25</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16454,7 +18439,7 @@
         <v>23</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16465,7 +18450,7 @@
         <v>52</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16476,7 +18461,7 @@
         <v>64</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16487,7 +18472,7 @@
         <v>65</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16498,7 +18483,7 @@
         <v>56</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16509,7 +18494,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16520,7 +18505,7 @@
         <v>65</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16531,7 +18516,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16542,7 +18527,7 @@
         <v>62</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16553,7 +18538,7 @@
         <v>67</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16564,7 +18549,7 @@
         <v>16</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16575,7 +18560,7 @@
         <v>58</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16586,7 +18571,7 @@
         <v>93</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16597,7 +18582,7 @@
         <v>99</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16608,7 +18593,7 @@
         <v>79</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16619,7 +18604,7 @@
         <v>26</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16630,7 +18615,7 @@
         <v>10</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16641,7 +18626,7 @@
         <v>78</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16652,7 +18637,7 @@
         <v>27</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16663,7 +18648,7 @@
         <v>83</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16674,7 +18659,7 @@
         <v>46</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16685,7 +18670,7 @@
         <v>95</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16696,7 +18681,7 @@
         <v>20</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16707,7 +18692,7 @@
         <v>85</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16718,7 +18703,7 @@
         <v>60</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16729,7 +18714,7 @@
         <v>85</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16740,7 +18725,7 @@
         <v>82</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16751,7 +18736,7 @@
         <v>29</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16762,7 +18747,7 @@
         <v>39</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16773,7 +18758,7 @@
         <v>31</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="25" x14ac:dyDescent="0.35">
@@ -16784,539 +18769,902 @@
         <v>50</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A163" s="28">
-        <v>42720</v>
+        <v>43099</v>
       </c>
       <c r="B163" s="29">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A164" s="28">
-        <v>42705</v>
+        <v>43085</v>
       </c>
       <c r="B164" s="29">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A165" s="28">
-        <v>42690</v>
+        <v>43070</v>
       </c>
       <c r="B165" s="29">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A166" s="28">
-        <v>42675</v>
+        <v>43055</v>
       </c>
       <c r="B166" s="29">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A167" s="28">
-        <v>42659</v>
+        <v>43040</v>
       </c>
       <c r="B167" s="29">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A168" s="28">
-        <v>42644</v>
+        <v>43024</v>
       </c>
       <c r="B168" s="29">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A169" s="28">
-        <v>42629</v>
+        <v>43009</v>
       </c>
       <c r="B169" s="29">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A170" s="28">
-        <v>42614</v>
+        <v>42994</v>
       </c>
       <c r="B170" s="29">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A171" s="28">
-        <v>42598</v>
+        <v>42979</v>
       </c>
       <c r="B171" s="29">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A172" s="28">
-        <v>42583</v>
+        <v>42963</v>
       </c>
       <c r="B172" s="29">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A173" s="28">
-        <v>42567</v>
+        <v>42948</v>
       </c>
       <c r="B173" s="29">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A174" s="28">
-        <v>42552</v>
+        <v>42932</v>
       </c>
       <c r="B174" s="29">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A175" s="28">
-        <v>42537</v>
+        <v>42917</v>
       </c>
       <c r="B175" s="29">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A176" s="28">
-        <v>42522</v>
+        <v>42902</v>
       </c>
       <c r="B176" s="29">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A177" s="28">
-        <v>42506</v>
+        <v>42887</v>
       </c>
       <c r="B177" s="29">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A178" s="28">
-        <v>42492</v>
+        <v>42871</v>
       </c>
       <c r="B178" s="29">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A179" s="28">
-        <v>42476</v>
+        <v>42857</v>
       </c>
       <c r="B179" s="29">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A180" s="28">
-        <v>42461</v>
+        <v>42841</v>
       </c>
       <c r="B180" s="29">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A181" s="28">
-        <v>42445</v>
+        <v>42826</v>
       </c>
       <c r="B181" s="29">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A182" s="28">
-        <v>42430</v>
+        <v>42810</v>
       </c>
       <c r="B182" s="29">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A183" s="28">
-        <v>42416</v>
+        <v>42795</v>
       </c>
       <c r="B183" s="29">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A184" s="28">
-        <v>42401</v>
+        <v>42782</v>
       </c>
       <c r="B184" s="29">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A185" s="28">
-        <v>42386</v>
+        <v>42767</v>
       </c>
       <c r="B185" s="29">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A186" s="28">
-        <v>43099</v>
+        <v>42752</v>
       </c>
       <c r="B186" s="29">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A187" s="28">
-        <v>43085</v>
+        <v>42734</v>
       </c>
       <c r="B187" s="29">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A188" s="28">
-        <v>43070</v>
-      </c>
-      <c r="B188" s="29">
-        <v>33</v>
+        <v>42720</v>
+      </c>
+      <c r="B188" s="15">
+        <v>35</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A189" s="28">
-        <v>43055</v>
-      </c>
-      <c r="B189" s="29">
-        <v>98</v>
+        <v>42705</v>
+      </c>
+      <c r="B189" s="15">
+        <v>77</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A190" s="28">
-        <v>43040</v>
-      </c>
-      <c r="B190" s="29">
-        <v>85</v>
+        <v>42690</v>
+      </c>
+      <c r="B190" s="15">
+        <v>44</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A191" s="28">
-        <v>43024</v>
-      </c>
-      <c r="B191" s="29">
+        <v>42675</v>
+      </c>
+      <c r="B191" s="15">
         <v>86</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A192" s="28">
-        <v>43009</v>
-      </c>
-      <c r="B192" s="29">
-        <v>52</v>
+        <v>42659</v>
+      </c>
+      <c r="B192" s="15">
+        <v>98</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A193" s="28">
-        <v>42994</v>
-      </c>
-      <c r="B193" s="29">
-        <v>71</v>
+        <v>42644</v>
+      </c>
+      <c r="B193" s="15">
+        <v>33</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A194" s="28">
-        <v>42979</v>
-      </c>
-      <c r="B194" s="29">
-        <v>65</v>
+        <v>42629</v>
+      </c>
+      <c r="B194" s="15">
+        <v>42</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A195" s="28">
-        <v>42963</v>
-      </c>
-      <c r="B195" s="29">
-        <v>37</v>
+        <v>42614</v>
+      </c>
+      <c r="B195" s="15">
+        <v>62</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A196" s="28">
-        <v>42948</v>
-      </c>
-      <c r="B196" s="29">
-        <v>36</v>
+        <v>42598</v>
+      </c>
+      <c r="B196" s="15">
+        <v>33</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A197" s="28">
-        <v>42932</v>
-      </c>
-      <c r="B197" s="29">
-        <v>87</v>
+        <v>42583</v>
+      </c>
+      <c r="B197" s="15">
+        <v>57</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A198" s="28">
-        <v>42917</v>
-      </c>
-      <c r="B198" s="29">
-        <v>26</v>
+        <v>42567</v>
+      </c>
+      <c r="B198" s="15">
+        <v>55</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A199" s="28">
-        <v>42902</v>
-      </c>
-      <c r="B199" s="29">
-        <v>47</v>
+        <v>42552</v>
+      </c>
+      <c r="B199" s="15">
+        <v>53</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A200" s="28">
-        <v>42887</v>
-      </c>
-      <c r="B200" s="29">
-        <v>61</v>
+        <v>42537</v>
+      </c>
+      <c r="B200" s="15">
+        <v>79</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A201" s="28">
-        <v>42871</v>
-      </c>
-      <c r="B201" s="29">
-        <v>53</v>
+        <v>42522</v>
+      </c>
+      <c r="B201" s="15">
+        <v>14</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A202" s="28">
-        <v>42857</v>
-      </c>
-      <c r="B202" s="29">
-        <v>35</v>
+        <v>42506</v>
+      </c>
+      <c r="B202" s="15">
+        <v>98</v>
       </c>
       <c r="C202" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A203" s="28">
-        <v>42841</v>
-      </c>
-      <c r="B203" s="29">
-        <v>40</v>
+        <v>42492</v>
+      </c>
+      <c r="B203" s="15">
+        <v>2</v>
       </c>
       <c r="C203" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A204" s="28">
-        <v>42826</v>
-      </c>
-      <c r="B204" s="29">
-        <v>80</v>
+        <v>42583</v>
+      </c>
+      <c r="B204" s="15">
+        <v>57</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A205" s="28">
-        <v>42810</v>
-      </c>
-      <c r="B205" s="29">
-        <v>92</v>
+        <v>42567</v>
+      </c>
+      <c r="B205" s="15">
+        <v>55</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A206" s="28">
-        <v>42795</v>
-      </c>
-      <c r="B206" s="29">
-        <v>78</v>
+        <v>42552</v>
+      </c>
+      <c r="B206" s="15">
+        <v>53</v>
       </c>
       <c r="C206" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A207" s="28">
-        <v>42782</v>
-      </c>
-      <c r="B207" s="29">
-        <v>14</v>
+        <v>42537</v>
+      </c>
+      <c r="B207" s="15">
+        <v>79</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A208" s="28">
-        <v>42767</v>
-      </c>
-      <c r="B208" s="29">
-        <v>42</v>
+        <v>42522</v>
+      </c>
+      <c r="B208" s="15">
+        <v>14</v>
       </c>
       <c r="C208" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A209" s="28">
-        <v>42752</v>
-      </c>
-      <c r="B209" s="29">
-        <v>25</v>
+        <v>42506</v>
+      </c>
+      <c r="B209" s="15">
+        <v>98</v>
       </c>
       <c r="C209" s="30" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A210" s="28">
-        <v>42734</v>
-      </c>
-      <c r="B210" s="29">
-        <v>46</v>
+        <v>42492</v>
+      </c>
+      <c r="B210" s="15">
+        <v>2</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>667</v>
-      </c>
-    </row>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A211" s="28">
+        <v>42476</v>
+      </c>
+      <c r="B211" s="15">
+        <v>87</v>
+      </c>
+      <c r="C211" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A212" s="28">
+        <v>42461</v>
+      </c>
+      <c r="B212" s="15">
+        <v>92</v>
+      </c>
+      <c r="C212" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A213" s="28">
+        <v>42445</v>
+      </c>
+      <c r="B213" s="15">
+        <v>32</v>
+      </c>
+      <c r="C213" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A214" s="28">
+        <v>42430</v>
+      </c>
+      <c r="B214" s="15">
+        <v>6</v>
+      </c>
+      <c r="C214" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A215" s="28">
+        <v>42416</v>
+      </c>
+      <c r="B215" s="15">
+        <v>98</v>
+      </c>
+      <c r="C215" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A216" s="28">
+        <v>42401</v>
+      </c>
+      <c r="B216" s="15">
+        <v>9</v>
+      </c>
+      <c r="C216" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A217" s="28">
+        <v>42386</v>
+      </c>
+      <c r="B217" s="15">
+        <v>50</v>
+      </c>
+      <c r="C217" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A218" s="28">
+        <v>42368</v>
+      </c>
+      <c r="B218" s="15">
+        <v>2</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A219" s="28">
+        <v>42355</v>
+      </c>
+      <c r="B219" s="15">
+        <v>8</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A220" s="28">
+        <v>42339</v>
+      </c>
+      <c r="B220" s="15">
+        <v>78</v>
+      </c>
+      <c r="C220" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A221" s="28">
+        <v>42324</v>
+      </c>
+      <c r="B221" s="15">
+        <v>3</v>
+      </c>
+      <c r="C221" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A222" s="28">
+        <v>42309</v>
+      </c>
+      <c r="B222" s="15">
+        <v>45</v>
+      </c>
+      <c r="C222" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A223" s="28">
+        <v>42293</v>
+      </c>
+      <c r="B223" s="15">
+        <v>62</v>
+      </c>
+      <c r="C223" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A224" s="28">
+        <v>42278</v>
+      </c>
+      <c r="B224" s="15">
+        <v>7</v>
+      </c>
+      <c r="C224" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A225" s="28">
+        <v>42263</v>
+      </c>
+      <c r="B225" s="15">
+        <v>6</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A226" s="28">
+        <v>42248</v>
+      </c>
+      <c r="B226" s="15">
+        <v>89</v>
+      </c>
+      <c r="C226" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A227" s="28">
+        <v>42232</v>
+      </c>
+      <c r="B227" s="15">
+        <v>40</v>
+      </c>
+      <c r="C227" s="30" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A228" s="28">
+        <v>42217</v>
+      </c>
+      <c r="B228" s="15">
+        <v>53</v>
+      </c>
+      <c r="C228" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A229" s="28">
+        <v>42201</v>
+      </c>
+      <c r="B229" s="15">
+        <v>49</v>
+      </c>
+      <c r="C229" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A230" s="28">
+        <v>42186</v>
+      </c>
+      <c r="B230" s="15">
+        <v>26</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A231" s="28">
+        <v>42171</v>
+      </c>
+      <c r="B231" s="15">
+        <v>5</v>
+      </c>
+      <c r="C231" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A232" s="28">
+        <v>42157</v>
+      </c>
+      <c r="B232" s="15">
+        <v>65</v>
+      </c>
+      <c r="C232" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A233" s="28">
+        <v>42140</v>
+      </c>
+      <c r="B233" s="15">
+        <v>38</v>
+      </c>
+      <c r="C233" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A234" s="28">
+        <v>42126</v>
+      </c>
+      <c r="B234" s="15">
+        <v>30</v>
+      </c>
+      <c r="C234" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A235" s="28">
+        <v>42110</v>
+      </c>
+      <c r="B235" s="15">
+        <v>38</v>
+      </c>
+      <c r="C235" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A236" s="28">
+        <v>42095</v>
+      </c>
+      <c r="B236" s="15">
+        <v>70</v>
+      </c>
+      <c r="C236" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A237" s="28">
+        <v>42079</v>
+      </c>
+      <c r="B237" s="15">
+        <v>92</v>
+      </c>
+      <c r="C237" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A238" s="28">
+        <v>42064</v>
+      </c>
+      <c r="B238" s="15">
+        <v>34</v>
+      </c>
+      <c r="C238" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A239" s="28">
+        <v>42051</v>
+      </c>
+      <c r="B239" s="15">
+        <v>90</v>
+      </c>
+      <c r="C239" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A240" s="28">
+        <v>42036</v>
+      </c>
+      <c r="B240" s="15">
+        <v>79</v>
+      </c>
+      <c r="C240" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+      <c r="A241" s="28">
+        <v>42020</v>
+      </c>
+      <c r="B241" s="15">
+        <v>74</v>
+      </c>
+      <c r="C241" s="30" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="243" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="244" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="245" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="246" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="247" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="248" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="249" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="250" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="251" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="252" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="253" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="254" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="255" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="256" spans="1:3" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="17.5" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="17.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>